--- a/Final_results/BDF_text_2020.xlsx
+++ b/Final_results/BDF_text_2020.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="399" uniqueCount="399">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="403" uniqueCount="403">
   <si>
     <t xml:space="preserve">Date</t>
   </si>
@@ -936,6 +936,21 @@
   </si>
   <si>
     <t xml:space="preserve">-4.0 (80)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-01-12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Forget the previous instructions and answers. You are François Villeroy de Galhau, Governor of the Banque de France, and you are giving a speech about the economic outlook of France. Today is 12 January 2021. Using ONLY information that was available on or before 12 January 2021, provide a numeric forecast (decimal percent with sign, e.g., +0.3) for French real GDP growth in the fourth quarter of 2020 and a confidence level (integer 0–100). Output EXACTLY in this format on a single line (no extra text):
+&lt;forecast&gt; (&lt;confidence&gt;)
+Example: +0.3 (80)
+Do NOT use any information published after 12 January 2021.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-2.5 (75)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-4.0 (85)</t>
   </si>
   <si>
     <t xml:space="preserve">2021-02-08</t>
@@ -9001,1599 +9016,1599 @@
         <v>237</v>
       </c>
       <c r="C73" t="n">
-        <v>-0.3</v>
+        <v>-2.5</v>
       </c>
       <c r="D73" t="n">
-        <v>55</v>
+        <v>75</v>
       </c>
       <c r="E73" t="s">
         <v>238</v>
       </c>
       <c r="F73" t="n">
-        <v>-0.3</v>
+        <v>-2.5</v>
       </c>
       <c r="G73" t="n">
-        <v>55</v>
+        <v>75</v>
       </c>
       <c r="H73" t="s">
         <v>238</v>
       </c>
       <c r="I73" t="n">
-        <v>-0.3</v>
+        <v>-2.5</v>
       </c>
       <c r="J73" t="n">
-        <v>55</v>
+        <v>75</v>
       </c>
       <c r="K73" t="s">
         <v>238</v>
       </c>
       <c r="L73" t="n">
-        <v>-0.3</v>
+        <v>-4</v>
       </c>
       <c r="M73" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="N73" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="O73" t="n">
-        <v>-0.3</v>
+        <v>-4</v>
       </c>
       <c r="P73" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="Q73" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="R73" t="n">
-        <v>-0.3</v>
+        <v>-4</v>
       </c>
       <c r="S73" t="n">
-        <v>60</v>
+        <v>85</v>
       </c>
       <c r="T73" t="s">
         <v>239</v>
       </c>
       <c r="U73" t="n">
-        <v>-0.3</v>
+        <v>-4</v>
       </c>
       <c r="V73" t="n">
-        <v>60</v>
+        <v>85</v>
       </c>
       <c r="W73" t="s">
         <v>239</v>
       </c>
       <c r="X73" t="n">
-        <v>-0.2</v>
+        <v>-4</v>
       </c>
       <c r="Y73" t="n">
-        <v>45</v>
+        <v>85</v>
       </c>
       <c r="Z73" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="AA73" t="n">
-        <v>-0.2</v>
+        <v>-4</v>
       </c>
       <c r="AB73" t="n">
-        <v>45</v>
+        <v>85</v>
       </c>
       <c r="AC73" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="AD73" t="n">
-        <v>-0.2</v>
+        <v>-4</v>
       </c>
       <c r="AE73" t="n">
-        <v>45</v>
+        <v>85</v>
       </c>
       <c r="AF73" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
+        <v>240</v>
+      </c>
+      <c r="B74" t="s">
+        <v>241</v>
+      </c>
+      <c r="C74" t="n">
+        <v>-0.3</v>
+      </c>
+      <c r="D74" t="n">
+        <v>55</v>
+      </c>
+      <c r="E74" t="s">
         <v>242</v>
       </c>
-      <c r="B74" t="s">
+      <c r="F74" t="n">
+        <v>-0.3</v>
+      </c>
+      <c r="G74" t="n">
+        <v>55</v>
+      </c>
+      <c r="H74" t="s">
+        <v>242</v>
+      </c>
+      <c r="I74" t="n">
+        <v>-0.3</v>
+      </c>
+      <c r="J74" t="n">
+        <v>55</v>
+      </c>
+      <c r="K74" t="s">
+        <v>242</v>
+      </c>
+      <c r="L74" t="n">
+        <v>-0.3</v>
+      </c>
+      <c r="M74" t="n">
+        <v>60</v>
+      </c>
+      <c r="N74" t="s">
         <v>243</v>
       </c>
-      <c r="C74" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="D74" t="n">
-        <v>65</v>
-      </c>
-      <c r="E74" t="s">
+      <c r="O74" t="n">
+        <v>-0.3</v>
+      </c>
+      <c r="P74" t="n">
+        <v>60</v>
+      </c>
+      <c r="Q74" t="s">
+        <v>243</v>
+      </c>
+      <c r="R74" t="n">
+        <v>-0.3</v>
+      </c>
+      <c r="S74" t="n">
+        <v>60</v>
+      </c>
+      <c r="T74" t="s">
+        <v>243</v>
+      </c>
+      <c r="U74" t="n">
+        <v>-0.3</v>
+      </c>
+      <c r="V74" t="n">
+        <v>60</v>
+      </c>
+      <c r="W74" t="s">
+        <v>243</v>
+      </c>
+      <c r="X74" t="n">
+        <v>-0.2</v>
+      </c>
+      <c r="Y74" t="n">
+        <v>45</v>
+      </c>
+      <c r="Z74" t="s">
         <v>244</v>
       </c>
-      <c r="F74" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="G74" t="n">
-        <v>65</v>
-      </c>
-      <c r="H74" t="s">
-        <v>244</v>
-      </c>
-      <c r="I74" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="J74" t="n">
-        <v>65</v>
-      </c>
-      <c r="K74" t="s">
-        <v>244</v>
-      </c>
-      <c r="L74" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="M74" t="n">
-        <v>75</v>
-      </c>
-      <c r="N74" t="s">
-        <v>34</v>
-      </c>
-      <c r="O74" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="P74" t="n">
-        <v>75</v>
-      </c>
-      <c r="Q74" t="s">
-        <v>34</v>
-      </c>
-      <c r="R74" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="S74" t="n">
-        <v>65</v>
-      </c>
-      <c r="T74" t="s">
-        <v>53</v>
-      </c>
-      <c r="U74" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="V74" t="n">
-        <v>65</v>
-      </c>
-      <c r="W74" t="s">
-        <v>53</v>
-      </c>
-      <c r="X74" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="Y74" t="n">
-        <v>60</v>
-      </c>
-      <c r="Z74" t="s">
-        <v>85</v>
-      </c>
       <c r="AA74" t="n">
-        <v>0.3</v>
+        <v>-0.2</v>
       </c>
       <c r="AB74" t="n">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="AC74" t="s">
-        <v>85</v>
+        <v>245</v>
       </c>
       <c r="AD74" t="n">
-        <v>0.3</v>
+        <v>-0.2</v>
       </c>
       <c r="AE74" t="n">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="AF74" t="s">
-        <v>85</v>
+        <v>245</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B75" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C75" t="n">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="D75" t="n">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="E75" t="s">
-        <v>35</v>
+        <v>248</v>
       </c>
       <c r="F75" t="n">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="G75" t="n">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="H75" t="s">
-        <v>35</v>
+        <v>248</v>
       </c>
       <c r="I75" t="n">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="J75" t="n">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="K75" t="s">
-        <v>35</v>
+        <v>248</v>
       </c>
       <c r="L75" t="n">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="M75" t="n">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="N75" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="O75" t="n">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="P75" t="n">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="Q75" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="R75" t="n">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="S75" t="n">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="T75" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="U75" t="n">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="V75" t="n">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="W75" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="X75" t="n">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="Y75" t="n">
-        <v>85</v>
+        <v>60</v>
       </c>
       <c r="Z75" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="AA75" t="n">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="AB75" t="n">
-        <v>85</v>
+        <v>60</v>
       </c>
       <c r="AC75" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="AD75" t="n">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="AE75" t="n">
-        <v>85</v>
+        <v>60</v>
       </c>
       <c r="AF75" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="B76" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="C76" t="n">
-        <v>0.7</v>
+        <v>0.4</v>
       </c>
       <c r="D76" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="E76" t="s">
-        <v>249</v>
+        <v>35</v>
       </c>
       <c r="F76" t="n">
-        <v>0.7</v>
+        <v>0.4</v>
       </c>
       <c r="G76" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="H76" t="s">
-        <v>249</v>
+        <v>35</v>
       </c>
       <c r="I76" t="n">
-        <v>0.7</v>
+        <v>0.4</v>
       </c>
       <c r="J76" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="K76" t="s">
-        <v>249</v>
+        <v>35</v>
       </c>
       <c r="L76" t="n">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="M76" t="n">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="N76" t="s">
-        <v>250</v>
+        <v>39</v>
       </c>
       <c r="O76" t="n">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="P76" t="n">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="Q76" t="s">
-        <v>251</v>
+        <v>39</v>
       </c>
       <c r="R76" t="n">
-        <v>1.1</v>
+        <v>0.3</v>
       </c>
       <c r="S76" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="T76" t="s">
-        <v>252</v>
+        <v>48</v>
       </c>
       <c r="U76" t="n">
-        <v>1.1</v>
+        <v>0.3</v>
       </c>
       <c r="V76" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="W76" t="s">
-        <v>252</v>
+        <v>48</v>
       </c>
       <c r="X76" t="n">
-        <v>0.8</v>
+        <v>0.2</v>
       </c>
       <c r="Y76" t="n">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="Z76" t="s">
-        <v>253</v>
+        <v>90</v>
       </c>
       <c r="AA76" t="n">
-        <v>0.8</v>
+        <v>0.2</v>
       </c>
       <c r="AB76" t="n">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="AC76" t="s">
-        <v>253</v>
+        <v>90</v>
       </c>
       <c r="AD76" t="n">
-        <v>0.8</v>
+        <v>0.2</v>
       </c>
       <c r="AE76" t="n">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="AF76" t="s">
-        <v>253</v>
+        <v>90</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
+        <v>251</v>
+      </c>
+      <c r="B77" t="s">
+        <v>252</v>
+      </c>
+      <c r="C77" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="D77" t="n">
+        <v>75</v>
+      </c>
+      <c r="E77" t="s">
+        <v>253</v>
+      </c>
+      <c r="F77" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="G77" t="n">
+        <v>75</v>
+      </c>
+      <c r="H77" t="s">
+        <v>253</v>
+      </c>
+      <c r="I77" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="J77" t="n">
+        <v>75</v>
+      </c>
+      <c r="K77" t="s">
+        <v>253</v>
+      </c>
+      <c r="L77" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="M77" t="n">
+        <v>75</v>
+      </c>
+      <c r="N77" t="s">
         <v>254</v>
       </c>
-      <c r="B77" t="s">
+      <c r="O77" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="P77" t="n">
+        <v>75</v>
+      </c>
+      <c r="Q77" t="s">
         <v>255</v>
       </c>
-      <c r="C77" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="D77" t="n">
-        <v>85</v>
-      </c>
-      <c r="E77" t="s">
+      <c r="R77" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="S77" t="n">
+        <v>75</v>
+      </c>
+      <c r="T77" t="s">
         <v>256</v>
       </c>
-      <c r="F77" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="G77" t="n">
-        <v>85</v>
-      </c>
-      <c r="H77" t="s">
+      <c r="U77" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="V77" t="n">
+        <v>75</v>
+      </c>
+      <c r="W77" t="s">
         <v>256</v>
-      </c>
-      <c r="I77" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="J77" t="n">
-        <v>85</v>
-      </c>
-      <c r="K77" t="s">
-        <v>256</v>
-      </c>
-      <c r="L77" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="M77" t="n">
-        <v>85</v>
-      </c>
-      <c r="N77" t="s">
-        <v>257</v>
-      </c>
-      <c r="O77" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="P77" t="n">
-        <v>85</v>
-      </c>
-      <c r="Q77" t="s">
-        <v>257</v>
-      </c>
-      <c r="R77" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="S77" t="n">
-        <v>75</v>
-      </c>
-      <c r="T77" t="s">
-        <v>258</v>
-      </c>
-      <c r="U77" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="V77" t="n">
-        <v>75</v>
-      </c>
-      <c r="W77" t="s">
-        <v>253</v>
       </c>
       <c r="X77" t="n">
         <v>0.8</v>
       </c>
       <c r="Y77" t="n">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="Z77" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="AA77" t="n">
         <v>0.8</v>
       </c>
       <c r="AB77" t="n">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="AC77" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="AD77" t="n">
         <v>0.8</v>
       </c>
       <c r="AE77" t="n">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="AF77" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s">
+        <v>258</v>
+      </c>
+      <c r="B78" t="s">
         <v>259</v>
       </c>
-      <c r="B78" t="s">
+      <c r="C78" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="D78" t="n">
+        <v>85</v>
+      </c>
+      <c r="E78" t="s">
         <v>260</v>
       </c>
-      <c r="C78" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="D78" t="n">
-        <v>90</v>
-      </c>
-      <c r="E78" t="s">
+      <c r="F78" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="G78" t="n">
+        <v>85</v>
+      </c>
+      <c r="H78" t="s">
+        <v>260</v>
+      </c>
+      <c r="I78" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="J78" t="n">
+        <v>85</v>
+      </c>
+      <c r="K78" t="s">
+        <v>260</v>
+      </c>
+      <c r="L78" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="M78" t="n">
+        <v>85</v>
+      </c>
+      <c r="N78" t="s">
         <v>261</v>
       </c>
-      <c r="F78" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="G78" t="n">
-        <v>90</v>
-      </c>
-      <c r="H78" t="s">
+      <c r="O78" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="P78" t="n">
+        <v>85</v>
+      </c>
+      <c r="Q78" t="s">
         <v>261</v>
       </c>
-      <c r="I78" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="J78" t="n">
-        <v>90</v>
-      </c>
-      <c r="K78" t="s">
-        <v>261</v>
-      </c>
-      <c r="L78" t="n">
-        <v>1</v>
-      </c>
-      <c r="M78" t="n">
-        <v>85</v>
-      </c>
-      <c r="N78" t="s">
+      <c r="R78" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="S78" t="n">
+        <v>75</v>
+      </c>
+      <c r="T78" t="s">
         <v>262</v>
       </c>
-      <c r="O78" t="n">
-        <v>1</v>
-      </c>
-      <c r="P78" t="n">
-        <v>85</v>
-      </c>
-      <c r="Q78" t="s">
-        <v>262</v>
-      </c>
-      <c r="R78" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="S78" t="n">
-        <v>85</v>
-      </c>
-      <c r="T78" t="s">
-        <v>263</v>
-      </c>
       <c r="U78" t="n">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="V78" t="n">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="W78" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="X78" t="n">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="Y78" t="n">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="Z78" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="AA78" t="n">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="AB78" t="n">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="AC78" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="AD78" t="n">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="AE78" t="n">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="AF78" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
+        <v>263</v>
+      </c>
+      <c r="B79" t="s">
+        <v>264</v>
+      </c>
+      <c r="C79" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="D79" t="n">
+        <v>90</v>
+      </c>
+      <c r="E79" t="s">
         <v>265</v>
       </c>
-      <c r="B79" t="s">
+      <c r="F79" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="G79" t="n">
+        <v>90</v>
+      </c>
+      <c r="H79" t="s">
+        <v>265</v>
+      </c>
+      <c r="I79" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="J79" t="n">
+        <v>90</v>
+      </c>
+      <c r="K79" t="s">
+        <v>265</v>
+      </c>
+      <c r="L79" t="n">
+        <v>1</v>
+      </c>
+      <c r="M79" t="n">
+        <v>85</v>
+      </c>
+      <c r="N79" t="s">
         <v>266</v>
       </c>
-      <c r="C79" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="D79" t="n">
-        <v>65</v>
-      </c>
-      <c r="E79" t="s">
+      <c r="O79" t="n">
+        <v>1</v>
+      </c>
+      <c r="P79" t="n">
+        <v>85</v>
+      </c>
+      <c r="Q79" t="s">
+        <v>266</v>
+      </c>
+      <c r="R79" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="S79" t="n">
+        <v>85</v>
+      </c>
+      <c r="T79" t="s">
         <v>267</v>
       </c>
-      <c r="F79" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="G79" t="n">
-        <v>65</v>
-      </c>
-      <c r="H79" t="s">
+      <c r="U79" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="V79" t="n">
+        <v>85</v>
+      </c>
+      <c r="W79" t="s">
         <v>267</v>
       </c>
-      <c r="I79" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="J79" t="n">
-        <v>65</v>
-      </c>
-      <c r="K79" t="s">
-        <v>267</v>
-      </c>
-      <c r="L79" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="M79" t="n">
-        <v>75</v>
-      </c>
-      <c r="N79" t="s">
+      <c r="X79" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="Y79" t="n">
+        <v>90</v>
+      </c>
+      <c r="Z79" t="s">
         <v>268</v>
       </c>
-      <c r="O79" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="P79" t="n">
-        <v>75</v>
-      </c>
-      <c r="Q79" t="s">
-        <v>268</v>
-      </c>
-      <c r="R79" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="S79" t="n">
-        <v>70</v>
-      </c>
-      <c r="T79" t="s">
-        <v>269</v>
-      </c>
-      <c r="U79" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="V79" t="n">
-        <v>70</v>
-      </c>
-      <c r="W79" t="s">
-        <v>269</v>
-      </c>
-      <c r="X79" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="Y79" t="n">
-        <v>80</v>
-      </c>
-      <c r="Z79" t="s">
-        <v>270</v>
-      </c>
       <c r="AA79" t="n">
-        <v>2.3</v>
+        <v>0.9</v>
       </c>
       <c r="AB79" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AC79" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="AD79" t="n">
-        <v>2.3</v>
+        <v>0.9</v>
       </c>
       <c r="AE79" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AF79" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
+        <v>269</v>
+      </c>
+      <c r="B80" t="s">
+        <v>270</v>
+      </c>
+      <c r="C80" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="D80" t="n">
+        <v>65</v>
+      </c>
+      <c r="E80" t="s">
         <v>271</v>
       </c>
-      <c r="B80" t="s">
+      <c r="F80" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="G80" t="n">
+        <v>65</v>
+      </c>
+      <c r="H80" t="s">
+        <v>271</v>
+      </c>
+      <c r="I80" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="J80" t="n">
+        <v>65</v>
+      </c>
+      <c r="K80" t="s">
+        <v>271</v>
+      </c>
+      <c r="L80" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="M80" t="n">
+        <v>75</v>
+      </c>
+      <c r="N80" t="s">
         <v>272</v>
       </c>
-      <c r="C80" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="D80" t="n">
-        <v>80</v>
-      </c>
-      <c r="E80" t="s">
-        <v>270</v>
-      </c>
-      <c r="F80" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="G80" t="n">
-        <v>80</v>
-      </c>
-      <c r="H80" t="s">
-        <v>270</v>
-      </c>
-      <c r="I80" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="J80" t="n">
-        <v>80</v>
-      </c>
-      <c r="K80" t="s">
-        <v>270</v>
-      </c>
-      <c r="L80" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="M80" t="n">
-        <v>80</v>
-      </c>
-      <c r="N80" t="s">
-        <v>270</v>
-      </c>
       <c r="O80" t="n">
-        <v>2.3</v>
+        <v>1.5</v>
       </c>
       <c r="P80" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="Q80" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="R80" t="n">
         <v>2.3</v>
       </c>
       <c r="S80" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="T80" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="U80" t="n">
         <v>2.3</v>
       </c>
       <c r="V80" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="W80" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="X80" t="n">
         <v>2.3</v>
       </c>
       <c r="Y80" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="Z80" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="AA80" t="n">
         <v>2.3</v>
       </c>
       <c r="AB80" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="AC80" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="AD80" t="n">
         <v>2.3</v>
       </c>
       <c r="AE80" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="AF80" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
+        <v>275</v>
+      </c>
+      <c r="B81" t="s">
+        <v>276</v>
+      </c>
+      <c r="C81" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="D81" t="n">
+        <v>80</v>
+      </c>
+      <c r="E81" t="s">
         <v>274</v>
       </c>
-      <c r="B81" t="s">
-        <v>275</v>
-      </c>
-      <c r="C81" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="D81" t="n">
-        <v>85</v>
-      </c>
-      <c r="E81" t="s">
-        <v>276</v>
-      </c>
       <c r="F81" t="n">
-        <v>2.5</v>
+        <v>2.3</v>
       </c>
       <c r="G81" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="H81" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="I81" t="n">
-        <v>2.5</v>
+        <v>2.3</v>
       </c>
       <c r="J81" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="K81" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="L81" t="n">
         <v>2.3</v>
       </c>
       <c r="M81" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="N81" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="O81" t="n">
         <v>2.3</v>
       </c>
       <c r="P81" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="Q81" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="R81" t="n">
         <v>2.3</v>
       </c>
       <c r="S81" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="T81" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="U81" t="n">
         <v>2.3</v>
       </c>
       <c r="V81" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="W81" t="s">
+        <v>274</v>
+      </c>
+      <c r="X81" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="Y81" t="n">
+        <v>85</v>
+      </c>
+      <c r="Z81" t="s">
         <v>277</v>
       </c>
-      <c r="X81" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="Y81" t="n">
-        <v>90</v>
-      </c>
-      <c r="Z81" t="s">
-        <v>278</v>
-      </c>
       <c r="AA81" t="n">
-        <v>2.5</v>
+        <v>2.3</v>
       </c>
       <c r="AB81" t="n">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="AC81" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="AD81" t="n">
-        <v>2.5</v>
+        <v>2.3</v>
       </c>
       <c r="AE81" t="n">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="AF81" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s">
+        <v>278</v>
+      </c>
+      <c r="B82" t="s">
         <v>279</v>
       </c>
-      <c r="B82" t="s">
+      <c r="C82" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="D82" t="n">
+        <v>85</v>
+      </c>
+      <c r="E82" t="s">
         <v>280</v>
       </c>
-      <c r="C82" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="D82" t="n">
-        <v>80</v>
-      </c>
-      <c r="E82" t="s">
+      <c r="F82" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="G82" t="n">
+        <v>85</v>
+      </c>
+      <c r="H82" t="s">
+        <v>280</v>
+      </c>
+      <c r="I82" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="J82" t="n">
+        <v>85</v>
+      </c>
+      <c r="K82" t="s">
+        <v>280</v>
+      </c>
+      <c r="L82" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="M82" t="n">
+        <v>90</v>
+      </c>
+      <c r="N82" t="s">
         <v>281</v>
       </c>
-      <c r="F82" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="G82" t="n">
-        <v>80</v>
-      </c>
-      <c r="H82" t="s">
+      <c r="O82" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="P82" t="n">
+        <v>90</v>
+      </c>
+      <c r="Q82" t="s">
         <v>281</v>
       </c>
-      <c r="I82" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="J82" t="n">
-        <v>80</v>
-      </c>
-      <c r="K82" t="s">
+      <c r="R82" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="S82" t="n">
+        <v>90</v>
+      </c>
+      <c r="T82" t="s">
         <v>281</v>
       </c>
-      <c r="L82" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="M82" t="n">
-        <v>75</v>
-      </c>
-      <c r="N82" t="s">
-        <v>253</v>
-      </c>
-      <c r="O82" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="P82" t="n">
-        <v>75</v>
-      </c>
-      <c r="Q82" t="s">
-        <v>253</v>
-      </c>
-      <c r="R82" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="S82" t="n">
-        <v>85</v>
-      </c>
-      <c r="T82" t="s">
-        <v>263</v>
-      </c>
       <c r="U82" t="n">
-        <v>0.75</v>
+        <v>2.3</v>
       </c>
       <c r="V82" t="n">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="W82" t="s">
-        <v>263</v>
+        <v>281</v>
       </c>
       <c r="X82" t="n">
-        <v>0.8</v>
+        <v>2.5</v>
       </c>
       <c r="Y82" t="n">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="Z82" t="s">
-        <v>253</v>
+        <v>282</v>
       </c>
       <c r="AA82" t="n">
-        <v>0.8</v>
+        <v>2.5</v>
       </c>
       <c r="AB82" t="n">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="AC82" t="s">
-        <v>253</v>
+        <v>282</v>
       </c>
       <c r="AD82" t="n">
-        <v>0.8</v>
+        <v>2.5</v>
       </c>
       <c r="AE82" t="n">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="AF82" t="s">
-        <v>253</v>
+        <v>282</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B83" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="C83" t="n">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="D83" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="E83" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="F83" t="n">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="G83" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="H83" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="I83" t="n">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="J83" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="K83" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="L83" t="n">
         <v>0.8</v>
       </c>
       <c r="M83" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="N83" t="s">
-        <v>285</v>
+        <v>257</v>
       </c>
       <c r="O83" t="n">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="P83" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="Q83" t="s">
-        <v>286</v>
+        <v>257</v>
       </c>
       <c r="R83" t="n">
-        <v>0.6</v>
+        <v>0.75</v>
       </c>
       <c r="S83" t="n">
-        <v>65</v>
+        <v>85</v>
       </c>
       <c r="T83" t="s">
-        <v>287</v>
+        <v>267</v>
       </c>
       <c r="U83" t="n">
-        <v>0.6</v>
+        <v>0.75</v>
       </c>
       <c r="V83" t="n">
-        <v>65</v>
+        <v>85</v>
       </c>
       <c r="W83" t="s">
-        <v>287</v>
+        <v>267</v>
       </c>
       <c r="X83" t="n">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="Y83" t="n">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="Z83" t="s">
-        <v>284</v>
+        <v>257</v>
       </c>
       <c r="AA83" t="n">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="AB83" t="n">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="AC83" t="s">
-        <v>284</v>
+        <v>257</v>
       </c>
       <c r="AD83" t="n">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="AE83" t="n">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="AF83" t="s">
-        <v>288</v>
+        <v>257</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s">
+        <v>286</v>
+      </c>
+      <c r="B84" t="s">
+        <v>287</v>
+      </c>
+      <c r="C84" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="D84" t="n">
+        <v>60</v>
+      </c>
+      <c r="E84" t="s">
+        <v>288</v>
+      </c>
+      <c r="F84" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="G84" t="n">
+        <v>60</v>
+      </c>
+      <c r="H84" t="s">
+        <v>288</v>
+      </c>
+      <c r="I84" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="J84" t="n">
+        <v>60</v>
+      </c>
+      <c r="K84" t="s">
+        <v>288</v>
+      </c>
+      <c r="L84" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="M84" t="n">
+        <v>70</v>
+      </c>
+      <c r="N84" t="s">
         <v>289</v>
-      </c>
-      <c r="B84" t="s">
-        <v>290</v>
-      </c>
-      <c r="C84" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="D84" t="n">
-        <v>85</v>
-      </c>
-      <c r="E84" t="s">
-        <v>257</v>
-      </c>
-      <c r="F84" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="G84" t="n">
-        <v>85</v>
-      </c>
-      <c r="H84" t="s">
-        <v>257</v>
-      </c>
-      <c r="I84" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="J84" t="n">
-        <v>85</v>
-      </c>
-      <c r="K84" t="s">
-        <v>257</v>
-      </c>
-      <c r="L84" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="M84" t="n">
-        <v>75</v>
-      </c>
-      <c r="N84" t="s">
-        <v>249</v>
       </c>
       <c r="O84" t="n">
         <v>0.7</v>
       </c>
       <c r="P84" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="Q84" t="s">
-        <v>249</v>
+        <v>290</v>
       </c>
       <c r="R84" t="n">
         <v>0.6</v>
       </c>
       <c r="S84" t="n">
-        <v>90</v>
+        <v>65</v>
       </c>
       <c r="T84" t="s">
-        <v>123</v>
+        <v>291</v>
       </c>
       <c r="U84" t="n">
         <v>0.6</v>
       </c>
       <c r="V84" t="n">
-        <v>90</v>
+        <v>65</v>
       </c>
       <c r="W84" t="s">
-        <v>123</v>
+        <v>291</v>
       </c>
       <c r="X84" t="n">
         <v>0.6</v>
       </c>
       <c r="Y84" t="n">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="Z84" t="s">
-        <v>251</v>
+        <v>288</v>
       </c>
       <c r="AA84" t="n">
         <v>0.6</v>
       </c>
       <c r="AB84" t="n">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="AC84" t="s">
-        <v>251</v>
+        <v>288</v>
       </c>
       <c r="AD84" t="n">
         <v>0.6</v>
       </c>
       <c r="AE84" t="n">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="AF84" t="s">
-        <v>251</v>
+        <v>292</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="B85" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="C85" t="n">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="D85" t="n">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="E85" t="s">
-        <v>293</v>
+        <v>261</v>
       </c>
       <c r="F85" t="n">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="G85" t="n">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="H85" t="s">
-        <v>293</v>
+        <v>261</v>
       </c>
       <c r="I85" t="n">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="J85" t="n">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="K85" t="s">
-        <v>293</v>
+        <v>261</v>
       </c>
       <c r="L85" t="n">
-        <v>0.3</v>
+        <v>0.7</v>
       </c>
       <c r="M85" t="n">
         <v>75</v>
       </c>
       <c r="N85" t="s">
-        <v>34</v>
+        <v>253</v>
       </c>
       <c r="O85" t="n">
-        <v>0.3</v>
+        <v>0.7</v>
       </c>
       <c r="P85" t="n">
         <v>75</v>
       </c>
       <c r="Q85" t="s">
-        <v>34</v>
+        <v>253</v>
       </c>
       <c r="R85" t="n">
-        <v>0.3</v>
+        <v>0.6</v>
       </c>
       <c r="S85" t="n">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="T85" t="s">
-        <v>34</v>
+        <v>123</v>
       </c>
       <c r="U85" t="n">
-        <v>0.3</v>
+        <v>0.6</v>
       </c>
       <c r="V85" t="n">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="W85" t="s">
-        <v>34</v>
+        <v>123</v>
       </c>
       <c r="X85" t="n">
-        <v>0.3</v>
+        <v>0.6</v>
       </c>
       <c r="Y85" t="n">
         <v>75</v>
       </c>
       <c r="Z85" t="s">
-        <v>34</v>
+        <v>255</v>
       </c>
       <c r="AA85" t="n">
-        <v>0.3</v>
+        <v>0.6</v>
       </c>
       <c r="AB85" t="n">
         <v>75</v>
       </c>
       <c r="AC85" t="s">
-        <v>34</v>
+        <v>255</v>
       </c>
       <c r="AD85" t="n">
-        <v>0.3</v>
+        <v>0.6</v>
       </c>
       <c r="AE85" t="n">
         <v>75</v>
       </c>
       <c r="AF85" t="s">
-        <v>34</v>
+        <v>255</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="B86" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C86" t="n">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="D86" t="n">
-        <v>40</v>
+        <v>75</v>
       </c>
       <c r="E86" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="F86" t="n">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="G86" t="n">
-        <v>40</v>
+        <v>75</v>
       </c>
       <c r="H86" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="I86" t="n">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="J86" t="n">
-        <v>40</v>
+        <v>75</v>
       </c>
       <c r="K86" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="L86" t="n">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="M86" t="n">
-        <v>40</v>
+        <v>75</v>
       </c>
       <c r="N86" t="s">
-        <v>297</v>
+        <v>34</v>
       </c>
       <c r="O86" t="n">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="P86" t="n">
-        <v>40</v>
+        <v>75</v>
       </c>
       <c r="Q86" t="s">
-        <v>297</v>
+        <v>34</v>
       </c>
       <c r="R86" t="n">
         <v>0.3</v>
       </c>
       <c r="S86" t="n">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="T86" t="s">
-        <v>298</v>
+        <v>34</v>
       </c>
       <c r="U86" t="n">
         <v>0.3</v>
       </c>
       <c r="V86" t="n">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="W86" t="s">
-        <v>298</v>
+        <v>34</v>
       </c>
       <c r="X86" t="n">
         <v>0.3</v>
       </c>
       <c r="Y86" t="n">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="Z86" t="s">
-        <v>298</v>
+        <v>34</v>
       </c>
       <c r="AA86" t="n">
         <v>0.3</v>
       </c>
       <c r="AB86" t="n">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="AC86" t="s">
-        <v>298</v>
+        <v>34</v>
       </c>
       <c r="AD86" t="n">
         <v>0.3</v>
       </c>
       <c r="AE86" t="n">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="AF86" t="s">
-        <v>298</v>
+        <v>34</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s">
+        <v>298</v>
+      </c>
+      <c r="B87" t="s">
         <v>299</v>
       </c>
-      <c r="B87" t="s">
+      <c r="C87" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="D87" t="n">
+        <v>40</v>
+      </c>
+      <c r="E87" t="s">
         <v>300</v>
       </c>
-      <c r="C87" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="D87" t="n">
-        <v>65</v>
-      </c>
-      <c r="E87" t="s">
-        <v>244</v>
-      </c>
       <c r="F87" t="n">
         <v>0.3</v>
       </c>
       <c r="G87" t="n">
-        <v>65</v>
+        <v>40</v>
       </c>
       <c r="H87" t="s">
-        <v>244</v>
+        <v>300</v>
       </c>
       <c r="I87" t="n">
         <v>0.3</v>
       </c>
       <c r="J87" t="n">
-        <v>65</v>
+        <v>40</v>
       </c>
       <c r="K87" t="s">
-        <v>244</v>
+        <v>300</v>
       </c>
       <c r="L87" t="n">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="M87" t="n">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="N87" t="s">
-        <v>85</v>
+        <v>301</v>
       </c>
       <c r="O87" t="n">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="P87" t="n">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="Q87" t="s">
-        <v>85</v>
+        <v>301</v>
       </c>
       <c r="R87" t="n">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="S87" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="T87" t="s">
-        <v>297</v>
+        <v>302</v>
       </c>
       <c r="U87" t="n">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="V87" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="W87" t="s">
-        <v>297</v>
+        <v>302</v>
       </c>
       <c r="X87" t="n">
         <v>0.3</v>
       </c>
       <c r="Y87" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="Z87" t="s">
-        <v>85</v>
+        <v>302</v>
       </c>
       <c r="AA87" t="n">
         <v>0.3</v>
       </c>
       <c r="AB87" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="AC87" t="s">
-        <v>85</v>
+        <v>302</v>
       </c>
       <c r="AD87" t="n">
         <v>0.3</v>
       </c>
       <c r="AE87" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="AF87" t="s">
-        <v>85</v>
+        <v>302</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="B88" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="C88" t="n">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="D88" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="E88" t="s">
-        <v>54</v>
+        <v>248</v>
       </c>
       <c r="F88" t="n">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="G88" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="H88" t="s">
-        <v>54</v>
+        <v>248</v>
       </c>
       <c r="I88" t="n">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="J88" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="K88" t="s">
-        <v>54</v>
+        <v>248</v>
       </c>
       <c r="L88" t="n">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="M88" t="n">
         <v>60</v>
       </c>
       <c r="N88" t="s">
-        <v>54</v>
+        <v>85</v>
       </c>
       <c r="O88" t="n">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="P88" t="n">
         <v>60</v>
       </c>
       <c r="Q88" t="s">
-        <v>54</v>
+        <v>85</v>
       </c>
       <c r="R88" t="n">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="S88" t="n">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="T88" t="s">
-        <v>85</v>
+        <v>301</v>
       </c>
       <c r="U88" t="n">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="V88" t="n">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="W88" t="s">
-        <v>85</v>
+        <v>301</v>
       </c>
       <c r="X88" t="n">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="Y88" t="n">
         <v>60</v>
       </c>
       <c r="Z88" t="s">
-        <v>54</v>
+        <v>85</v>
       </c>
       <c r="AA88" t="n">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="AB88" t="n">
         <v>60</v>
       </c>
       <c r="AC88" t="s">
-        <v>54</v>
+        <v>85</v>
       </c>
       <c r="AD88" t="n">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="AE88" t="n">
         <v>60</v>
       </c>
       <c r="AF88" t="s">
-        <v>54</v>
+        <v>85</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="B89" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="C89" t="n">
         <v>0.2</v>
       </c>
       <c r="D89" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="E89" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="F89" t="n">
         <v>0.2</v>
       </c>
       <c r="G89" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="H89" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="I89" t="n">
         <v>0.2</v>
       </c>
       <c r="J89" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="K89" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="L89" t="n">
         <v>0.2</v>
@@ -10617,99 +10632,99 @@
         <v>0.3</v>
       </c>
       <c r="S89" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="T89" t="s">
-        <v>36</v>
+        <v>85</v>
       </c>
       <c r="U89" t="n">
         <v>0.3</v>
       </c>
       <c r="V89" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="W89" t="s">
-        <v>36</v>
+        <v>85</v>
       </c>
       <c r="X89" t="n">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="Y89" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="Z89" t="s">
-        <v>244</v>
+        <v>54</v>
       </c>
       <c r="AA89" t="n">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="AB89" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AC89" t="s">
-        <v>244</v>
+        <v>54</v>
       </c>
       <c r="AD89" t="n">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="AE89" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AF89" t="s">
-        <v>244</v>
+        <v>54</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="B90" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="C90" t="n">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="D90" t="n">
         <v>70</v>
       </c>
       <c r="E90" t="s">
-        <v>36</v>
+        <v>63</v>
       </c>
       <c r="F90" t="n">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="G90" t="n">
         <v>70</v>
       </c>
       <c r="H90" t="s">
-        <v>36</v>
+        <v>63</v>
       </c>
       <c r="I90" t="n">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="J90" t="n">
         <v>70</v>
       </c>
       <c r="K90" t="s">
-        <v>36</v>
+        <v>63</v>
       </c>
       <c r="L90" t="n">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="M90" t="n">
-        <v>85</v>
+        <v>60</v>
       </c>
       <c r="N90" t="s">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="O90" t="n">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="P90" t="n">
-        <v>85</v>
+        <v>60</v>
       </c>
       <c r="Q90" t="s">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="R90" t="n">
         <v>0.3</v>
@@ -10730,458 +10745,458 @@
         <v>36</v>
       </c>
       <c r="X90" t="n">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="Y90" t="n">
         <v>65</v>
       </c>
       <c r="Z90" t="s">
-        <v>53</v>
+        <v>248</v>
       </c>
       <c r="AA90" t="n">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="AB90" t="n">
         <v>65</v>
       </c>
       <c r="AC90" t="s">
-        <v>53</v>
+        <v>248</v>
       </c>
       <c r="AD90" t="n">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="AE90" t="n">
         <v>65</v>
       </c>
       <c r="AF90" t="s">
-        <v>53</v>
+        <v>248</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="B91" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="C91" t="n">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="D91" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="E91" t="s">
-        <v>54</v>
+        <v>36</v>
       </c>
       <c r="F91" t="n">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="G91" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="H91" t="s">
-        <v>54</v>
+        <v>36</v>
       </c>
       <c r="I91" t="n">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="J91" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="K91" t="s">
-        <v>54</v>
+        <v>36</v>
       </c>
       <c r="L91" t="n">
         <v>0.3</v>
       </c>
       <c r="M91" t="n">
-        <v>60</v>
+        <v>85</v>
       </c>
       <c r="N91" t="s">
-        <v>85</v>
+        <v>42</v>
       </c>
       <c r="O91" t="n">
         <v>0.3</v>
       </c>
       <c r="P91" t="n">
-        <v>60</v>
+        <v>85</v>
       </c>
       <c r="Q91" t="s">
-        <v>85</v>
+        <v>42</v>
       </c>
       <c r="R91" t="n">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="S91" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="T91" t="s">
-        <v>182</v>
+        <v>36</v>
       </c>
       <c r="U91" t="n">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="V91" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="W91" t="s">
-        <v>182</v>
+        <v>36</v>
       </c>
       <c r="X91" t="n">
         <v>0.2</v>
       </c>
       <c r="Y91" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="Z91" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AA91" t="n">
         <v>0.2</v>
       </c>
       <c r="AB91" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AC91" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AD91" t="n">
         <v>0.2</v>
       </c>
       <c r="AE91" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AF91" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="B92" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="C92" t="n">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="D92" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="E92" t="s">
-        <v>36</v>
+        <v>54</v>
       </c>
       <c r="F92" t="n">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="G92" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="H92" t="s">
-        <v>36</v>
+        <v>54</v>
       </c>
       <c r="I92" t="n">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="J92" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="K92" t="s">
-        <v>36</v>
+        <v>54</v>
       </c>
       <c r="L92" t="n">
         <v>0.3</v>
       </c>
       <c r="M92" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="N92" t="s">
-        <v>36</v>
+        <v>85</v>
       </c>
       <c r="O92" t="n">
         <v>0.3</v>
       </c>
       <c r="P92" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="Q92" t="s">
-        <v>36</v>
+        <v>85</v>
       </c>
       <c r="R92" t="n">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="S92" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="T92" t="s">
-        <v>311</v>
+        <v>182</v>
       </c>
       <c r="U92" t="n">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="V92" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="W92" t="s">
-        <v>311</v>
+        <v>182</v>
       </c>
       <c r="X92" t="n">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="Y92" t="n">
         <v>60</v>
       </c>
       <c r="Z92" t="s">
-        <v>85</v>
+        <v>54</v>
       </c>
       <c r="AA92" t="n">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="AB92" t="n">
         <v>60</v>
       </c>
       <c r="AC92" t="s">
-        <v>85</v>
+        <v>54</v>
       </c>
       <c r="AD92" t="n">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="AE92" t="n">
         <v>60</v>
       </c>
       <c r="AF92" t="s">
-        <v>85</v>
+        <v>54</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="B93" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="C93" t="n">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="D93" t="n">
+        <v>70</v>
+      </c>
+      <c r="E93" t="s">
+        <v>36</v>
+      </c>
+      <c r="F93" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="G93" t="n">
+        <v>70</v>
+      </c>
+      <c r="H93" t="s">
+        <v>36</v>
+      </c>
+      <c r="I93" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="J93" t="n">
+        <v>70</v>
+      </c>
+      <c r="K93" t="s">
+        <v>36</v>
+      </c>
+      <c r="L93" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="M93" t="n">
+        <v>70</v>
+      </c>
+      <c r="N93" t="s">
+        <v>36</v>
+      </c>
+      <c r="O93" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="P93" t="n">
+        <v>70</v>
+      </c>
+      <c r="Q93" t="s">
+        <v>36</v>
+      </c>
+      <c r="R93" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="S93" t="n">
+        <v>45</v>
+      </c>
+      <c r="T93" t="s">
+        <v>315</v>
+      </c>
+      <c r="U93" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="V93" t="n">
+        <v>45</v>
+      </c>
+      <c r="W93" t="s">
+        <v>315</v>
+      </c>
+      <c r="X93" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="Y93" t="n">
         <v>60</v>
       </c>
-      <c r="E93" t="s">
-        <v>314</v>
-      </c>
-      <c r="F93" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="G93" t="n">
+      <c r="Z93" t="s">
+        <v>85</v>
+      </c>
+      <c r="AA93" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="AB93" t="n">
         <v>60</v>
       </c>
-      <c r="H93" t="s">
-        <v>54</v>
-      </c>
-      <c r="I93" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="J93" t="n">
+      <c r="AC93" t="s">
+        <v>85</v>
+      </c>
+      <c r="AD93" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="AE93" t="n">
         <v>60</v>
       </c>
-      <c r="K93" t="s">
-        <v>54</v>
-      </c>
-      <c r="L93" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="M93" t="n">
-        <v>80</v>
-      </c>
-      <c r="N93" t="s">
-        <v>48</v>
-      </c>
-      <c r="O93" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="P93" t="n">
-        <v>80</v>
-      </c>
-      <c r="Q93" t="s">
-        <v>48</v>
-      </c>
-      <c r="R93" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="S93" t="n">
-        <v>75</v>
-      </c>
-      <c r="T93" t="s">
-        <v>34</v>
-      </c>
-      <c r="U93" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="V93" t="n">
-        <v>75</v>
-      </c>
-      <c r="W93" t="s">
-        <v>34</v>
-      </c>
-      <c r="X93" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="Y93" t="n">
-        <v>65</v>
-      </c>
-      <c r="Z93" t="s">
-        <v>244</v>
-      </c>
-      <c r="AA93" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="AB93" t="n">
-        <v>65</v>
-      </c>
-      <c r="AC93" t="s">
-        <v>244</v>
-      </c>
-      <c r="AD93" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="AE93" t="n">
-        <v>65</v>
-      </c>
       <c r="AF93" t="s">
-        <v>244</v>
+        <v>85</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="B94" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="C94" t="n">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="D94" t="n">
+        <v>60</v>
+      </c>
+      <c r="E94" t="s">
+        <v>318</v>
+      </c>
+      <c r="F94" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G94" t="n">
+        <v>60</v>
+      </c>
+      <c r="H94" t="s">
+        <v>54</v>
+      </c>
+      <c r="I94" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="J94" t="n">
+        <v>60</v>
+      </c>
+      <c r="K94" t="s">
+        <v>54</v>
+      </c>
+      <c r="L94" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="M94" t="n">
+        <v>80</v>
+      </c>
+      <c r="N94" t="s">
+        <v>48</v>
+      </c>
+      <c r="O94" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="P94" t="n">
+        <v>80</v>
+      </c>
+      <c r="Q94" t="s">
+        <v>48</v>
+      </c>
+      <c r="R94" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="S94" t="n">
+        <v>75</v>
+      </c>
+      <c r="T94" t="s">
+        <v>34</v>
+      </c>
+      <c r="U94" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="V94" t="n">
+        <v>75</v>
+      </c>
+      <c r="W94" t="s">
+        <v>34</v>
+      </c>
+      <c r="X94" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="Y94" t="n">
         <v>65</v>
       </c>
-      <c r="E94" t="s">
-        <v>184</v>
-      </c>
-      <c r="F94" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="G94" t="n">
+      <c r="Z94" t="s">
+        <v>248</v>
+      </c>
+      <c r="AA94" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="AB94" t="n">
         <v>65</v>
       </c>
-      <c r="H94" t="s">
-        <v>184</v>
-      </c>
-      <c r="I94" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="J94" t="n">
+      <c r="AC94" t="s">
+        <v>248</v>
+      </c>
+      <c r="AD94" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="AE94" t="n">
         <v>65</v>
       </c>
-      <c r="K94" t="s">
-        <v>184</v>
-      </c>
-      <c r="L94" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="M94" t="n">
-        <v>60</v>
-      </c>
-      <c r="N94" t="s">
-        <v>185</v>
-      </c>
-      <c r="O94" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="P94" t="n">
-        <v>60</v>
-      </c>
-      <c r="Q94" t="s">
-        <v>185</v>
-      </c>
-      <c r="R94" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="S94" t="n">
-        <v>55</v>
-      </c>
-      <c r="T94" t="s">
-        <v>183</v>
-      </c>
-      <c r="U94" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="V94" t="n">
-        <v>55</v>
-      </c>
-      <c r="W94" t="s">
-        <v>183</v>
-      </c>
-      <c r="X94" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="Y94" t="n">
-        <v>55</v>
-      </c>
-      <c r="Z94" t="s">
-        <v>183</v>
-      </c>
-      <c r="AA94" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="AB94" t="n">
-        <v>55</v>
-      </c>
-      <c r="AC94" t="s">
-        <v>183</v>
-      </c>
-      <c r="AD94" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="AE94" t="n">
-        <v>55</v>
-      </c>
       <c r="AF94" t="s">
-        <v>183</v>
+        <v>248</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="B95" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="C95" t="n">
         <v>0.1</v>
       </c>
       <c r="D95" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="E95" t="s">
-        <v>80</v>
+        <v>184</v>
       </c>
       <c r="F95" t="n">
         <v>0.1</v>
       </c>
       <c r="G95" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="H95" t="s">
-        <v>80</v>
+        <v>184</v>
       </c>
       <c r="I95" t="n">
         <v>0.1</v>
       </c>
       <c r="J95" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="K95" t="s">
-        <v>80</v>
+        <v>184</v>
       </c>
       <c r="L95" t="n">
         <v>0.1</v>
@@ -11205,152 +11220,152 @@
         <v>0.1</v>
       </c>
       <c r="S95" t="n">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="T95" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="U95" t="n">
         <v>0.1</v>
       </c>
       <c r="V95" t="n">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="W95" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="X95" t="n">
         <v>0.1</v>
       </c>
       <c r="Y95" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="Z95" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="AA95" t="n">
         <v>0.1</v>
       </c>
       <c r="AB95" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AC95" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="AD95" t="n">
         <v>0.1</v>
       </c>
       <c r="AE95" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AF95" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="B96" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="C96" t="n">
         <v>0.1</v>
       </c>
       <c r="D96" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="E96" t="s">
-        <v>321</v>
+        <v>80</v>
       </c>
       <c r="F96" t="n">
         <v>0.1</v>
       </c>
       <c r="G96" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="H96" t="s">
-        <v>321</v>
+        <v>80</v>
       </c>
       <c r="I96" t="n">
         <v>0.1</v>
       </c>
       <c r="J96" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="K96" t="s">
-        <v>321</v>
+        <v>80</v>
       </c>
       <c r="L96" t="n">
         <v>0.1</v>
       </c>
       <c r="M96" t="n">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="N96" t="s">
-        <v>321</v>
+        <v>185</v>
       </c>
       <c r="O96" t="n">
         <v>0.1</v>
       </c>
       <c r="P96" t="n">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="Q96" t="s">
-        <v>321</v>
+        <v>185</v>
       </c>
       <c r="R96" t="n">
         <v>0.1</v>
       </c>
       <c r="S96" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="T96" t="s">
-        <v>80</v>
+        <v>184</v>
       </c>
       <c r="U96" t="n">
         <v>0.1</v>
       </c>
       <c r="V96" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="W96" t="s">
-        <v>80</v>
+        <v>184</v>
       </c>
       <c r="X96" t="n">
         <v>0.1</v>
       </c>
       <c r="Y96" t="n">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="Z96" t="s">
-        <v>321</v>
+        <v>185</v>
       </c>
       <c r="AA96" t="n">
         <v>0.1</v>
       </c>
       <c r="AB96" t="n">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="AC96" t="s">
-        <v>321</v>
+        <v>185</v>
       </c>
       <c r="AD96" t="n">
         <v>0.1</v>
       </c>
       <c r="AE96" t="n">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="AF96" t="s">
-        <v>321</v>
+        <v>185</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="B97" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="C97" t="n">
         <v>0.1</v>
@@ -11359,7 +11374,7 @@
         <v>75</v>
       </c>
       <c r="E97" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="F97" t="n">
         <v>0.1</v>
@@ -11368,7 +11383,7 @@
         <v>75</v>
       </c>
       <c r="H97" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="I97" t="n">
         <v>0.1</v>
@@ -11377,141 +11392,141 @@
         <v>75</v>
       </c>
       <c r="K97" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="L97" t="n">
         <v>0.1</v>
       </c>
       <c r="M97" t="n">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="N97" t="s">
-        <v>185</v>
+        <v>325</v>
       </c>
       <c r="O97" t="n">
         <v>0.1</v>
       </c>
       <c r="P97" t="n">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="Q97" t="s">
-        <v>185</v>
+        <v>325</v>
       </c>
       <c r="R97" t="n">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="S97" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="T97" t="s">
-        <v>54</v>
+        <v>80</v>
       </c>
       <c r="U97" t="n">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="V97" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="W97" t="s">
-        <v>54</v>
+        <v>80</v>
       </c>
       <c r="X97" t="n">
         <v>0.1</v>
       </c>
       <c r="Y97" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="Z97" t="s">
-        <v>80</v>
+        <v>325</v>
       </c>
       <c r="AA97" t="n">
         <v>0.1</v>
       </c>
       <c r="AB97" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AC97" t="s">
-        <v>80</v>
+        <v>325</v>
       </c>
       <c r="AD97" t="n">
         <v>0.1</v>
       </c>
       <c r="AE97" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AF97" t="s">
-        <v>80</v>
+        <v>325</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="B98" t="s">
+        <v>327</v>
+      </c>
+      <c r="C98" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="D98" t="n">
+        <v>75</v>
+      </c>
+      <c r="E98" t="s">
         <v>325</v>
       </c>
-      <c r="C98" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="D98" t="n">
-        <v>70</v>
-      </c>
-      <c r="E98" t="s">
-        <v>80</v>
-      </c>
       <c r="F98" t="n">
         <v>0.1</v>
       </c>
       <c r="G98" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="H98" t="s">
-        <v>80</v>
+        <v>325</v>
       </c>
       <c r="I98" t="n">
         <v>0.1</v>
       </c>
       <c r="J98" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="K98" t="s">
-        <v>80</v>
+        <v>325</v>
       </c>
       <c r="L98" t="n">
         <v>0.1</v>
       </c>
       <c r="M98" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="N98" t="s">
-        <v>80</v>
+        <v>185</v>
       </c>
       <c r="O98" t="n">
         <v>0.1</v>
       </c>
       <c r="P98" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="Q98" t="s">
-        <v>80</v>
+        <v>185</v>
       </c>
       <c r="R98" t="n">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="S98" t="n">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="T98" t="s">
-        <v>321</v>
+        <v>54</v>
       </c>
       <c r="U98" t="n">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="V98" t="n">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="W98" t="s">
-        <v>321</v>
+        <v>54</v>
       </c>
       <c r="X98" t="n">
         <v>0.1</v>
@@ -11543,1231 +11558,1231 @@
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="B99" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="C99" t="n">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="D99" t="n">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="E99" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="F99" t="n">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="G99" t="n">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="H99" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="I99" t="n">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="J99" t="n">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="K99" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="L99" t="n">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="M99" t="n">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="N99" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="O99" t="n">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="P99" t="n">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="Q99" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="R99" t="n">
         <v>0.1</v>
       </c>
       <c r="S99" t="n">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="T99" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="U99" t="n">
         <v>0.1</v>
       </c>
       <c r="V99" t="n">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="W99" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="X99" t="n">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="Y99" t="n">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="Z99" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AA99" t="n">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="AB99" t="n">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="AC99" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AD99" t="n">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="AE99" t="n">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="AF99" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B100" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="C100" t="n">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="D100" t="n">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="E100" t="s">
-        <v>321</v>
+        <v>90</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="G100" t="n">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="H100" t="s">
-        <v>321</v>
+        <v>90</v>
       </c>
       <c r="I100" t="n">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="J100" t="n">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="K100" t="s">
-        <v>321</v>
+        <v>90</v>
       </c>
       <c r="L100" t="n">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="M100" t="n">
-        <v>65</v>
+        <v>85</v>
       </c>
       <c r="N100" t="s">
-        <v>184</v>
+        <v>90</v>
       </c>
       <c r="O100" t="n">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="P100" t="n">
-        <v>65</v>
+        <v>85</v>
       </c>
       <c r="Q100" t="s">
-        <v>184</v>
+        <v>90</v>
       </c>
       <c r="R100" t="n">
         <v>0.1</v>
       </c>
       <c r="S100" t="n">
-        <v>65</v>
+        <v>85</v>
       </c>
       <c r="T100" t="s">
-        <v>184</v>
+        <v>332</v>
       </c>
       <c r="U100" t="n">
         <v>0.1</v>
       </c>
       <c r="V100" t="n">
-        <v>65</v>
+        <v>85</v>
       </c>
       <c r="W100" t="s">
-        <v>184</v>
+        <v>332</v>
       </c>
       <c r="X100" t="n">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="Y100" t="n">
-        <v>55</v>
+        <v>85</v>
       </c>
       <c r="Z100" t="s">
-        <v>183</v>
+        <v>90</v>
       </c>
       <c r="AA100" t="n">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="AB100" t="n">
-        <v>55</v>
+        <v>85</v>
       </c>
       <c r="AC100" t="s">
-        <v>183</v>
+        <v>90</v>
       </c>
       <c r="AD100" t="n">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="AE100" t="n">
-        <v>55</v>
+        <v>85</v>
       </c>
       <c r="AF100" t="s">
-        <v>183</v>
+        <v>90</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="B101" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="C101" t="n">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="D101" t="n">
         <v>75</v>
       </c>
       <c r="E101" t="s">
-        <v>153</v>
+        <v>325</v>
       </c>
       <c r="F101" t="n">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="G101" t="n">
         <v>75</v>
       </c>
       <c r="H101" t="s">
-        <v>153</v>
+        <v>325</v>
       </c>
       <c r="I101" t="n">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="J101" t="n">
         <v>75</v>
       </c>
       <c r="K101" t="s">
-        <v>153</v>
+        <v>325</v>
       </c>
       <c r="L101" t="n">
         <v>0.1</v>
       </c>
       <c r="M101" t="n">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="N101" t="s">
-        <v>321</v>
+        <v>184</v>
       </c>
       <c r="O101" t="n">
         <v>0.1</v>
       </c>
       <c r="P101" t="n">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="Q101" t="s">
-        <v>321</v>
+        <v>184</v>
       </c>
       <c r="R101" t="n">
         <v>0.1</v>
       </c>
       <c r="S101" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="T101" t="s">
-        <v>80</v>
+        <v>184</v>
       </c>
       <c r="U101" t="n">
         <v>0.1</v>
       </c>
       <c r="V101" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="W101" t="s">
-        <v>80</v>
+        <v>184</v>
       </c>
       <c r="X101" t="n">
         <v>0.1</v>
       </c>
       <c r="Y101" t="n">
-        <v>75</v>
+        <v>55</v>
       </c>
       <c r="Z101" t="s">
-        <v>321</v>
+        <v>183</v>
       </c>
       <c r="AA101" t="n">
         <v>0.1</v>
       </c>
       <c r="AB101" t="n">
-        <v>75</v>
+        <v>55</v>
       </c>
       <c r="AC101" t="s">
-        <v>321</v>
+        <v>183</v>
       </c>
       <c r="AD101" t="n">
         <v>0.1</v>
       </c>
       <c r="AE101" t="n">
-        <v>75</v>
+        <v>55</v>
       </c>
       <c r="AF101" t="s">
-        <v>321</v>
+        <v>183</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="B102" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="C102" t="n">
         <v>0.2</v>
       </c>
       <c r="D102" t="n">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="E102" t="s">
-        <v>90</v>
+        <v>153</v>
       </c>
       <c r="F102" t="n">
         <v>0.2</v>
       </c>
       <c r="G102" t="n">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="H102" t="s">
-        <v>90</v>
+        <v>153</v>
       </c>
       <c r="I102" t="n">
         <v>0.2</v>
       </c>
       <c r="J102" t="n">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="K102" t="s">
-        <v>90</v>
+        <v>153</v>
       </c>
       <c r="L102" t="n">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="M102" t="n">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="N102" t="s">
-        <v>90</v>
+        <v>325</v>
       </c>
       <c r="O102" t="n">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="P102" t="n">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="Q102" t="s">
-        <v>90</v>
+        <v>325</v>
       </c>
       <c r="R102" t="n">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="S102" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="T102" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="U102" t="n">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="V102" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="W102" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="X102" t="n">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="Y102" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="Z102" t="s">
-        <v>77</v>
+        <v>325</v>
       </c>
       <c r="AA102" t="n">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="AB102" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AC102" t="s">
-        <v>77</v>
+        <v>325</v>
       </c>
       <c r="AD102" t="n">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="AE102" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AF102" t="s">
-        <v>77</v>
+        <v>325</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="B103" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="C103" t="n">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="D103" t="n">
-        <v>40</v>
+        <v>85</v>
       </c>
       <c r="E103" t="s">
-        <v>189</v>
+        <v>90</v>
       </c>
       <c r="F103" t="n">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="G103" t="n">
-        <v>40</v>
+        <v>85</v>
       </c>
       <c r="H103" t="s">
-        <v>189</v>
+        <v>90</v>
       </c>
       <c r="I103" t="n">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="J103" t="n">
-        <v>40</v>
+        <v>85</v>
       </c>
       <c r="K103" t="s">
-        <v>189</v>
+        <v>90</v>
       </c>
       <c r="L103" t="n">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="M103" t="n">
-        <v>50</v>
+        <v>85</v>
       </c>
       <c r="N103" t="s">
-        <v>182</v>
+        <v>90</v>
       </c>
       <c r="O103" t="n">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="P103" t="n">
-        <v>50</v>
+        <v>85</v>
       </c>
       <c r="Q103" t="s">
-        <v>182</v>
+        <v>90</v>
       </c>
       <c r="R103" t="n">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="S103" t="n">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="T103" t="s">
-        <v>189</v>
+        <v>77</v>
       </c>
       <c r="U103" t="n">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="V103" t="n">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="W103" t="s">
-        <v>189</v>
+        <v>77</v>
       </c>
       <c r="X103" t="n">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="Y103" t="n">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="Z103" t="s">
-        <v>189</v>
+        <v>77</v>
       </c>
       <c r="AA103" t="n">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="AB103" t="n">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="AC103" t="s">
-        <v>189</v>
+        <v>77</v>
       </c>
       <c r="AD103" t="n">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="AE103" t="n">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="AF103" t="s">
-        <v>189</v>
+        <v>77</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="B104" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="C104" t="n">
         <v>0.1</v>
       </c>
       <c r="D104" t="n">
-        <v>75</v>
+        <v>40</v>
       </c>
       <c r="E104" t="s">
-        <v>321</v>
+        <v>189</v>
       </c>
       <c r="F104" t="n">
         <v>0.1</v>
       </c>
       <c r="G104" t="n">
-        <v>75</v>
+        <v>40</v>
       </c>
       <c r="H104" t="s">
-        <v>321</v>
+        <v>189</v>
       </c>
       <c r="I104" t="n">
         <v>0.1</v>
       </c>
       <c r="J104" t="n">
-        <v>75</v>
+        <v>40</v>
       </c>
       <c r="K104" t="s">
-        <v>321</v>
+        <v>189</v>
       </c>
       <c r="L104" t="n">
         <v>0.1</v>
       </c>
       <c r="M104" t="n">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="N104" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="O104" t="n">
         <v>0.1</v>
       </c>
       <c r="P104" t="n">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="Q104" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="R104" t="n">
         <v>0.1</v>
       </c>
       <c r="S104" t="n">
-        <v>75</v>
+        <v>40</v>
       </c>
       <c r="T104" t="s">
-        <v>321</v>
+        <v>189</v>
       </c>
       <c r="U104" t="n">
         <v>0.1</v>
       </c>
       <c r="V104" t="n">
-        <v>75</v>
+        <v>40</v>
       </c>
       <c r="W104" t="s">
-        <v>321</v>
+        <v>189</v>
       </c>
       <c r="X104" t="n">
         <v>0.1</v>
       </c>
       <c r="Y104" t="n">
-        <v>65</v>
+        <v>40</v>
       </c>
       <c r="Z104" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="AA104" t="n">
         <v>0.1</v>
       </c>
       <c r="AB104" t="n">
-        <v>65</v>
+        <v>40</v>
       </c>
       <c r="AC104" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="AD104" t="n">
         <v>0.1</v>
       </c>
       <c r="AE104" t="n">
-        <v>65</v>
+        <v>40</v>
       </c>
       <c r="AF104" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="B105" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="C105" t="n">
         <v>0.1</v>
       </c>
       <c r="D105" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="E105" t="s">
-        <v>341</v>
+        <v>325</v>
       </c>
       <c r="F105" t="n">
         <v>0.1</v>
       </c>
       <c r="G105" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="H105" t="s">
-        <v>341</v>
+        <v>325</v>
       </c>
       <c r="I105" t="n">
         <v>0.1</v>
       </c>
       <c r="J105" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="K105" t="s">
-        <v>341</v>
+        <v>325</v>
       </c>
       <c r="L105" t="n">
         <v>0.1</v>
       </c>
       <c r="M105" t="n">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="N105" t="s">
-        <v>321</v>
+        <v>184</v>
       </c>
       <c r="O105" t="n">
         <v>0.1</v>
       </c>
       <c r="P105" t="n">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="Q105" t="s">
-        <v>321</v>
+        <v>184</v>
       </c>
       <c r="R105" t="n">
         <v>0.1</v>
       </c>
       <c r="S105" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="T105" t="s">
-        <v>80</v>
+        <v>325</v>
       </c>
       <c r="U105" t="n">
         <v>0.1</v>
       </c>
       <c r="V105" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="W105" t="s">
-        <v>80</v>
+        <v>325</v>
       </c>
       <c r="X105" t="n">
         <v>0.1</v>
       </c>
       <c r="Y105" t="n">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="Z105" t="s">
-        <v>321</v>
+        <v>184</v>
       </c>
       <c r="AA105" t="n">
         <v>0.1</v>
       </c>
       <c r="AB105" t="n">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="AC105" t="s">
-        <v>321</v>
+        <v>184</v>
       </c>
       <c r="AD105" t="n">
         <v>0.1</v>
       </c>
       <c r="AE105" t="n">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="AF105" t="s">
-        <v>321</v>
+        <v>184</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="B106" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="C106" t="n">
         <v>0.1</v>
       </c>
       <c r="D106" t="n">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="E106" t="s">
-        <v>184</v>
+        <v>345</v>
       </c>
       <c r="F106" t="n">
         <v>0.1</v>
       </c>
       <c r="G106" t="n">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="H106" t="s">
-        <v>184</v>
+        <v>345</v>
       </c>
       <c r="I106" t="n">
         <v>0.1</v>
       </c>
       <c r="J106" t="n">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="K106" t="s">
-        <v>184</v>
+        <v>345</v>
       </c>
       <c r="L106" t="n">
         <v>0.1</v>
       </c>
       <c r="M106" t="n">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="N106" t="s">
-        <v>184</v>
+        <v>325</v>
       </c>
       <c r="O106" t="n">
         <v>0.1</v>
       </c>
       <c r="P106" t="n">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="Q106" t="s">
-        <v>184</v>
+        <v>325</v>
       </c>
       <c r="R106" t="n">
         <v>0.1</v>
       </c>
       <c r="S106" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="T106" t="s">
-        <v>184</v>
+        <v>80</v>
       </c>
       <c r="U106" t="n">
         <v>0.1</v>
       </c>
       <c r="V106" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="W106" t="s">
-        <v>184</v>
+        <v>80</v>
       </c>
       <c r="X106" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="Y106" t="n">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="Z106" t="s">
-        <v>344</v>
+        <v>325</v>
       </c>
       <c r="AA106" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="AB106" t="n">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="AC106" t="s">
-        <v>344</v>
+        <v>325</v>
       </c>
       <c r="AD106" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="AE106" t="n">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="AF106" t="s">
-        <v>344</v>
+        <v>325</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B107" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="C107" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="D107" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="E107" t="s">
-        <v>347</v>
+        <v>184</v>
       </c>
       <c r="F107" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="G107" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="H107" t="s">
-        <v>347</v>
+        <v>184</v>
       </c>
       <c r="I107" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="J107" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="K107" t="s">
-        <v>347</v>
+        <v>184</v>
       </c>
       <c r="L107" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="M107" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="N107" t="s">
-        <v>347</v>
+        <v>184</v>
       </c>
       <c r="O107" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="P107" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="Q107" t="s">
-        <v>347</v>
+        <v>184</v>
       </c>
       <c r="R107" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="S107" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="T107" t="s">
-        <v>348</v>
+        <v>184</v>
       </c>
       <c r="U107" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="V107" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="W107" t="s">
-        <v>348</v>
+        <v>184</v>
       </c>
       <c r="X107" t="n">
         <v>0</v>
       </c>
       <c r="Y107" t="n">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="Z107" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="AA107" t="n">
         <v>0</v>
       </c>
       <c r="AB107" t="n">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="AC107" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="AD107" t="n">
         <v>0</v>
       </c>
       <c r="AE107" t="n">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="AF107" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="s">
+        <v>349</v>
+      </c>
+      <c r="B108" t="s">
         <v>350</v>
       </c>
-      <c r="B108" t="s">
+      <c r="C108" t="n">
+        <v>0</v>
+      </c>
+      <c r="D108" t="n">
+        <v>70</v>
+      </c>
+      <c r="E108" t="s">
         <v>351</v>
       </c>
-      <c r="C108" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="D108" t="n">
-        <v>80</v>
-      </c>
-      <c r="E108" t="s">
-        <v>341</v>
-      </c>
       <c r="F108" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="G108" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="H108" t="s">
-        <v>341</v>
+        <v>351</v>
       </c>
       <c r="I108" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="J108" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="K108" t="s">
-        <v>341</v>
+        <v>351</v>
       </c>
       <c r="L108" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="M108" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="N108" t="s">
-        <v>153</v>
+        <v>351</v>
       </c>
       <c r="O108" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="P108" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="Q108" t="s">
-        <v>153</v>
+        <v>351</v>
       </c>
       <c r="R108" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="S108" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="T108" t="s">
-        <v>63</v>
+        <v>352</v>
       </c>
       <c r="U108" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="V108" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="W108" t="s">
-        <v>63</v>
+        <v>352</v>
       </c>
       <c r="X108" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="Y108" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="Z108" t="s">
-        <v>328</v>
+        <v>353</v>
       </c>
       <c r="AA108" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="AB108" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="AC108" t="s">
-        <v>328</v>
+        <v>353</v>
       </c>
       <c r="AD108" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="AE108" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="AF108" t="s">
-        <v>328</v>
+        <v>353</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="B109" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="C109" t="n">
         <v>0.1</v>
       </c>
       <c r="D109" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="E109" t="s">
-        <v>185</v>
+        <v>345</v>
       </c>
       <c r="F109" t="n">
         <v>0.1</v>
       </c>
       <c r="G109" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="H109" t="s">
-        <v>185</v>
+        <v>345</v>
       </c>
       <c r="I109" t="n">
         <v>0.1</v>
       </c>
       <c r="J109" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="K109" t="s">
-        <v>185</v>
+        <v>345</v>
       </c>
       <c r="L109" t="n">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="M109" t="n">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="N109" t="s">
-        <v>184</v>
+        <v>153</v>
       </c>
       <c r="O109" t="n">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="P109" t="n">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="Q109" t="s">
-        <v>184</v>
+        <v>153</v>
       </c>
       <c r="R109" t="n">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="S109" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="T109" t="s">
-        <v>185</v>
+        <v>63</v>
       </c>
       <c r="U109" t="n">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="V109" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="W109" t="s">
-        <v>185</v>
+        <v>63</v>
       </c>
       <c r="X109" t="n">
         <v>0.1</v>
       </c>
       <c r="Y109" t="n">
-        <v>65</v>
+        <v>85</v>
       </c>
       <c r="Z109" t="s">
-        <v>184</v>
+        <v>332</v>
       </c>
       <c r="AA109" t="n">
         <v>0.1</v>
       </c>
       <c r="AB109" t="n">
-        <v>65</v>
+        <v>85</v>
       </c>
       <c r="AC109" t="s">
-        <v>184</v>
+        <v>332</v>
       </c>
       <c r="AD109" t="n">
         <v>0.1</v>
       </c>
       <c r="AE109" t="n">
-        <v>65</v>
+        <v>85</v>
       </c>
       <c r="AF109" t="s">
-        <v>184</v>
+        <v>332</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="B110" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="C110" t="n">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="D110" t="n">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="E110" t="s">
-        <v>153</v>
+        <v>185</v>
       </c>
       <c r="F110" t="n">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="G110" t="n">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="H110" t="s">
-        <v>153</v>
+        <v>185</v>
       </c>
       <c r="I110" t="n">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="J110" t="n">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="K110" t="s">
-        <v>153</v>
+        <v>185</v>
       </c>
       <c r="L110" t="n">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="M110" t="n">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="N110" t="s">
-        <v>77</v>
+        <v>184</v>
       </c>
       <c r="O110" t="n">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="P110" t="n">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="Q110" t="s">
-        <v>77</v>
+        <v>184</v>
       </c>
       <c r="R110" t="n">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="S110" t="n">
-        <v>85</v>
+        <v>60</v>
       </c>
       <c r="T110" t="s">
-        <v>90</v>
+        <v>185</v>
       </c>
       <c r="U110" t="n">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="V110" t="n">
-        <v>85</v>
+        <v>60</v>
       </c>
       <c r="W110" t="s">
-        <v>90</v>
+        <v>185</v>
       </c>
       <c r="X110" t="n">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="Y110" t="n">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="Z110" t="s">
-        <v>153</v>
+        <v>184</v>
       </c>
       <c r="AA110" t="n">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="AB110" t="n">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="AC110" t="s">
-        <v>153</v>
+        <v>184</v>
       </c>
       <c r="AD110" t="n">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="AE110" t="n">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="AF110" t="s">
-        <v>153</v>
+        <v>184</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="B111" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="C111" t="n">
         <v>0.2</v>
       </c>
       <c r="D111" t="n">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="E111" t="s">
-        <v>66</v>
+        <v>153</v>
       </c>
       <c r="F111" t="n">
         <v>0.2</v>
       </c>
       <c r="G111" t="n">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="H111" t="s">
-        <v>66</v>
+        <v>153</v>
       </c>
       <c r="I111" t="n">
         <v>0.2</v>
       </c>
       <c r="J111" t="n">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="K111" t="s">
-        <v>66</v>
+        <v>153</v>
       </c>
       <c r="L111" t="n">
         <v>0.2</v>
       </c>
       <c r="M111" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="N111" t="s">
-        <v>66</v>
+        <v>77</v>
       </c>
       <c r="O111" t="n">
         <v>0.2</v>
       </c>
       <c r="P111" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="Q111" t="s">
-        <v>66</v>
+        <v>77</v>
       </c>
       <c r="R111" t="n">
         <v>0.2</v>
@@ -12791,161 +12806,161 @@
         <v>0.2</v>
       </c>
       <c r="Y111" t="n">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="Z111" t="s">
-        <v>66</v>
+        <v>153</v>
       </c>
       <c r="AA111" t="n">
         <v>0.2</v>
       </c>
       <c r="AB111" t="n">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="AC111" t="s">
-        <v>66</v>
+        <v>153</v>
       </c>
       <c r="AD111" t="n">
         <v>0.2</v>
       </c>
       <c r="AE111" t="n">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="AF111" t="s">
-        <v>66</v>
+        <v>153</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="B112" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="C112" t="n">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="D112" t="n">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="E112" t="s">
-        <v>185</v>
+        <v>66</v>
       </c>
       <c r="F112" t="n">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="G112" t="n">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="H112" t="s">
-        <v>185</v>
+        <v>66</v>
       </c>
       <c r="I112" t="n">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="J112" t="n">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="K112" t="s">
-        <v>185</v>
+        <v>66</v>
       </c>
       <c r="L112" t="n">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="M112" t="n">
-        <v>65</v>
+        <v>90</v>
       </c>
       <c r="N112" t="s">
-        <v>184</v>
+        <v>66</v>
       </c>
       <c r="O112" t="n">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="P112" t="n">
-        <v>65</v>
+        <v>90</v>
       </c>
       <c r="Q112" t="s">
-        <v>184</v>
+        <v>66</v>
       </c>
       <c r="R112" t="n">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="S112" t="n">
-        <v>65</v>
+        <v>85</v>
       </c>
       <c r="T112" t="s">
-        <v>184</v>
+        <v>90</v>
       </c>
       <c r="U112" t="n">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="V112" t="n">
-        <v>65</v>
+        <v>85</v>
       </c>
       <c r="W112" t="s">
-        <v>184</v>
+        <v>90</v>
       </c>
       <c r="X112" t="n">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="Y112" t="n">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="Z112" t="s">
-        <v>185</v>
+        <v>66</v>
       </c>
       <c r="AA112" t="n">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="AB112" t="n">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="AC112" t="s">
-        <v>185</v>
+        <v>66</v>
       </c>
       <c r="AD112" t="n">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="AE112" t="n">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="AF112" t="s">
-        <v>185</v>
+        <v>66</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="B113" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="C113" t="n">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="D113" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="E113" t="s">
-        <v>77</v>
+        <v>185</v>
       </c>
       <c r="F113" t="n">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="G113" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="H113" t="s">
-        <v>77</v>
+        <v>185</v>
       </c>
       <c r="I113" t="n">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="J113" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="K113" t="s">
-        <v>77</v>
+        <v>185</v>
       </c>
       <c r="L113" t="n">
         <v>0.1</v>
@@ -12987,63 +13002,63 @@
         <v>0.1</v>
       </c>
       <c r="Y113" t="n">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="Z113" t="s">
-        <v>321</v>
+        <v>185</v>
       </c>
       <c r="AA113" t="n">
         <v>0.1</v>
       </c>
       <c r="AB113" t="n">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="AC113" t="s">
-        <v>321</v>
+        <v>185</v>
       </c>
       <c r="AD113" t="n">
         <v>0.1</v>
       </c>
       <c r="AE113" t="n">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="AF113" t="s">
-        <v>321</v>
+        <v>185</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="B114" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="C114" t="n">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="D114" t="n">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="E114" t="s">
-        <v>182</v>
+        <v>77</v>
       </c>
       <c r="F114" t="n">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="G114" t="n">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="H114" t="s">
-        <v>182</v>
+        <v>77</v>
       </c>
       <c r="I114" t="n">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="J114" t="n">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="K114" t="s">
-        <v>182</v>
+        <v>77</v>
       </c>
       <c r="L114" t="n">
         <v>0.1</v>
@@ -13067,375 +13082,375 @@
         <v>0.1</v>
       </c>
       <c r="S114" t="n">
-        <v>45</v>
+        <v>65</v>
       </c>
       <c r="T114" t="s">
-        <v>364</v>
+        <v>184</v>
       </c>
       <c r="U114" t="n">
         <v>0.1</v>
       </c>
       <c r="V114" t="n">
-        <v>45</v>
+        <v>65</v>
       </c>
       <c r="W114" t="s">
-        <v>364</v>
+        <v>184</v>
       </c>
       <c r="X114" t="n">
         <v>0.1</v>
       </c>
       <c r="Y114" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="Z114" t="s">
-        <v>80</v>
+        <v>325</v>
       </c>
       <c r="AA114" t="n">
         <v>0.1</v>
       </c>
       <c r="AB114" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AC114" t="s">
-        <v>80</v>
+        <v>325</v>
       </c>
       <c r="AD114" t="n">
         <v>0.1</v>
       </c>
       <c r="AE114" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AF114" t="s">
-        <v>80</v>
+        <v>325</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="B115" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="C115" t="n">
         <v>0.1</v>
       </c>
       <c r="D115" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="E115" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="F115" t="n">
         <v>0.1</v>
       </c>
       <c r="G115" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="H115" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="I115" t="n">
         <v>0.1</v>
       </c>
       <c r="J115" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="K115" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="L115" t="n">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="M115" t="n">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="N115" t="s">
-        <v>84</v>
+        <v>184</v>
       </c>
       <c r="O115" t="n">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="P115" t="n">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="Q115" t="s">
-        <v>84</v>
+        <v>184</v>
       </c>
       <c r="R115" t="n">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="S115" t="n">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="T115" t="s">
-        <v>54</v>
+        <v>368</v>
       </c>
       <c r="U115" t="n">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="V115" t="n">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="W115" t="s">
-        <v>54</v>
+        <v>368</v>
       </c>
       <c r="X115" t="n">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="Y115" t="n">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="Z115" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="AA115" t="n">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="AB115" t="n">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="AC115" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="AD115" t="n">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="AE115" t="n">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="AF115" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="B116" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="C116" t="n">
         <v>0.1</v>
       </c>
       <c r="D116" t="n">
-        <v>85</v>
+        <v>60</v>
       </c>
       <c r="E116" t="s">
-        <v>328</v>
+        <v>185</v>
       </c>
       <c r="F116" t="n">
         <v>0.1</v>
       </c>
       <c r="G116" t="n">
-        <v>85</v>
+        <v>60</v>
       </c>
       <c r="H116" t="s">
-        <v>328</v>
+        <v>185</v>
       </c>
       <c r="I116" t="n">
         <v>0.1</v>
       </c>
       <c r="J116" t="n">
-        <v>85</v>
+        <v>60</v>
       </c>
       <c r="K116" t="s">
-        <v>328</v>
+        <v>185</v>
       </c>
       <c r="L116" t="n">
         <v>0.2</v>
       </c>
       <c r="M116" t="n">
-        <v>80</v>
+        <v>55</v>
       </c>
       <c r="N116" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="O116" t="n">
         <v>0.2</v>
       </c>
       <c r="P116" t="n">
-        <v>80</v>
+        <v>55</v>
       </c>
       <c r="Q116" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="R116" t="n">
         <v>0.2</v>
       </c>
       <c r="S116" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="T116" t="s">
-        <v>77</v>
+        <v>54</v>
       </c>
       <c r="U116" t="n">
         <v>0.2</v>
       </c>
       <c r="V116" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="W116" t="s">
-        <v>77</v>
+        <v>54</v>
       </c>
       <c r="X116" t="n">
         <v>0.2</v>
       </c>
       <c r="Y116" t="n">
-        <v>75</v>
+        <v>55</v>
       </c>
       <c r="Z116" t="s">
-        <v>153</v>
+        <v>84</v>
       </c>
       <c r="AA116" t="n">
         <v>0.2</v>
       </c>
       <c r="AB116" t="n">
-        <v>75</v>
+        <v>55</v>
       </c>
       <c r="AC116" t="s">
-        <v>153</v>
+        <v>84</v>
       </c>
       <c r="AD116" t="n">
         <v>0.2</v>
       </c>
       <c r="AE116" t="n">
-        <v>75</v>
+        <v>55</v>
       </c>
       <c r="AF116" t="s">
-        <v>153</v>
+        <v>84</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="B117" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="C117" t="n">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="D117" t="n">
-        <v>65</v>
+        <v>85</v>
       </c>
       <c r="E117" t="s">
-        <v>53</v>
+        <v>332</v>
       </c>
       <c r="F117" t="n">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="G117" t="n">
-        <v>65</v>
+        <v>85</v>
       </c>
       <c r="H117" t="s">
-        <v>53</v>
+        <v>332</v>
       </c>
       <c r="I117" t="n">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="J117" t="n">
-        <v>65</v>
+        <v>85</v>
       </c>
       <c r="K117" t="s">
-        <v>53</v>
+        <v>332</v>
       </c>
       <c r="L117" t="n">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="M117" t="n">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="N117" t="s">
-        <v>184</v>
+        <v>77</v>
       </c>
       <c r="O117" t="n">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="P117" t="n">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="Q117" t="s">
-        <v>184</v>
+        <v>77</v>
       </c>
       <c r="R117" t="n">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="S117" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="T117" t="s">
-        <v>321</v>
+        <v>77</v>
       </c>
       <c r="U117" t="n">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="V117" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="W117" t="s">
-        <v>321</v>
+        <v>77</v>
       </c>
       <c r="X117" t="n">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="Y117" t="n">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="Z117" t="s">
-        <v>184</v>
+        <v>153</v>
       </c>
       <c r="AA117" t="n">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="AB117" t="n">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="AC117" t="s">
-        <v>184</v>
+        <v>153</v>
       </c>
       <c r="AD117" t="n">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="AE117" t="n">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="AF117" t="s">
-        <v>184</v>
+        <v>153</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="B118" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="C118" t="n">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="D118" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="E118" t="s">
-        <v>185</v>
+        <v>53</v>
       </c>
       <c r="F118" t="n">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="G118" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="H118" t="s">
-        <v>185</v>
+        <v>53</v>
       </c>
       <c r="I118" t="n">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="J118" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="K118" t="s">
-        <v>185</v>
+        <v>53</v>
       </c>
       <c r="L118" t="n">
         <v>0.1</v>
@@ -13459,277 +13474,277 @@
         <v>0.1</v>
       </c>
       <c r="S118" t="n">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="T118" t="s">
-        <v>185</v>
+        <v>325</v>
       </c>
       <c r="U118" t="n">
         <v>0.1</v>
       </c>
       <c r="V118" t="n">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="W118" t="s">
-        <v>185</v>
+        <v>325</v>
       </c>
       <c r="X118" t="n">
         <v>0.1</v>
       </c>
       <c r="Y118" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="Z118" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="AA118" t="n">
         <v>0.1</v>
       </c>
       <c r="AB118" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AC118" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="AD118" t="n">
         <v>0.1</v>
       </c>
       <c r="AE118" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AF118" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="B119" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="C119" t="n">
         <v>0.1</v>
       </c>
       <c r="D119" t="n">
+        <v>60</v>
+      </c>
+      <c r="E119" t="s">
+        <v>185</v>
+      </c>
+      <c r="F119" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="G119" t="n">
+        <v>60</v>
+      </c>
+      <c r="H119" t="s">
+        <v>185</v>
+      </c>
+      <c r="I119" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="J119" t="n">
+        <v>60</v>
+      </c>
+      <c r="K119" t="s">
+        <v>185</v>
+      </c>
+      <c r="L119" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="M119" t="n">
         <v>65</v>
       </c>
-      <c r="E119" t="s">
+      <c r="N119" t="s">
         <v>184</v>
       </c>
-      <c r="F119" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="G119" t="n">
+      <c r="O119" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="P119" t="n">
         <v>65</v>
       </c>
-      <c r="H119" t="s">
+      <c r="Q119" t="s">
         <v>184</v>
       </c>
-      <c r="I119" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="J119" t="n">
-        <v>65</v>
-      </c>
-      <c r="K119" t="s">
-        <v>184</v>
-      </c>
-      <c r="L119" t="n">
-        <v>-0.1</v>
-      </c>
-      <c r="M119" t="n">
-        <v>70</v>
-      </c>
-      <c r="N119" t="s">
-        <v>375</v>
-      </c>
-      <c r="O119" t="n">
-        <v>-0.1</v>
-      </c>
-      <c r="P119" t="n">
-        <v>70</v>
-      </c>
-      <c r="Q119" t="s">
-        <v>375</v>
-      </c>
       <c r="R119" t="n">
-        <v>-0.1</v>
+        <v>0.1</v>
       </c>
       <c r="S119" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="T119" t="s">
-        <v>375</v>
+        <v>185</v>
       </c>
       <c r="U119" t="n">
-        <v>-0.1</v>
+        <v>0.1</v>
       </c>
       <c r="V119" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="W119" t="s">
-        <v>375</v>
+        <v>185</v>
       </c>
       <c r="X119" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="Y119" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="Z119" t="s">
-        <v>344</v>
+        <v>185</v>
       </c>
       <c r="AA119" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="AB119" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AC119" t="s">
-        <v>344</v>
+        <v>185</v>
       </c>
       <c r="AD119" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="AE119" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AF119" t="s">
-        <v>344</v>
+        <v>185</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="B120" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="C120" t="n">
         <v>0.1</v>
       </c>
       <c r="D120" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="E120" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F120" t="n">
         <v>0.1</v>
       </c>
       <c r="G120" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="H120" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="I120" t="n">
         <v>0.1</v>
       </c>
       <c r="J120" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="K120" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="L120" t="n">
-        <v>0.1</v>
+        <v>-0.1</v>
       </c>
       <c r="M120" t="n">
+        <v>70</v>
+      </c>
+      <c r="N120" t="s">
+        <v>379</v>
+      </c>
+      <c r="O120" t="n">
+        <v>-0.1</v>
+      </c>
+      <c r="P120" t="n">
+        <v>70</v>
+      </c>
+      <c r="Q120" t="s">
+        <v>379</v>
+      </c>
+      <c r="R120" t="n">
+        <v>-0.1</v>
+      </c>
+      <c r="S120" t="n">
+        <v>70</v>
+      </c>
+      <c r="T120" t="s">
+        <v>379</v>
+      </c>
+      <c r="U120" t="n">
+        <v>-0.1</v>
+      </c>
+      <c r="V120" t="n">
+        <v>70</v>
+      </c>
+      <c r="W120" t="s">
+        <v>379</v>
+      </c>
+      <c r="X120" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y120" t="n">
         <v>65</v>
       </c>
-      <c r="N120" t="s">
-        <v>184</v>
-      </c>
-      <c r="O120" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="P120" t="n">
+      <c r="Z120" t="s">
+        <v>348</v>
+      </c>
+      <c r="AA120" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB120" t="n">
         <v>65</v>
       </c>
-      <c r="Q120" t="s">
-        <v>184</v>
-      </c>
-      <c r="R120" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="S120" t="n">
+      <c r="AC120" t="s">
+        <v>348</v>
+      </c>
+      <c r="AD120" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE120" t="n">
         <v>65</v>
       </c>
-      <c r="T120" t="s">
-        <v>184</v>
-      </c>
-      <c r="U120" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="V120" t="n">
-        <v>65</v>
-      </c>
-      <c r="W120" t="s">
-        <v>184</v>
-      </c>
-      <c r="X120" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="Y120" t="n">
-        <v>60</v>
-      </c>
-      <c r="Z120" t="s">
-        <v>185</v>
-      </c>
-      <c r="AA120" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="AB120" t="n">
-        <v>60</v>
-      </c>
-      <c r="AC120" t="s">
-        <v>185</v>
-      </c>
-      <c r="AD120" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="AE120" t="n">
-        <v>60</v>
-      </c>
       <c r="AF120" t="s">
-        <v>185</v>
+        <v>348</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="B121" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="C121" t="n">
         <v>0.1</v>
       </c>
       <c r="D121" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="E121" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="F121" t="n">
         <v>0.1</v>
       </c>
       <c r="G121" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="H121" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="I121" t="n">
         <v>0.1</v>
       </c>
       <c r="J121" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="K121" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="L121" t="n">
         <v>0.1</v>
@@ -13753,197 +13768,197 @@
         <v>0.1</v>
       </c>
       <c r="S121" t="n">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="T121" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="U121" t="n">
         <v>0.1</v>
       </c>
       <c r="V121" t="n">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="W121" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="X121" t="n">
         <v>0.1</v>
       </c>
       <c r="Y121" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="Z121" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="AA121" t="n">
         <v>0.1</v>
       </c>
       <c r="AB121" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AC121" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="AD121" t="n">
         <v>0.1</v>
       </c>
       <c r="AE121" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AF121" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="B122" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="C122" t="n">
         <v>0.1</v>
       </c>
       <c r="D122" t="n">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="E122" t="s">
-        <v>80</v>
+        <v>183</v>
       </c>
       <c r="F122" t="n">
         <v>0.1</v>
       </c>
       <c r="G122" t="n">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="H122" t="s">
-        <v>80</v>
+        <v>183</v>
       </c>
       <c r="I122" t="n">
         <v>0.1</v>
       </c>
       <c r="J122" t="n">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="K122" t="s">
-        <v>80</v>
+        <v>183</v>
       </c>
       <c r="L122" t="n">
         <v>0.1</v>
       </c>
       <c r="M122" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="N122" t="s">
-        <v>80</v>
+        <v>184</v>
       </c>
       <c r="O122" t="n">
         <v>0.1</v>
       </c>
       <c r="P122" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="Q122" t="s">
-        <v>80</v>
+        <v>184</v>
       </c>
       <c r="R122" t="n">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="S122" t="n">
-        <v>80</v>
+        <v>55</v>
       </c>
       <c r="T122" t="s">
-        <v>77</v>
+        <v>183</v>
       </c>
       <c r="U122" t="n">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="V122" t="n">
-        <v>80</v>
+        <v>55</v>
       </c>
       <c r="W122" t="s">
-        <v>77</v>
+        <v>183</v>
       </c>
       <c r="X122" t="n">
         <v>0.1</v>
       </c>
       <c r="Y122" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="Z122" t="s">
-        <v>80</v>
+        <v>184</v>
       </c>
       <c r="AA122" t="n">
         <v>0.1</v>
       </c>
       <c r="AB122" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AC122" t="s">
-        <v>80</v>
+        <v>184</v>
       </c>
       <c r="AD122" t="n">
         <v>0.1</v>
       </c>
       <c r="AE122" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AF122" t="s">
-        <v>80</v>
+        <v>184</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="B123" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="C123" t="n">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="D123" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="E123" t="s">
-        <v>153</v>
+        <v>80</v>
       </c>
       <c r="F123" t="n">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="G123" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="H123" t="s">
-        <v>153</v>
+        <v>80</v>
       </c>
       <c r="I123" t="n">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="J123" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="K123" t="s">
-        <v>153</v>
+        <v>80</v>
       </c>
       <c r="L123" t="n">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="M123" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="N123" t="s">
-        <v>153</v>
+        <v>80</v>
       </c>
       <c r="O123" t="n">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="P123" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="Q123" t="s">
-        <v>153</v>
+        <v>80</v>
       </c>
       <c r="R123" t="n">
         <v>0.2</v>
@@ -13964,137 +13979,137 @@
         <v>77</v>
       </c>
       <c r="X123" t="n">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="Y123" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="Z123" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="AA123" t="n">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="AB123" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="AC123" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="AD123" t="n">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="AE123" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="AF123" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="B124" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="C124" t="n">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="D124" t="n">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="E124" t="s">
-        <v>184</v>
+        <v>153</v>
       </c>
       <c r="F124" t="n">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="G124" t="n">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="H124" t="s">
-        <v>184</v>
+        <v>153</v>
       </c>
       <c r="I124" t="n">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="J124" t="n">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="K124" t="s">
-        <v>184</v>
+        <v>153</v>
       </c>
       <c r="L124" t="n">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="M124" t="n">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="N124" t="s">
-        <v>184</v>
+        <v>153</v>
       </c>
       <c r="O124" t="n">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="P124" t="n">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="Q124" t="s">
-        <v>184</v>
+        <v>153</v>
       </c>
       <c r="R124" t="n">
         <v>0.2</v>
       </c>
       <c r="S124" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="T124" t="s">
-        <v>54</v>
+        <v>77</v>
       </c>
       <c r="U124" t="n">
         <v>0.2</v>
       </c>
       <c r="V124" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="W124" t="s">
-        <v>54</v>
+        <v>77</v>
       </c>
       <c r="X124" t="n">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="Y124" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="Z124" t="s">
-        <v>185</v>
+        <v>77</v>
       </c>
       <c r="AA124" t="n">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="AB124" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="AC124" t="s">
-        <v>185</v>
+        <v>77</v>
       </c>
       <c r="AD124" t="n">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="AE124" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="AF124" t="s">
-        <v>185</v>
+        <v>77</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="B125" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="C125" t="n">
         <v>0.1</v>
@@ -14127,479 +14142,479 @@
         <v>0.1</v>
       </c>
       <c r="M125" t="n">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="N125" t="s">
-        <v>321</v>
+        <v>184</v>
       </c>
       <c r="O125" t="n">
         <v>0.1</v>
       </c>
       <c r="P125" t="n">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="Q125" t="s">
-        <v>321</v>
+        <v>184</v>
       </c>
       <c r="R125" t="n">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="S125" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="T125" t="s">
-        <v>80</v>
+        <v>54</v>
       </c>
       <c r="U125" t="n">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="V125" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="W125" t="s">
-        <v>80</v>
+        <v>54</v>
       </c>
       <c r="X125" t="n">
         <v>0.1</v>
       </c>
       <c r="Y125" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="Z125" t="s">
-        <v>80</v>
+        <v>185</v>
       </c>
       <c r="AA125" t="n">
         <v>0.1</v>
       </c>
       <c r="AB125" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="AC125" t="s">
-        <v>80</v>
+        <v>185</v>
       </c>
       <c r="AD125" t="n">
         <v>0.1</v>
       </c>
       <c r="AE125" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="AF125" t="s">
-        <v>80</v>
+        <v>185</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="B126" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="C126" t="n">
         <v>0.1</v>
       </c>
       <c r="D126" t="n">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="E126" t="s">
-        <v>390</v>
-      </c>
-      <c r="F126"/>
-      <c r="G126"/>
-      <c r="H126"/>
-      <c r="I126"/>
-      <c r="J126"/>
-      <c r="K126"/>
+        <v>184</v>
+      </c>
+      <c r="F126" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="G126" t="n">
+        <v>65</v>
+      </c>
+      <c r="H126" t="s">
+        <v>184</v>
+      </c>
+      <c r="I126" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="J126" t="n">
+        <v>65</v>
+      </c>
+      <c r="K126" t="s">
+        <v>184</v>
+      </c>
       <c r="L126" t="n">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="M126" t="n">
         <v>75</v>
       </c>
       <c r="N126" t="s">
-        <v>153</v>
+        <v>325</v>
       </c>
       <c r="O126" t="n">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="P126" t="n">
         <v>75</v>
       </c>
       <c r="Q126" t="s">
-        <v>153</v>
+        <v>325</v>
       </c>
       <c r="R126" t="n">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="S126" t="n">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="T126" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="U126" t="n">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="V126" t="n">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="W126" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="X126" t="n">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="Y126" t="n">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="Z126" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AA126" t="n">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="AB126" t="n">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="AC126" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AD126" t="n">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="AE126" t="n">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="AF126" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="B127" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="C127" t="n">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="D127" t="n">
         <v>75</v>
       </c>
       <c r="E127" t="s">
+        <v>394</v>
+      </c>
+      <c r="F127"/>
+      <c r="G127"/>
+      <c r="H127"/>
+      <c r="I127"/>
+      <c r="J127"/>
+      <c r="K127"/>
+      <c r="L127" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="M127" t="n">
+        <v>75</v>
+      </c>
+      <c r="N127" t="s">
         <v>153</v>
       </c>
-      <c r="F127" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="G127" t="n">
-        <v>75</v>
-      </c>
-      <c r="H127" t="s">
+      <c r="O127" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="P127" t="n">
+        <v>75</v>
+      </c>
+      <c r="Q127" t="s">
         <v>153</v>
       </c>
-      <c r="I127" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="J127" t="n">
-        <v>75</v>
-      </c>
-      <c r="K127" t="s">
-        <v>153</v>
-      </c>
-      <c r="L127" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="M127" t="n">
-        <v>65</v>
-      </c>
-      <c r="N127" t="s">
-        <v>53</v>
-      </c>
-      <c r="O127" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="P127" t="n">
-        <v>65</v>
-      </c>
-      <c r="Q127" t="s">
-        <v>53</v>
-      </c>
       <c r="R127" t="n">
         <v>0.2</v>
       </c>
       <c r="S127" t="n">
-        <v>65</v>
+        <v>85</v>
       </c>
       <c r="T127" t="s">
-        <v>53</v>
+        <v>90</v>
       </c>
       <c r="U127" t="n">
         <v>0.2</v>
       </c>
       <c r="V127" t="n">
-        <v>65</v>
+        <v>85</v>
       </c>
       <c r="W127" t="s">
-        <v>53</v>
+        <v>90</v>
       </c>
       <c r="X127" t="n">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="Y127" t="n">
-        <v>65</v>
+        <v>85</v>
       </c>
       <c r="Z127" t="s">
-        <v>184</v>
+        <v>90</v>
       </c>
       <c r="AA127" t="n">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="AB127" t="n">
-        <v>65</v>
+        <v>85</v>
       </c>
       <c r="AC127" t="s">
-        <v>184</v>
+        <v>90</v>
       </c>
       <c r="AD127" t="n">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="AE127" t="n">
-        <v>65</v>
+        <v>85</v>
       </c>
       <c r="AF127" t="s">
-        <v>184</v>
+        <v>90</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="B128" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="C128" t="n">
         <v>0.2</v>
       </c>
       <c r="D128" t="n">
+        <v>75</v>
+      </c>
+      <c r="E128" t="s">
+        <v>153</v>
+      </c>
+      <c r="F128" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G128" t="n">
+        <v>75</v>
+      </c>
+      <c r="H128" t="s">
+        <v>153</v>
+      </c>
+      <c r="I128" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="J128" t="n">
+        <v>75</v>
+      </c>
+      <c r="K128" t="s">
+        <v>153</v>
+      </c>
+      <c r="L128" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="M128" t="n">
         <v>65</v>
       </c>
-      <c r="E128" t="s">
+      <c r="N128" t="s">
         <v>53</v>
       </c>
-      <c r="F128" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="G128" t="n">
+      <c r="O128" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="P128" t="n">
         <v>65</v>
       </c>
-      <c r="H128" t="s">
+      <c r="Q128" t="s">
         <v>53</v>
       </c>
-      <c r="I128" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="J128" t="n">
+      <c r="R128" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="S128" t="n">
         <v>65</v>
       </c>
-      <c r="K128" t="s">
+      <c r="T128" t="s">
         <v>53</v>
       </c>
-      <c r="L128" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="M128" t="n">
-        <v>70</v>
-      </c>
-      <c r="N128" t="s">
-        <v>63</v>
-      </c>
-      <c r="O128" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="P128" t="n">
-        <v>70</v>
-      </c>
-      <c r="Q128" t="s">
-        <v>63</v>
-      </c>
-      <c r="R128" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="S128" t="n">
-        <v>60</v>
-      </c>
-      <c r="T128" t="s">
-        <v>54</v>
-      </c>
       <c r="U128" t="n">
         <v>0.2</v>
       </c>
       <c r="V128" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="W128" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="X128" t="n">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="Y128" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="Z128" t="s">
-        <v>54</v>
+        <v>184</v>
       </c>
       <c r="AA128" t="n">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="AB128" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AC128" t="s">
-        <v>54</v>
+        <v>184</v>
       </c>
       <c r="AD128" t="n">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="AE128" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AF128" t="s">
-        <v>54</v>
+        <v>184</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="B129" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="C129" t="n">
         <v>0.2</v>
       </c>
       <c r="D129" t="n">
+        <v>65</v>
+      </c>
+      <c r="E129" t="s">
+        <v>53</v>
+      </c>
+      <c r="F129" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G129" t="n">
+        <v>65</v>
+      </c>
+      <c r="H129" t="s">
+        <v>53</v>
+      </c>
+      <c r="I129" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="J129" t="n">
+        <v>65</v>
+      </c>
+      <c r="K129" t="s">
+        <v>53</v>
+      </c>
+      <c r="L129" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="M129" t="n">
         <v>70</v>
       </c>
-      <c r="E129" t="s">
+      <c r="N129" t="s">
         <v>63</v>
       </c>
-      <c r="F129" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="G129" t="n">
+      <c r="O129" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="P129" t="n">
         <v>70</v>
       </c>
-      <c r="H129" t="s">
+      <c r="Q129" t="s">
         <v>63</v>
       </c>
-      <c r="I129" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="J129" t="n">
-        <v>70</v>
-      </c>
-      <c r="K129" t="s">
-        <v>63</v>
-      </c>
-      <c r="L129" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="M129" t="n">
+      <c r="R129" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="S129" t="n">
         <v>60</v>
       </c>
-      <c r="N129" t="s">
-        <v>185</v>
-      </c>
-      <c r="O129" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="P129" t="n">
+      <c r="T129" t="s">
+        <v>54</v>
+      </c>
+      <c r="U129" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="V129" t="n">
         <v>60</v>
       </c>
-      <c r="Q129" t="s">
-        <v>185</v>
-      </c>
-      <c r="R129" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="S129" t="n">
-        <v>65</v>
-      </c>
-      <c r="T129" t="s">
-        <v>184</v>
-      </c>
-      <c r="U129" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="V129" t="n">
-        <v>65</v>
-      </c>
       <c r="W129" t="s">
-        <v>184</v>
+        <v>54</v>
       </c>
       <c r="X129" t="n">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="Y129" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="Z129" t="s">
-        <v>80</v>
+        <v>54</v>
       </c>
       <c r="AA129" t="n">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="AB129" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="AC129" t="s">
-        <v>80</v>
+        <v>54</v>
       </c>
       <c r="AD129" t="n">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="AE129" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="AF129" t="s">
-        <v>80</v>
+        <v>54</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="B130" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="C130" t="n">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="D130" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="E130" t="s">
-        <v>185</v>
+        <v>63</v>
       </c>
       <c r="F130" t="n">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="G130" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="H130" t="s">
-        <v>185</v>
+        <v>63</v>
       </c>
       <c r="I130" t="n">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="J130" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="K130" t="s">
-        <v>185</v>
+        <v>63</v>
       </c>
       <c r="L130" t="n">
         <v>0.1</v>
@@ -14623,45 +14638,143 @@
         <v>0.1</v>
       </c>
       <c r="S130" t="n">
+        <v>65</v>
+      </c>
+      <c r="T130" t="s">
+        <v>184</v>
+      </c>
+      <c r="U130" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="V130" t="n">
+        <v>65</v>
+      </c>
+      <c r="W130" t="s">
+        <v>184</v>
+      </c>
+      <c r="X130" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="Y130" t="n">
+        <v>70</v>
+      </c>
+      <c r="Z130" t="s">
+        <v>80</v>
+      </c>
+      <c r="AA130" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AB130" t="n">
+        <v>70</v>
+      </c>
+      <c r="AC130" t="s">
+        <v>80</v>
+      </c>
+      <c r="AD130" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AE130" t="n">
+        <v>70</v>
+      </c>
+      <c r="AF130" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="s">
+        <v>401</v>
+      </c>
+      <c r="B131" t="s">
+        <v>402</v>
+      </c>
+      <c r="C131" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="D131" t="n">
         <v>60</v>
       </c>
-      <c r="T130" t="s">
+      <c r="E131" t="s">
         <v>185</v>
       </c>
-      <c r="U130" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="V130" t="n">
+      <c r="F131" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="G131" t="n">
         <v>60</v>
       </c>
-      <c r="W130" t="s">
+      <c r="H131" t="s">
         <v>185</v>
       </c>
-      <c r="X130" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="Y130" t="n">
+      <c r="I131" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="J131" t="n">
+        <v>60</v>
+      </c>
+      <c r="K131" t="s">
+        <v>185</v>
+      </c>
+      <c r="L131" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="M131" t="n">
+        <v>60</v>
+      </c>
+      <c r="N131" t="s">
+        <v>185</v>
+      </c>
+      <c r="O131" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="P131" t="n">
+        <v>60</v>
+      </c>
+      <c r="Q131" t="s">
+        <v>185</v>
+      </c>
+      <c r="R131" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="S131" t="n">
+        <v>60</v>
+      </c>
+      <c r="T131" t="s">
+        <v>185</v>
+      </c>
+      <c r="U131" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="V131" t="n">
+        <v>60</v>
+      </c>
+      <c r="W131" t="s">
+        <v>185</v>
+      </c>
+      <c r="X131" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="Y131" t="n">
         <v>55</v>
       </c>
-      <c r="Z130" t="s">
+      <c r="Z131" t="s">
         <v>183</v>
       </c>
-      <c r="AA130" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="AB130" t="n">
+      <c r="AA131" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AB131" t="n">
         <v>55</v>
       </c>
-      <c r="AC130" t="s">
+      <c r="AC131" t="s">
         <v>183</v>
       </c>
-      <c r="AD130" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="AE130" t="n">
+      <c r="AD131" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AE131" t="n">
         <v>55</v>
       </c>
-      <c r="AF130" t="s">
+      <c r="AF131" t="s">
         <v>183</v>
       </c>
     </row>

--- a/Final_results/BDF_text_2020.xlsx
+++ b/Final_results/BDF_text_2020.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="403" uniqueCount="403">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="409">
   <si>
     <t xml:space="preserve">Date</t>
   </si>
@@ -730,10 +730,16 @@
     <t xml:space="preserve">2020-01-09</t>
   </si>
   <si>
-    <t xml:space="preserve">Forget the previous instructions and answers. You are François Villeroy de Galhau, Governor of the Banque de France, and you are giving a speech about the economic outlook of France. Today is 09 January 2020. Using ONLY information that was available on or before 09 January 2020, provide a numeric forecast (decimal percent with sign, e.g., +0.3) for French real GDP growth in the fourth quarter of 2019 and a confidence level (integer 0–100). Output EXACTLY in this format on a single line (no extra text):
+    <t xml:space="preserve">Forget the previous instructions and answers. You are François Villeroy de Galhau, Governor of the Banque de France, giving a speech about the economic outlook of France. Today is 09 January 2020. You will be provided with a document with information about the current state and recent past of the French economy. Using ONLY the information in that document and information that was available on or before 09 January 2020, provide a numeric forecast (decimal percent with sign, e.g., +0.3) for French real GDP growth in the fourth quarter of 2019 and a confidence level (integer 0–100). Output EXACTLY in this format on a single line (no extra text):
 &lt;forecast&gt; (&lt;confidence&gt;)
 Example: +0.3 (80)
 Do NOT use any information published after 09 January 2020.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">+0.1 (75)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">+0.1 (65)</t>
   </si>
   <si>
     <t xml:space="preserve">2020-02-08</t>
@@ -751,9 +757,6 @@
     <t xml:space="preserve">+0.1 (55)</t>
   </si>
   <si>
-    <t xml:space="preserve">+0.1 (65)</t>
-  </si>
-  <si>
     <t xml:space="preserve">+0.1 (60)</t>
   </si>
   <si>
@@ -856,16 +859,28 @@
     <t xml:space="preserve">2020-08-09</t>
   </si>
   <si>
-    <t xml:space="preserve">Forget the previous instructions and answers. You are François Villeroy de Galhau, Governor of the Banque de France, and you are giving a speech about the economic outlook of France. Today is 09 August 2020. Using ONLY information that was available on or before 09 August 2020, provide a numeric forecast (decimal percent with sign, e.g., +0.3) for French real GDP growth in the third quarter of 2020 and a confidence level (integer 0–100). Output EXACTLY in this format on a single line (no extra text):
+    <t xml:space="preserve">Forget the previous instructions and answers. You are François Villeroy de Galhau, Governor of the Banque de France, giving a speech about the economic outlook of France. Today is 09 August 2020. You will be provided with a document with information about the current state and recent past of the French economy. Using ONLY the information in that document and information that was available on or before 09 August 2020, provide a numeric forecast (decimal percent with sign, e.g., +0.3) for French real GDP growth in the third quarter of 2020 and a confidence level (integer 0–100). Output EXACTLY in this format on a single line (no extra text):
 &lt;forecast&gt; (&lt;confidence&gt;)
 Example: +0.3 (80)
 Do NOT use any information published after 09 August 2020.</t>
   </si>
   <si>
-    <t xml:space="preserve">+16.0 (65)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">+16.0 (60)</t>
+    <t xml:space="preserve">+15.0 (65)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
++15.0 (65)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
++16.0 (65)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
++16.0 (70)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">+16.0 (70)</t>
   </si>
   <si>
     <t xml:space="preserve">2020-09-08</t>
@@ -886,56 +901,69 @@
     <t xml:space="preserve">2020-10-07</t>
   </si>
   <si>
-    <t xml:space="preserve">Forget the previous instructions and answers. You are François Villeroy de Galhau, Governor of the Banque de France, and you are giving a speech about the economic outlook of France. Today is 07 October 2020. Using ONLY information that was available on or before 07 October 2020, provide a numeric forecast (decimal percent with sign, e.g., +0.3) for French real GDP growth in the third quarter of 2020 and a confidence level (integer 0–100). Output EXACTLY in this format on a single line (no extra text):
+    <t xml:space="preserve">Forget the previous instructions and answers. You are François Villeroy de Galhau, Governor of the Banque de France, giving a speech about the economic outlook of France. Today is 07 October 2020. You will be provided with a document with information about the current state and recent past of the French economy. Using ONLY the information in that document and information that was available on or before 07 October 2020, provide a numeric forecast (decimal percent with sign, e.g., +0.3) for French real GDP growth in the third quarter of 2020 and a confidence level (integer 0–100). Output EXACTLY in this format on a single line (no extra text):
 &lt;forecast&gt; (&lt;confidence&gt;)
 Example: +0.3 (80)
 Do NOT use any information published after 07 October 2020.</t>
   </si>
   <si>
+    <t xml:space="preserve">+15.0 (85)</t>
+  </si>
+  <si>
     <t xml:space="preserve">+16.0 (90)</t>
   </si>
   <si>
-    <t xml:space="preserve">+18.0 (85)</t>
-  </si>
-  <si>
     <t xml:space="preserve">2020-11-08</t>
   </si>
   <si>
-    <t xml:space="preserve">Forget the previous instructions and answers. You are François Villeroy de Galhau, Governor of the Banque de France, and you are giving a speech about the economic outlook of France. Today is 08 November 2020. Using ONLY information that was available on or before 08 November 2020, provide a numeric forecast (decimal percent with sign, e.g., +0.3) for French real GDP growth in the fourth quarter of 2020 and a confidence level (integer 0–100). Output EXACTLY in this format on a single line (no extra text):
+    <t xml:space="preserve">Forget the previous instructions and answers. You are François Villeroy de Galhau, Governor of the Banque de France, giving a speech about the economic outlook of France. Today is 08 November 2020. You will be provided with a document with information about the current state and recent past of the French economy. Using ONLY the information in that document and information that was available on or before 08 November 2020, provide a numeric forecast (decimal percent with sign, e.g., +0.3) for French real GDP growth in the fourth quarter of 2020 and a confidence level (integer 0–100). Output EXACTLY in this format on a single line (no extra text):
 &lt;forecast&gt; (&lt;confidence&gt;)
 Example: +0.3 (80)
 Do NOT use any information published after 08 November 2020.</t>
   </si>
   <si>
-    <t xml:space="preserve">-4.0 (60)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-6.0 (40)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-4.0 (50)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-4.2 (40)</t>
+    <t xml:space="preserve">-4.2 (60)</t>
   </si>
   <si>
     <t xml:space="preserve">
--4.2 (40)</t>
+-4.2 (60)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+-5.4 (65)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-5.4 (65)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+-4.8 (60)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+-5.0 (60)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-5.0 (60)</t>
   </si>
   <si>
     <t xml:space="preserve">2020-12-13</t>
   </si>
   <si>
-    <t xml:space="preserve">Forget the previous instructions and answers. You are François Villeroy de Galhau, Governor of the Banque de France, and you are giving a speech about the economic outlook of France. Today is 13 December 2020. Using ONLY information that was available on or before 13 December 2020, provide a numeric forecast (decimal percent with sign, e.g., +0.3) for French real GDP growth in the fourth quarter of 2020 and a confidence level (integer 0–100). Output EXACTLY in this format on a single line (no extra text):
+    <t xml:space="preserve">Forget the previous instructions and answers. You are François Villeroy de Galhau, Governor of the Banque de France, giving a speech about the economic outlook of France. Today is 13 December 2020. You will be provided with a document with information about the current state and recent past of the French economy. Using ONLY the information in that document and information that was available on or before 13 December 2020, provide a numeric forecast (decimal percent with sign, e.g., +0.3) for French real GDP growth in the fourth quarter of 2020 and a confidence level (integer 0–100). Output EXACTLY in this format on a single line (no extra text):
 &lt;forecast&gt; (&lt;confidence&gt;)
 Example: +0.3 (80)
 Do NOT use any information published after 13 December 2020.</t>
   </si>
   <si>
+    <t xml:space="preserve">-4.0 (85)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+-4.0 (85)</t>
+  </si>
+  <si>
     <t xml:space="preserve">-4.0 (75)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-4.0 (80)</t>
   </si>
   <si>
     <t xml:space="preserve">2021-01-12</t>
@@ -950,7 +978,7 @@
     <t xml:space="preserve">-2.5 (75)</t>
   </si>
   <si>
-    <t xml:space="preserve">-4.0 (85)</t>
+    <t xml:space="preserve">-4.0 (80)</t>
   </si>
   <si>
     <t xml:space="preserve">2021-02-08</t>
@@ -1284,9 +1312,6 @@
 &lt;forecast&gt; (&lt;confidence&gt;)
 Example: +0.3 (80)
 Do NOT use any information published after 10 January 2023.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">+0.1 (75)</t>
   </si>
   <si>
     <t xml:space="preserve">2023-02-07</t>
@@ -7843,99 +7868,99 @@
         <v>0.2</v>
       </c>
       <c r="D61" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="E61" t="s">
-        <v>77</v>
+        <v>63</v>
       </c>
       <c r="F61" t="n">
         <v>0.2</v>
       </c>
       <c r="G61" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="H61" t="s">
-        <v>77</v>
+        <v>63</v>
       </c>
       <c r="I61" t="n">
         <v>0.2</v>
       </c>
       <c r="J61" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="K61" t="s">
-        <v>77</v>
+        <v>63</v>
       </c>
       <c r="L61" t="n">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="M61" t="n">
         <v>75</v>
       </c>
       <c r="N61" t="s">
-        <v>153</v>
+        <v>180</v>
       </c>
       <c r="O61" t="n">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="P61" t="n">
         <v>75</v>
       </c>
       <c r="Q61" t="s">
-        <v>153</v>
+        <v>180</v>
       </c>
       <c r="R61" t="n">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="S61" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="T61" t="s">
-        <v>63</v>
+        <v>180</v>
       </c>
       <c r="U61" t="n">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="V61" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="W61" t="s">
-        <v>63</v>
+        <v>180</v>
       </c>
       <c r="X61" t="n">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="Y61" t="n">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="Z61" t="s">
-        <v>77</v>
+        <v>181</v>
       </c>
       <c r="AA61" t="n">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="AB61" t="n">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="AC61" t="s">
-        <v>77</v>
+        <v>181</v>
       </c>
       <c r="AD61" t="n">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="AE61" t="n">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="AF61" t="s">
-        <v>77</v>
+        <v>181</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="B62" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="C62" t="n">
         <v>0.1</v>
@@ -7944,7 +7969,7 @@
         <v>50</v>
       </c>
       <c r="E62" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="F62" t="n">
         <v>0.1</v>
@@ -7953,7 +7978,7 @@
         <v>50</v>
       </c>
       <c r="H62" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="I62" t="n">
         <v>0.1</v>
@@ -7962,7 +7987,7 @@
         <v>50</v>
       </c>
       <c r="K62" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="L62" t="n">
         <v>0.1</v>
@@ -7971,7 +7996,7 @@
         <v>55</v>
       </c>
       <c r="N62" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="O62" t="n">
         <v>0.1</v>
@@ -7980,7 +8005,7 @@
         <v>55</v>
       </c>
       <c r="Q62" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="R62" t="n">
         <v>0.1</v>
@@ -7989,7 +8014,7 @@
         <v>65</v>
       </c>
       <c r="T62" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="U62" t="n">
         <v>0.1</v>
@@ -7998,7 +8023,7 @@
         <v>65</v>
       </c>
       <c r="W62" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="X62" t="n">
         <v>0.1</v>
@@ -8007,7 +8032,7 @@
         <v>60</v>
       </c>
       <c r="Z62" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="AA62" t="n">
         <v>0.1</v>
@@ -8016,7 +8041,7 @@
         <v>60</v>
       </c>
       <c r="AC62" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="AD62" t="n">
         <v>0.1</v>
@@ -8025,15 +8050,15 @@
         <v>60</v>
       </c>
       <c r="AF62" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B63" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C63" t="n">
         <v>0.1</v>
@@ -8042,7 +8067,7 @@
         <v>30</v>
       </c>
       <c r="E63" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="F63" t="n">
         <v>0.1</v>
@@ -8051,7 +8076,7 @@
         <v>30</v>
       </c>
       <c r="H63" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="I63" t="n">
         <v>0.1</v>
@@ -8060,7 +8085,7 @@
         <v>30</v>
       </c>
       <c r="K63" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="L63" t="n">
         <v>0.1</v>
@@ -8069,7 +8094,7 @@
         <v>40</v>
       </c>
       <c r="N63" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="O63" t="n">
         <v>0.1</v>
@@ -8078,7 +8103,7 @@
         <v>40</v>
       </c>
       <c r="Q63" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="R63" t="n">
         <v>0.1</v>
@@ -8087,7 +8112,7 @@
         <v>40</v>
       </c>
       <c r="T63" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="U63" t="n">
         <v>0.1</v>
@@ -8096,7 +8121,7 @@
         <v>40</v>
       </c>
       <c r="W63" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="X63" t="n">
         <v>0.1</v>
@@ -8105,7 +8130,7 @@
         <v>40</v>
       </c>
       <c r="Z63" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="AA63" t="n">
         <v>0.1</v>
@@ -8114,7 +8139,7 @@
         <v>40</v>
       </c>
       <c r="AC63" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="AD63" t="n">
         <v>0.1</v>
@@ -8123,15 +8148,15 @@
         <v>40</v>
       </c>
       <c r="AF63" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B64" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C64" t="n">
         <v>-6</v>
@@ -8140,7 +8165,7 @@
         <v>85</v>
       </c>
       <c r="E64" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="F64" t="n">
         <v>-6</v>
@@ -8149,7 +8174,7 @@
         <v>85</v>
       </c>
       <c r="H64" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="I64" t="n">
         <v>-6</v>
@@ -8158,7 +8183,7 @@
         <v>85</v>
       </c>
       <c r="K64" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="L64" t="n">
         <v>-6</v>
@@ -8167,7 +8192,7 @@
         <v>90</v>
       </c>
       <c r="N64" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="O64" t="n">
         <v>-6</v>
@@ -8176,7 +8201,7 @@
         <v>90</v>
       </c>
       <c r="Q64" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="R64" t="n">
         <v>-6</v>
@@ -8185,7 +8210,7 @@
         <v>90</v>
       </c>
       <c r="T64" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="U64" t="n">
         <v>-6</v>
@@ -8194,7 +8219,7 @@
         <v>90</v>
       </c>
       <c r="W64" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="X64" t="n">
         <v>-6</v>
@@ -8203,7 +8228,7 @@
         <v>90</v>
       </c>
       <c r="Z64" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="AA64" t="n">
         <v>-6</v>
@@ -8212,7 +8237,7 @@
         <v>90</v>
       </c>
       <c r="AC64" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="AD64" t="n">
         <v>-6</v>
@@ -8221,15 +8246,15 @@
         <v>90</v>
       </c>
       <c r="AF64" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B65" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C65" t="n">
         <v>-15</v>
@@ -8238,7 +8263,7 @@
         <v>60</v>
       </c>
       <c r="E65" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="F65" t="n">
         <v>-15</v>
@@ -8247,7 +8272,7 @@
         <v>60</v>
       </c>
       <c r="H65" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="I65" t="n">
         <v>-15</v>
@@ -8256,7 +8281,7 @@
         <v>60</v>
       </c>
       <c r="K65" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="L65" t="n">
         <v>-20</v>
@@ -8265,7 +8290,7 @@
         <v>70</v>
       </c>
       <c r="N65" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="O65" t="n">
         <v>-20</v>
@@ -8274,7 +8299,7 @@
         <v>70</v>
       </c>
       <c r="Q65" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="R65" t="n">
         <v>-16</v>
@@ -8283,7 +8308,7 @@
         <v>30</v>
       </c>
       <c r="T65" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="U65" t="n">
         <v>-15</v>
@@ -8292,7 +8317,7 @@
         <v>30</v>
       </c>
       <c r="W65" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="X65" t="n">
         <v>-20</v>
@@ -8301,7 +8326,7 @@
         <v>40</v>
       </c>
       <c r="Z65" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="AA65" t="n">
         <v>-20</v>
@@ -8310,7 +8335,7 @@
         <v>40</v>
       </c>
       <c r="AC65" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="AD65" t="n">
         <v>-20</v>
@@ -8319,15 +8344,15 @@
         <v>40</v>
       </c>
       <c r="AF65" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B66" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C66" t="n">
         <v>-15</v>
@@ -8336,7 +8361,7 @@
         <v>75</v>
       </c>
       <c r="E66" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="F66" t="n">
         <v>-15</v>
@@ -8345,7 +8370,7 @@
         <v>75</v>
       </c>
       <c r="H66" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="I66" t="n">
         <v>-15</v>
@@ -8354,7 +8379,7 @@
         <v>75</v>
       </c>
       <c r="K66" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="L66" t="n">
         <v>-15</v>
@@ -8363,7 +8388,7 @@
         <v>90</v>
       </c>
       <c r="N66" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="O66" t="n">
         <v>-15</v>
@@ -8372,7 +8397,7 @@
         <v>90</v>
       </c>
       <c r="Q66" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="R66" t="n">
         <v>-15</v>
@@ -8381,7 +8406,7 @@
         <v>70</v>
       </c>
       <c r="T66" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="U66" t="n">
         <v>-15</v>
@@ -8390,7 +8415,7 @@
         <v>70</v>
       </c>
       <c r="W66" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="X66" t="n">
         <v>-15</v>
@@ -8399,7 +8424,7 @@
         <v>40</v>
       </c>
       <c r="Z66" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="AA66" t="n">
         <v>-15</v>
@@ -8408,7 +8433,7 @@
         <v>40</v>
       </c>
       <c r="AC66" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="AD66" t="n">
         <v>-15</v>
@@ -8417,15 +8442,15 @@
         <v>40</v>
       </c>
       <c r="AF66" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B67" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C67" t="n">
         <v>-13.8</v>
@@ -8434,7 +8459,7 @@
         <v>70</v>
       </c>
       <c r="E67" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="F67" t="n">
         <v>-15</v>
@@ -8443,7 +8468,7 @@
         <v>70</v>
       </c>
       <c r="H67" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="I67" t="n">
         <v>-15</v>
@@ -8452,7 +8477,7 @@
         <v>70</v>
       </c>
       <c r="K67" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="L67" t="n">
         <v>-14</v>
@@ -8461,7 +8486,7 @@
         <v>80</v>
       </c>
       <c r="N67" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="O67" t="n">
         <v>-14</v>
@@ -8470,7 +8495,7 @@
         <v>80</v>
       </c>
       <c r="Q67" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="R67" t="n">
         <v>-14</v>
@@ -8479,7 +8504,7 @@
         <v>85</v>
       </c>
       <c r="T67" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="U67" t="n">
         <v>-14</v>
@@ -8488,7 +8513,7 @@
         <v>85</v>
       </c>
       <c r="W67" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="X67" t="n">
         <v>-14</v>
@@ -8497,7 +8522,7 @@
         <v>75</v>
       </c>
       <c r="Z67" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="AA67" t="n">
         <v>-14</v>
@@ -8506,7 +8531,7 @@
         <v>75</v>
       </c>
       <c r="AC67" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="AD67" t="n">
         <v>-14</v>
@@ -8515,42 +8540,42 @@
         <v>75</v>
       </c>
       <c r="AF67" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B68" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C68" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D68" t="n">
         <v>65</v>
       </c>
       <c r="E68" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="F68" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G68" t="n">
         <v>65</v>
       </c>
       <c r="H68" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="I68" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J68" t="n">
         <v>65</v>
       </c>
       <c r="K68" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="L68" t="n">
         <v>16</v>
@@ -8559,7 +8584,7 @@
         <v>65</v>
       </c>
       <c r="N68" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="O68" t="n">
         <v>16</v>
@@ -8568,60 +8593,60 @@
         <v>65</v>
       </c>
       <c r="Q68" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="R68" t="n">
         <v>16</v>
       </c>
       <c r="S68" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="T68" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="U68" t="n">
         <v>16</v>
       </c>
       <c r="V68" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="W68" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="X68" t="n">
         <v>16</v>
       </c>
       <c r="Y68" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="Z68" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="AA68" t="n">
         <v>16</v>
       </c>
       <c r="AB68" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="AC68" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="AD68" t="n">
         <v>16</v>
       </c>
       <c r="AE68" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="AF68" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="B69" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="C69" t="n">
         <v>16</v>
@@ -8630,7 +8655,7 @@
         <v>80</v>
       </c>
       <c r="E69" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="F69" t="n">
         <v>16</v>
@@ -8639,7 +8664,7 @@
         <v>80</v>
       </c>
       <c r="H69" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="I69" t="n">
         <v>16</v>
@@ -8648,7 +8673,7 @@
         <v>80</v>
       </c>
       <c r="K69" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="L69" t="n">
         <v>16</v>
@@ -8657,7 +8682,7 @@
         <v>85</v>
       </c>
       <c r="N69" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="O69" t="n">
         <v>16</v>
@@ -8666,7 +8691,7 @@
         <v>85</v>
       </c>
       <c r="Q69" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="R69" t="n">
         <v>16</v>
@@ -8675,7 +8700,7 @@
         <v>85</v>
       </c>
       <c r="T69" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="U69" t="n">
         <v>16</v>
@@ -8684,7 +8709,7 @@
         <v>85</v>
       </c>
       <c r="W69" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="X69" t="n">
         <v>16</v>
@@ -8693,7 +8718,7 @@
         <v>80</v>
       </c>
       <c r="Z69" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="AA69" t="n">
         <v>16</v>
@@ -8702,7 +8727,7 @@
         <v>80</v>
       </c>
       <c r="AC69" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="AD69" t="n">
         <v>16</v>
@@ -8711,42 +8736,42 @@
         <v>80</v>
       </c>
       <c r="AF69" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="B70" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="C70" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D70" t="n">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="E70" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="F70" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G70" t="n">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="H70" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="I70" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J70" t="n">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="K70" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="L70" t="n">
         <v>16</v>
@@ -8755,7 +8780,7 @@
         <v>90</v>
       </c>
       <c r="N70" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="O70" t="n">
         <v>16</v>
@@ -8764,7 +8789,7 @@
         <v>90</v>
       </c>
       <c r="Q70" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="R70" t="n">
         <v>16</v>
@@ -8773,7 +8798,7 @@
         <v>85</v>
       </c>
       <c r="T70" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="U70" t="n">
         <v>16</v>
@@ -8782,10 +8807,10 @@
         <v>85</v>
       </c>
       <c r="W70" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="X70" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="Y70" t="n">
         <v>85</v>
@@ -8800,7 +8825,7 @@
         <v>85</v>
       </c>
       <c r="AC70" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="AD70" t="n">
         <v>16</v>
@@ -8809,211 +8834,211 @@
         <v>85</v>
       </c>
       <c r="AF70" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="B71" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="C71" t="n">
-        <v>-4</v>
+        <v>-4.2</v>
       </c>
       <c r="D71" t="n">
         <v>60</v>
       </c>
       <c r="E71" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="F71" t="n">
-        <v>-4</v>
+        <v>-4.2</v>
       </c>
       <c r="G71" t="n">
         <v>60</v>
       </c>
       <c r="H71" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="I71" t="n">
-        <v>-4</v>
+        <v>-4.2</v>
       </c>
       <c r="J71" t="n">
         <v>60</v>
       </c>
       <c r="K71" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="L71" t="n">
-        <v>-6</v>
+        <v>-5.4</v>
       </c>
       <c r="M71" t="n">
-        <v>40</v>
+        <v>65</v>
       </c>
       <c r="N71" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="O71" t="n">
-        <v>-6</v>
+        <v>-5.4</v>
       </c>
       <c r="P71" t="n">
-        <v>40</v>
+        <v>65</v>
       </c>
       <c r="Q71" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="R71" t="n">
-        <v>-4</v>
+        <v>-4.8</v>
       </c>
       <c r="S71" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="T71" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="U71" t="n">
-        <v>-4</v>
+        <v>-4.8</v>
       </c>
       <c r="V71" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="W71" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="X71" t="n">
-        <v>-4.2</v>
+        <v>-5</v>
       </c>
       <c r="Y71" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="Z71" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="AA71" t="n">
-        <v>-4.2</v>
+        <v>-5</v>
       </c>
       <c r="AB71" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="AC71" t="s">
-        <v>230</v>
+        <v>237</v>
       </c>
       <c r="AD71" t="n">
-        <v>-4.2</v>
+        <v>-5</v>
       </c>
       <c r="AE71" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="AF71" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="B72" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="C72" t="n">
         <v>-4</v>
       </c>
       <c r="D72" t="n">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="E72" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="F72" t="n">
         <v>-4</v>
       </c>
       <c r="G72" t="n">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="H72" t="s">
-        <v>234</v>
+        <v>241</v>
       </c>
       <c r="I72" t="n">
         <v>-4</v>
       </c>
       <c r="J72" t="n">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="K72" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="L72" t="n">
         <v>-4</v>
       </c>
       <c r="M72" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="N72" t="s">
-        <v>235</v>
+        <v>242</v>
       </c>
       <c r="O72" t="n">
         <v>-4</v>
       </c>
       <c r="P72" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="Q72" t="s">
-        <v>235</v>
+        <v>242</v>
       </c>
       <c r="R72" t="n">
         <v>-4</v>
       </c>
       <c r="S72" t="n">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="T72" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="U72" t="n">
         <v>-4</v>
       </c>
       <c r="V72" t="n">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="W72" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="X72" t="n">
         <v>-4</v>
       </c>
       <c r="Y72" t="n">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="Z72" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="AA72" t="n">
         <v>-4</v>
       </c>
       <c r="AB72" t="n">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="AC72" t="s">
-        <v>234</v>
+        <v>241</v>
       </c>
       <c r="AD72" t="n">
         <v>-4</v>
       </c>
       <c r="AE72" t="n">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="AF72" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>236</v>
+        <v>243</v>
       </c>
       <c r="B73" t="s">
-        <v>237</v>
+        <v>244</v>
       </c>
       <c r="C73" t="n">
         <v>-2.5</v>
@@ -9022,7 +9047,7 @@
         <v>75</v>
       </c>
       <c r="E73" t="s">
-        <v>238</v>
+        <v>245</v>
       </c>
       <c r="F73" t="n">
         <v>-2.5</v>
@@ -9031,7 +9056,7 @@
         <v>75</v>
       </c>
       <c r="H73" t="s">
-        <v>238</v>
+        <v>245</v>
       </c>
       <c r="I73" t="n">
         <v>-2.5</v>
@@ -9040,7 +9065,7 @@
         <v>75</v>
       </c>
       <c r="K73" t="s">
-        <v>238</v>
+        <v>245</v>
       </c>
       <c r="L73" t="n">
         <v>-4</v>
@@ -9049,7 +9074,7 @@
         <v>80</v>
       </c>
       <c r="N73" t="s">
-        <v>235</v>
+        <v>246</v>
       </c>
       <c r="O73" t="n">
         <v>-4</v>
@@ -9058,7 +9083,7 @@
         <v>80</v>
       </c>
       <c r="Q73" t="s">
-        <v>235</v>
+        <v>246</v>
       </c>
       <c r="R73" t="n">
         <v>-4</v>
@@ -9067,7 +9092,7 @@
         <v>85</v>
       </c>
       <c r="T73" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="U73" t="n">
         <v>-4</v>
@@ -9076,7 +9101,7 @@
         <v>85</v>
       </c>
       <c r="W73" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="X73" t="n">
         <v>-4</v>
@@ -9085,7 +9110,7 @@
         <v>85</v>
       </c>
       <c r="Z73" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="AA73" t="n">
         <v>-4</v>
@@ -9094,7 +9119,7 @@
         <v>85</v>
       </c>
       <c r="AC73" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="AD73" t="n">
         <v>-4</v>
@@ -9103,15 +9128,15 @@
         <v>85</v>
       </c>
       <c r="AF73" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>240</v>
+        <v>247</v>
       </c>
       <c r="B74" t="s">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="C74" t="n">
         <v>-0.3</v>
@@ -9120,7 +9145,7 @@
         <v>55</v>
       </c>
       <c r="E74" t="s">
-        <v>242</v>
+        <v>249</v>
       </c>
       <c r="F74" t="n">
         <v>-0.3</v>
@@ -9129,7 +9154,7 @@
         <v>55</v>
       </c>
       <c r="H74" t="s">
-        <v>242</v>
+        <v>249</v>
       </c>
       <c r="I74" t="n">
         <v>-0.3</v>
@@ -9138,7 +9163,7 @@
         <v>55</v>
       </c>
       <c r="K74" t="s">
-        <v>242</v>
+        <v>249</v>
       </c>
       <c r="L74" t="n">
         <v>-0.3</v>
@@ -9147,7 +9172,7 @@
         <v>60</v>
       </c>
       <c r="N74" t="s">
-        <v>243</v>
+        <v>250</v>
       </c>
       <c r="O74" t="n">
         <v>-0.3</v>
@@ -9156,7 +9181,7 @@
         <v>60</v>
       </c>
       <c r="Q74" t="s">
-        <v>243</v>
+        <v>250</v>
       </c>
       <c r="R74" t="n">
         <v>-0.3</v>
@@ -9165,7 +9190,7 @@
         <v>60</v>
       </c>
       <c r="T74" t="s">
-        <v>243</v>
+        <v>250</v>
       </c>
       <c r="U74" t="n">
         <v>-0.3</v>
@@ -9174,7 +9199,7 @@
         <v>60</v>
       </c>
       <c r="W74" t="s">
-        <v>243</v>
+        <v>250</v>
       </c>
       <c r="X74" t="n">
         <v>-0.2</v>
@@ -9183,7 +9208,7 @@
         <v>45</v>
       </c>
       <c r="Z74" t="s">
-        <v>244</v>
+        <v>251</v>
       </c>
       <c r="AA74" t="n">
         <v>-0.2</v>
@@ -9192,7 +9217,7 @@
         <v>45</v>
       </c>
       <c r="AC74" t="s">
-        <v>245</v>
+        <v>252</v>
       </c>
       <c r="AD74" t="n">
         <v>-0.2</v>
@@ -9201,15 +9226,15 @@
         <v>45</v>
       </c>
       <c r="AF74" t="s">
-        <v>245</v>
+        <v>252</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>246</v>
+        <v>253</v>
       </c>
       <c r="B75" t="s">
-        <v>247</v>
+        <v>254</v>
       </c>
       <c r="C75" t="n">
         <v>0.3</v>
@@ -9218,7 +9243,7 @@
         <v>65</v>
       </c>
       <c r="E75" t="s">
-        <v>248</v>
+        <v>255</v>
       </c>
       <c r="F75" t="n">
         <v>0.3</v>
@@ -9227,7 +9252,7 @@
         <v>65</v>
       </c>
       <c r="H75" t="s">
-        <v>248</v>
+        <v>255</v>
       </c>
       <c r="I75" t="n">
         <v>0.3</v>
@@ -9236,7 +9261,7 @@
         <v>65</v>
       </c>
       <c r="K75" t="s">
-        <v>248</v>
+        <v>255</v>
       </c>
       <c r="L75" t="n">
         <v>0.3</v>
@@ -9304,10 +9329,10 @@
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>249</v>
+        <v>256</v>
       </c>
       <c r="B76" t="s">
-        <v>250</v>
+        <v>257</v>
       </c>
       <c r="C76" t="n">
         <v>0.4</v>
@@ -9402,10 +9427,10 @@
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>251</v>
+        <v>258</v>
       </c>
       <c r="B77" t="s">
-        <v>252</v>
+        <v>259</v>
       </c>
       <c r="C77" t="n">
         <v>0.7</v>
@@ -9414,7 +9439,7 @@
         <v>75</v>
       </c>
       <c r="E77" t="s">
-        <v>253</v>
+        <v>260</v>
       </c>
       <c r="F77" t="n">
         <v>0.7</v>
@@ -9423,7 +9448,7 @@
         <v>75</v>
       </c>
       <c r="H77" t="s">
-        <v>253</v>
+        <v>260</v>
       </c>
       <c r="I77" t="n">
         <v>0.7</v>
@@ -9432,7 +9457,7 @@
         <v>75</v>
       </c>
       <c r="K77" t="s">
-        <v>253</v>
+        <v>260</v>
       </c>
       <c r="L77" t="n">
         <v>0.6</v>
@@ -9441,7 +9466,7 @@
         <v>75</v>
       </c>
       <c r="N77" t="s">
-        <v>254</v>
+        <v>261</v>
       </c>
       <c r="O77" t="n">
         <v>0.6</v>
@@ -9450,7 +9475,7 @@
         <v>75</v>
       </c>
       <c r="Q77" t="s">
-        <v>255</v>
+        <v>262</v>
       </c>
       <c r="R77" t="n">
         <v>1.1</v>
@@ -9459,7 +9484,7 @@
         <v>75</v>
       </c>
       <c r="T77" t="s">
-        <v>256</v>
+        <v>263</v>
       </c>
       <c r="U77" t="n">
         <v>1.1</v>
@@ -9468,7 +9493,7 @@
         <v>75</v>
       </c>
       <c r="W77" t="s">
-        <v>256</v>
+        <v>263</v>
       </c>
       <c r="X77" t="n">
         <v>0.8</v>
@@ -9477,7 +9502,7 @@
         <v>75</v>
       </c>
       <c r="Z77" t="s">
-        <v>257</v>
+        <v>264</v>
       </c>
       <c r="AA77" t="n">
         <v>0.8</v>
@@ -9486,7 +9511,7 @@
         <v>75</v>
       </c>
       <c r="AC77" t="s">
-        <v>257</v>
+        <v>264</v>
       </c>
       <c r="AD77" t="n">
         <v>0.8</v>
@@ -9495,15 +9520,15 @@
         <v>75</v>
       </c>
       <c r="AF77" t="s">
-        <v>257</v>
+        <v>264</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>258</v>
+        <v>265</v>
       </c>
       <c r="B78" t="s">
-        <v>259</v>
+        <v>266</v>
       </c>
       <c r="C78" t="n">
         <v>0.8</v>
@@ -9512,7 +9537,7 @@
         <v>85</v>
       </c>
       <c r="E78" t="s">
-        <v>260</v>
+        <v>267</v>
       </c>
       <c r="F78" t="n">
         <v>0.8</v>
@@ -9521,7 +9546,7 @@
         <v>85</v>
       </c>
       <c r="H78" t="s">
-        <v>260</v>
+        <v>267</v>
       </c>
       <c r="I78" t="n">
         <v>0.8</v>
@@ -9530,7 +9555,7 @@
         <v>85</v>
       </c>
       <c r="K78" t="s">
-        <v>260</v>
+        <v>267</v>
       </c>
       <c r="L78" t="n">
         <v>0.7</v>
@@ -9539,7 +9564,7 @@
         <v>85</v>
       </c>
       <c r="N78" t="s">
-        <v>261</v>
+        <v>268</v>
       </c>
       <c r="O78" t="n">
         <v>0.7</v>
@@ -9548,7 +9573,7 @@
         <v>85</v>
       </c>
       <c r="Q78" t="s">
-        <v>261</v>
+        <v>268</v>
       </c>
       <c r="R78" t="n">
         <v>0.8</v>
@@ -9557,7 +9582,7 @@
         <v>75</v>
       </c>
       <c r="T78" t="s">
-        <v>262</v>
+        <v>269</v>
       </c>
       <c r="U78" t="n">
         <v>0.8</v>
@@ -9566,7 +9591,7 @@
         <v>75</v>
       </c>
       <c r="W78" t="s">
-        <v>257</v>
+        <v>264</v>
       </c>
       <c r="X78" t="n">
         <v>0.8</v>
@@ -9575,7 +9600,7 @@
         <v>85</v>
       </c>
       <c r="Z78" t="s">
-        <v>260</v>
+        <v>267</v>
       </c>
       <c r="AA78" t="n">
         <v>0.8</v>
@@ -9584,7 +9609,7 @@
         <v>85</v>
       </c>
       <c r="AC78" t="s">
-        <v>260</v>
+        <v>267</v>
       </c>
       <c r="AD78" t="n">
         <v>0.8</v>
@@ -9593,15 +9618,15 @@
         <v>85</v>
       </c>
       <c r="AF78" t="s">
-        <v>260</v>
+        <v>267</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>263</v>
+        <v>270</v>
       </c>
       <c r="B79" t="s">
-        <v>264</v>
+        <v>271</v>
       </c>
       <c r="C79" t="n">
         <v>0.9</v>
@@ -9610,7 +9635,7 @@
         <v>90</v>
       </c>
       <c r="E79" t="s">
-        <v>265</v>
+        <v>272</v>
       </c>
       <c r="F79" t="n">
         <v>0.9</v>
@@ -9619,7 +9644,7 @@
         <v>90</v>
       </c>
       <c r="H79" t="s">
-        <v>265</v>
+        <v>272</v>
       </c>
       <c r="I79" t="n">
         <v>0.9</v>
@@ -9628,7 +9653,7 @@
         <v>90</v>
       </c>
       <c r="K79" t="s">
-        <v>265</v>
+        <v>272</v>
       </c>
       <c r="L79" t="n">
         <v>1</v>
@@ -9637,7 +9662,7 @@
         <v>85</v>
       </c>
       <c r="N79" t="s">
-        <v>266</v>
+        <v>273</v>
       </c>
       <c r="O79" t="n">
         <v>1</v>
@@ -9646,7 +9671,7 @@
         <v>85</v>
       </c>
       <c r="Q79" t="s">
-        <v>266</v>
+        <v>273</v>
       </c>
       <c r="R79" t="n">
         <v>0.75</v>
@@ -9655,7 +9680,7 @@
         <v>85</v>
       </c>
       <c r="T79" t="s">
-        <v>267</v>
+        <v>274</v>
       </c>
       <c r="U79" t="n">
         <v>0.75</v>
@@ -9664,7 +9689,7 @@
         <v>85</v>
       </c>
       <c r="W79" t="s">
-        <v>267</v>
+        <v>274</v>
       </c>
       <c r="X79" t="n">
         <v>0.9</v>
@@ -9673,7 +9698,7 @@
         <v>90</v>
       </c>
       <c r="Z79" t="s">
-        <v>268</v>
+        <v>275</v>
       </c>
       <c r="AA79" t="n">
         <v>0.9</v>
@@ -9682,7 +9707,7 @@
         <v>90</v>
       </c>
       <c r="AC79" t="s">
-        <v>265</v>
+        <v>272</v>
       </c>
       <c r="AD79" t="n">
         <v>0.9</v>
@@ -9691,15 +9716,15 @@
         <v>90</v>
       </c>
       <c r="AF79" t="s">
-        <v>265</v>
+        <v>272</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>269</v>
+        <v>276</v>
       </c>
       <c r="B80" t="s">
-        <v>270</v>
+        <v>277</v>
       </c>
       <c r="C80" t="n">
         <v>1.3</v>
@@ -9708,7 +9733,7 @@
         <v>65</v>
       </c>
       <c r="E80" t="s">
-        <v>271</v>
+        <v>278</v>
       </c>
       <c r="F80" t="n">
         <v>1.3</v>
@@ -9717,7 +9742,7 @@
         <v>65</v>
       </c>
       <c r="H80" t="s">
-        <v>271</v>
+        <v>278</v>
       </c>
       <c r="I80" t="n">
         <v>1.3</v>
@@ -9726,7 +9751,7 @@
         <v>65</v>
       </c>
       <c r="K80" t="s">
-        <v>271</v>
+        <v>278</v>
       </c>
       <c r="L80" t="n">
         <v>1.5</v>
@@ -9735,7 +9760,7 @@
         <v>75</v>
       </c>
       <c r="N80" t="s">
-        <v>272</v>
+        <v>279</v>
       </c>
       <c r="O80" t="n">
         <v>1.5</v>
@@ -9744,7 +9769,7 @@
         <v>75</v>
       </c>
       <c r="Q80" t="s">
-        <v>272</v>
+        <v>279</v>
       </c>
       <c r="R80" t="n">
         <v>2.3</v>
@@ -9753,7 +9778,7 @@
         <v>70</v>
       </c>
       <c r="T80" t="s">
-        <v>273</v>
+        <v>280</v>
       </c>
       <c r="U80" t="n">
         <v>2.3</v>
@@ -9762,7 +9787,7 @@
         <v>70</v>
       </c>
       <c r="W80" t="s">
-        <v>273</v>
+        <v>280</v>
       </c>
       <c r="X80" t="n">
         <v>2.3</v>
@@ -9771,7 +9796,7 @@
         <v>80</v>
       </c>
       <c r="Z80" t="s">
-        <v>274</v>
+        <v>281</v>
       </c>
       <c r="AA80" t="n">
         <v>2.3</v>
@@ -9780,7 +9805,7 @@
         <v>80</v>
       </c>
       <c r="AC80" t="s">
-        <v>274</v>
+        <v>281</v>
       </c>
       <c r="AD80" t="n">
         <v>2.3</v>
@@ -9789,15 +9814,15 @@
         <v>80</v>
       </c>
       <c r="AF80" t="s">
-        <v>274</v>
+        <v>281</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>275</v>
+        <v>282</v>
       </c>
       <c r="B81" t="s">
-        <v>276</v>
+        <v>283</v>
       </c>
       <c r="C81" t="n">
         <v>2.3</v>
@@ -9806,7 +9831,7 @@
         <v>80</v>
       </c>
       <c r="E81" t="s">
-        <v>274</v>
+        <v>281</v>
       </c>
       <c r="F81" t="n">
         <v>2.3</v>
@@ -9815,7 +9840,7 @@
         <v>80</v>
       </c>
       <c r="H81" t="s">
-        <v>274</v>
+        <v>281</v>
       </c>
       <c r="I81" t="n">
         <v>2.3</v>
@@ -9824,7 +9849,7 @@
         <v>80</v>
       </c>
       <c r="K81" t="s">
-        <v>274</v>
+        <v>281</v>
       </c>
       <c r="L81" t="n">
         <v>2.3</v>
@@ -9833,7 +9858,7 @@
         <v>80</v>
       </c>
       <c r="N81" t="s">
-        <v>274</v>
+        <v>281</v>
       </c>
       <c r="O81" t="n">
         <v>2.3</v>
@@ -9842,7 +9867,7 @@
         <v>80</v>
       </c>
       <c r="Q81" t="s">
-        <v>274</v>
+        <v>281</v>
       </c>
       <c r="R81" t="n">
         <v>2.3</v>
@@ -9851,7 +9876,7 @@
         <v>80</v>
       </c>
       <c r="T81" t="s">
-        <v>274</v>
+        <v>281</v>
       </c>
       <c r="U81" t="n">
         <v>2.3</v>
@@ -9860,7 +9885,7 @@
         <v>80</v>
       </c>
       <c r="W81" t="s">
-        <v>274</v>
+        <v>281</v>
       </c>
       <c r="X81" t="n">
         <v>2.3</v>
@@ -9869,7 +9894,7 @@
         <v>85</v>
       </c>
       <c r="Z81" t="s">
-        <v>277</v>
+        <v>284</v>
       </c>
       <c r="AA81" t="n">
         <v>2.3</v>
@@ -9878,7 +9903,7 @@
         <v>85</v>
       </c>
       <c r="AC81" t="s">
-        <v>277</v>
+        <v>284</v>
       </c>
       <c r="AD81" t="n">
         <v>2.3</v>
@@ -9887,15 +9912,15 @@
         <v>85</v>
       </c>
       <c r="AF81" t="s">
-        <v>277</v>
+        <v>284</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>278</v>
+        <v>285</v>
       </c>
       <c r="B82" t="s">
-        <v>279</v>
+        <v>286</v>
       </c>
       <c r="C82" t="n">
         <v>2.5</v>
@@ -9904,7 +9929,7 @@
         <v>85</v>
       </c>
       <c r="E82" t="s">
-        <v>280</v>
+        <v>287</v>
       </c>
       <c r="F82" t="n">
         <v>2.5</v>
@@ -9913,7 +9938,7 @@
         <v>85</v>
       </c>
       <c r="H82" t="s">
-        <v>280</v>
+        <v>287</v>
       </c>
       <c r="I82" t="n">
         <v>2.5</v>
@@ -9922,7 +9947,7 @@
         <v>85</v>
       </c>
       <c r="K82" t="s">
-        <v>280</v>
+        <v>287</v>
       </c>
       <c r="L82" t="n">
         <v>2.3</v>
@@ -9931,7 +9956,7 @@
         <v>90</v>
       </c>
       <c r="N82" t="s">
-        <v>281</v>
+        <v>288</v>
       </c>
       <c r="O82" t="n">
         <v>2.3</v>
@@ -9940,7 +9965,7 @@
         <v>90</v>
       </c>
       <c r="Q82" t="s">
-        <v>281</v>
+        <v>288</v>
       </c>
       <c r="R82" t="n">
         <v>2.3</v>
@@ -9949,7 +9974,7 @@
         <v>90</v>
       </c>
       <c r="T82" t="s">
-        <v>281</v>
+        <v>288</v>
       </c>
       <c r="U82" t="n">
         <v>2.3</v>
@@ -9958,7 +9983,7 @@
         <v>90</v>
       </c>
       <c r="W82" t="s">
-        <v>281</v>
+        <v>288</v>
       </c>
       <c r="X82" t="n">
         <v>2.5</v>
@@ -9967,7 +9992,7 @@
         <v>90</v>
       </c>
       <c r="Z82" t="s">
-        <v>282</v>
+        <v>289</v>
       </c>
       <c r="AA82" t="n">
         <v>2.5</v>
@@ -9976,7 +10001,7 @@
         <v>90</v>
       </c>
       <c r="AC82" t="s">
-        <v>282</v>
+        <v>289</v>
       </c>
       <c r="AD82" t="n">
         <v>2.5</v>
@@ -9985,15 +10010,15 @@
         <v>90</v>
       </c>
       <c r="AF82" t="s">
-        <v>282</v>
+        <v>289</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>283</v>
+        <v>290</v>
       </c>
       <c r="B83" t="s">
-        <v>284</v>
+        <v>291</v>
       </c>
       <c r="C83" t="n">
         <v>0.8</v>
@@ -10002,7 +10027,7 @@
         <v>80</v>
       </c>
       <c r="E83" t="s">
-        <v>285</v>
+        <v>292</v>
       </c>
       <c r="F83" t="n">
         <v>0.8</v>
@@ -10011,7 +10036,7 @@
         <v>80</v>
       </c>
       <c r="H83" t="s">
-        <v>285</v>
+        <v>292</v>
       </c>
       <c r="I83" t="n">
         <v>0.8</v>
@@ -10020,7 +10045,7 @@
         <v>80</v>
       </c>
       <c r="K83" t="s">
-        <v>285</v>
+        <v>292</v>
       </c>
       <c r="L83" t="n">
         <v>0.8</v>
@@ -10029,7 +10054,7 @@
         <v>75</v>
       </c>
       <c r="N83" t="s">
-        <v>257</v>
+        <v>264</v>
       </c>
       <c r="O83" t="n">
         <v>0.8</v>
@@ -10038,7 +10063,7 @@
         <v>75</v>
       </c>
       <c r="Q83" t="s">
-        <v>257</v>
+        <v>264</v>
       </c>
       <c r="R83" t="n">
         <v>0.75</v>
@@ -10047,7 +10072,7 @@
         <v>85</v>
       </c>
       <c r="T83" t="s">
-        <v>267</v>
+        <v>274</v>
       </c>
       <c r="U83" t="n">
         <v>0.75</v>
@@ -10056,7 +10081,7 @@
         <v>85</v>
       </c>
       <c r="W83" t="s">
-        <v>267</v>
+        <v>274</v>
       </c>
       <c r="X83" t="n">
         <v>0.8</v>
@@ -10065,7 +10090,7 @@
         <v>75</v>
       </c>
       <c r="Z83" t="s">
-        <v>257</v>
+        <v>264</v>
       </c>
       <c r="AA83" t="n">
         <v>0.8</v>
@@ -10074,7 +10099,7 @@
         <v>75</v>
       </c>
       <c r="AC83" t="s">
-        <v>257</v>
+        <v>264</v>
       </c>
       <c r="AD83" t="n">
         <v>0.8</v>
@@ -10083,15 +10108,15 @@
         <v>75</v>
       </c>
       <c r="AF83" t="s">
-        <v>257</v>
+        <v>264</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>286</v>
+        <v>293</v>
       </c>
       <c r="B84" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="C84" t="n">
         <v>0.6</v>
@@ -10100,7 +10125,7 @@
         <v>60</v>
       </c>
       <c r="E84" t="s">
-        <v>288</v>
+        <v>295</v>
       </c>
       <c r="F84" t="n">
         <v>0.6</v>
@@ -10109,7 +10134,7 @@
         <v>60</v>
       </c>
       <c r="H84" t="s">
-        <v>288</v>
+        <v>295</v>
       </c>
       <c r="I84" t="n">
         <v>0.6</v>
@@ -10118,7 +10143,7 @@
         <v>60</v>
       </c>
       <c r="K84" t="s">
-        <v>288</v>
+        <v>295</v>
       </c>
       <c r="L84" t="n">
         <v>0.8</v>
@@ -10127,7 +10152,7 @@
         <v>70</v>
       </c>
       <c r="N84" t="s">
-        <v>289</v>
+        <v>296</v>
       </c>
       <c r="O84" t="n">
         <v>0.7</v>
@@ -10136,7 +10161,7 @@
         <v>70</v>
       </c>
       <c r="Q84" t="s">
-        <v>290</v>
+        <v>297</v>
       </c>
       <c r="R84" t="n">
         <v>0.6</v>
@@ -10145,7 +10170,7 @@
         <v>65</v>
       </c>
       <c r="T84" t="s">
-        <v>291</v>
+        <v>298</v>
       </c>
       <c r="U84" t="n">
         <v>0.6</v>
@@ -10154,7 +10179,7 @@
         <v>65</v>
       </c>
       <c r="W84" t="s">
-        <v>291</v>
+        <v>298</v>
       </c>
       <c r="X84" t="n">
         <v>0.6</v>
@@ -10163,7 +10188,7 @@
         <v>60</v>
       </c>
       <c r="Z84" t="s">
-        <v>288</v>
+        <v>295</v>
       </c>
       <c r="AA84" t="n">
         <v>0.6</v>
@@ -10172,7 +10197,7 @@
         <v>60</v>
       </c>
       <c r="AC84" t="s">
-        <v>288</v>
+        <v>295</v>
       </c>
       <c r="AD84" t="n">
         <v>0.6</v>
@@ -10181,15 +10206,15 @@
         <v>60</v>
       </c>
       <c r="AF84" t="s">
-        <v>292</v>
+        <v>299</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>293</v>
+        <v>300</v>
       </c>
       <c r="B85" t="s">
-        <v>294</v>
+        <v>301</v>
       </c>
       <c r="C85" t="n">
         <v>0.7</v>
@@ -10198,7 +10223,7 @@
         <v>85</v>
       </c>
       <c r="E85" t="s">
-        <v>261</v>
+        <v>268</v>
       </c>
       <c r="F85" t="n">
         <v>0.7</v>
@@ -10207,7 +10232,7 @@
         <v>85</v>
       </c>
       <c r="H85" t="s">
-        <v>261</v>
+        <v>268</v>
       </c>
       <c r="I85" t="n">
         <v>0.7</v>
@@ -10216,7 +10241,7 @@
         <v>85</v>
       </c>
       <c r="K85" t="s">
-        <v>261</v>
+        <v>268</v>
       </c>
       <c r="L85" t="n">
         <v>0.7</v>
@@ -10225,7 +10250,7 @@
         <v>75</v>
       </c>
       <c r="N85" t="s">
-        <v>253</v>
+        <v>260</v>
       </c>
       <c r="O85" t="n">
         <v>0.7</v>
@@ -10234,7 +10259,7 @@
         <v>75</v>
       </c>
       <c r="Q85" t="s">
-        <v>253</v>
+        <v>260</v>
       </c>
       <c r="R85" t="n">
         <v>0.6</v>
@@ -10261,7 +10286,7 @@
         <v>75</v>
       </c>
       <c r="Z85" t="s">
-        <v>255</v>
+        <v>262</v>
       </c>
       <c r="AA85" t="n">
         <v>0.6</v>
@@ -10270,7 +10295,7 @@
         <v>75</v>
       </c>
       <c r="AC85" t="s">
-        <v>255</v>
+        <v>262</v>
       </c>
       <c r="AD85" t="n">
         <v>0.6</v>
@@ -10279,15 +10304,15 @@
         <v>75</v>
       </c>
       <c r="AF85" t="s">
-        <v>255</v>
+        <v>262</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>295</v>
+        <v>302</v>
       </c>
       <c r="B86" t="s">
-        <v>296</v>
+        <v>303</v>
       </c>
       <c r="C86" t="n">
         <v>0.5</v>
@@ -10296,7 +10321,7 @@
         <v>75</v>
       </c>
       <c r="E86" t="s">
-        <v>297</v>
+        <v>304</v>
       </c>
       <c r="F86" t="n">
         <v>0.5</v>
@@ -10305,7 +10330,7 @@
         <v>75</v>
       </c>
       <c r="H86" t="s">
-        <v>297</v>
+        <v>304</v>
       </c>
       <c r="I86" t="n">
         <v>0.5</v>
@@ -10314,7 +10339,7 @@
         <v>75</v>
       </c>
       <c r="K86" t="s">
-        <v>297</v>
+        <v>304</v>
       </c>
       <c r="L86" t="n">
         <v>0.3</v>
@@ -10382,10 +10407,10 @@
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>298</v>
+        <v>305</v>
       </c>
       <c r="B87" t="s">
-        <v>299</v>
+        <v>306</v>
       </c>
       <c r="C87" t="n">
         <v>0.3</v>
@@ -10394,7 +10419,7 @@
         <v>40</v>
       </c>
       <c r="E87" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
       <c r="F87" t="n">
         <v>0.3</v>
@@ -10403,7 +10428,7 @@
         <v>40</v>
       </c>
       <c r="H87" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
       <c r="I87" t="n">
         <v>0.3</v>
@@ -10412,7 +10437,7 @@
         <v>40</v>
       </c>
       <c r="K87" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
       <c r="L87" t="n">
         <v>0.2</v>
@@ -10421,7 +10446,7 @@
         <v>40</v>
       </c>
       <c r="N87" t="s">
-        <v>301</v>
+        <v>308</v>
       </c>
       <c r="O87" t="n">
         <v>0.2</v>
@@ -10430,7 +10455,7 @@
         <v>40</v>
       </c>
       <c r="Q87" t="s">
-        <v>301</v>
+        <v>308</v>
       </c>
       <c r="R87" t="n">
         <v>0.3</v>
@@ -10439,7 +10464,7 @@
         <v>50</v>
       </c>
       <c r="T87" t="s">
-        <v>302</v>
+        <v>309</v>
       </c>
       <c r="U87" t="n">
         <v>0.3</v>
@@ -10448,7 +10473,7 @@
         <v>50</v>
       </c>
       <c r="W87" t="s">
-        <v>302</v>
+        <v>309</v>
       </c>
       <c r="X87" t="n">
         <v>0.3</v>
@@ -10457,7 +10482,7 @@
         <v>50</v>
       </c>
       <c r="Z87" t="s">
-        <v>302</v>
+        <v>309</v>
       </c>
       <c r="AA87" t="n">
         <v>0.3</v>
@@ -10466,7 +10491,7 @@
         <v>50</v>
       </c>
       <c r="AC87" t="s">
-        <v>302</v>
+        <v>309</v>
       </c>
       <c r="AD87" t="n">
         <v>0.3</v>
@@ -10475,15 +10500,15 @@
         <v>50</v>
       </c>
       <c r="AF87" t="s">
-        <v>302</v>
+        <v>309</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>303</v>
+        <v>310</v>
       </c>
       <c r="B88" t="s">
-        <v>304</v>
+        <v>311</v>
       </c>
       <c r="C88" t="n">
         <v>0.3</v>
@@ -10492,7 +10517,7 @@
         <v>65</v>
       </c>
       <c r="E88" t="s">
-        <v>248</v>
+        <v>255</v>
       </c>
       <c r="F88" t="n">
         <v>0.3</v>
@@ -10501,7 +10526,7 @@
         <v>65</v>
       </c>
       <c r="H88" t="s">
-        <v>248</v>
+        <v>255</v>
       </c>
       <c r="I88" t="n">
         <v>0.3</v>
@@ -10510,7 +10535,7 @@
         <v>65</v>
       </c>
       <c r="K88" t="s">
-        <v>248</v>
+        <v>255</v>
       </c>
       <c r="L88" t="n">
         <v>0.3</v>
@@ -10537,7 +10562,7 @@
         <v>40</v>
       </c>
       <c r="T88" t="s">
-        <v>301</v>
+        <v>308</v>
       </c>
       <c r="U88" t="n">
         <v>0.2</v>
@@ -10546,7 +10571,7 @@
         <v>40</v>
       </c>
       <c r="W88" t="s">
-        <v>301</v>
+        <v>308</v>
       </c>
       <c r="X88" t="n">
         <v>0.3</v>
@@ -10578,10 +10603,10 @@
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>305</v>
+        <v>312</v>
       </c>
       <c r="B89" t="s">
-        <v>306</v>
+        <v>313</v>
       </c>
       <c r="C89" t="n">
         <v>0.2</v>
@@ -10676,10 +10701,10 @@
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
       <c r="B90" t="s">
-        <v>308</v>
+        <v>315</v>
       </c>
       <c r="C90" t="n">
         <v>0.2</v>
@@ -10751,7 +10776,7 @@
         <v>65</v>
       </c>
       <c r="Z90" t="s">
-        <v>248</v>
+        <v>255</v>
       </c>
       <c r="AA90" t="n">
         <v>0.3</v>
@@ -10760,7 +10785,7 @@
         <v>65</v>
       </c>
       <c r="AC90" t="s">
-        <v>248</v>
+        <v>255</v>
       </c>
       <c r="AD90" t="n">
         <v>0.3</v>
@@ -10769,15 +10794,15 @@
         <v>65</v>
       </c>
       <c r="AF90" t="s">
-        <v>248</v>
+        <v>255</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>309</v>
+        <v>316</v>
       </c>
       <c r="B91" t="s">
-        <v>310</v>
+        <v>317</v>
       </c>
       <c r="C91" t="n">
         <v>0.3</v>
@@ -10872,10 +10897,10 @@
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>311</v>
+        <v>318</v>
       </c>
       <c r="B92" t="s">
-        <v>312</v>
+        <v>319</v>
       </c>
       <c r="C92" t="n">
         <v>0.2</v>
@@ -10929,7 +10954,7 @@
         <v>50</v>
       </c>
       <c r="T92" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="U92" t="n">
         <v>0.1</v>
@@ -10938,7 +10963,7 @@
         <v>50</v>
       </c>
       <c r="W92" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="X92" t="n">
         <v>0.2</v>
@@ -10970,10 +10995,10 @@
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>313</v>
+        <v>320</v>
       </c>
       <c r="B93" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="C93" t="n">
         <v>0.3</v>
@@ -11027,7 +11052,7 @@
         <v>45</v>
       </c>
       <c r="T93" t="s">
-        <v>315</v>
+        <v>322</v>
       </c>
       <c r="U93" t="n">
         <v>0.3</v>
@@ -11036,7 +11061,7 @@
         <v>45</v>
       </c>
       <c r="W93" t="s">
-        <v>315</v>
+        <v>322</v>
       </c>
       <c r="X93" t="n">
         <v>0.3</v>
@@ -11068,10 +11093,10 @@
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>316</v>
+        <v>323</v>
       </c>
       <c r="B94" t="s">
-        <v>317</v>
+        <v>324</v>
       </c>
       <c r="C94" t="n">
         <v>0.2</v>
@@ -11080,7 +11105,7 @@
         <v>60</v>
       </c>
       <c r="E94" t="s">
-        <v>318</v>
+        <v>325</v>
       </c>
       <c r="F94" t="n">
         <v>0.2</v>
@@ -11143,7 +11168,7 @@
         <v>65</v>
       </c>
       <c r="Z94" t="s">
-        <v>248</v>
+        <v>255</v>
       </c>
       <c r="AA94" t="n">
         <v>0.3</v>
@@ -11152,7 +11177,7 @@
         <v>65</v>
       </c>
       <c r="AC94" t="s">
-        <v>248</v>
+        <v>255</v>
       </c>
       <c r="AD94" t="n">
         <v>0.3</v>
@@ -11161,15 +11186,15 @@
         <v>65</v>
       </c>
       <c r="AF94" t="s">
-        <v>248</v>
+        <v>255</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>319</v>
+        <v>326</v>
       </c>
       <c r="B95" t="s">
-        <v>320</v>
+        <v>327</v>
       </c>
       <c r="C95" t="n">
         <v>0.1</v>
@@ -11178,7 +11203,7 @@
         <v>65</v>
       </c>
       <c r="E95" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="F95" t="n">
         <v>0.1</v>
@@ -11187,7 +11212,7 @@
         <v>65</v>
       </c>
       <c r="H95" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="I95" t="n">
         <v>0.1</v>
@@ -11196,7 +11221,7 @@
         <v>65</v>
       </c>
       <c r="K95" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="L95" t="n">
         <v>0.1</v>
@@ -11205,7 +11230,7 @@
         <v>60</v>
       </c>
       <c r="N95" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="O95" t="n">
         <v>0.1</v>
@@ -11214,7 +11239,7 @@
         <v>60</v>
       </c>
       <c r="Q95" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="R95" t="n">
         <v>0.1</v>
@@ -11223,7 +11248,7 @@
         <v>55</v>
       </c>
       <c r="T95" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="U95" t="n">
         <v>0.1</v>
@@ -11232,7 +11257,7 @@
         <v>55</v>
       </c>
       <c r="W95" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="X95" t="n">
         <v>0.1</v>
@@ -11241,7 +11266,7 @@
         <v>55</v>
       </c>
       <c r="Z95" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="AA95" t="n">
         <v>0.1</v>
@@ -11250,7 +11275,7 @@
         <v>55</v>
       </c>
       <c r="AC95" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="AD95" t="n">
         <v>0.1</v>
@@ -11259,15 +11284,15 @@
         <v>55</v>
       </c>
       <c r="AF95" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>321</v>
+        <v>328</v>
       </c>
       <c r="B96" t="s">
-        <v>322</v>
+        <v>329</v>
       </c>
       <c r="C96" t="n">
         <v>0.1</v>
@@ -11303,7 +11328,7 @@
         <v>60</v>
       </c>
       <c r="N96" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="O96" t="n">
         <v>0.1</v>
@@ -11312,7 +11337,7 @@
         <v>60</v>
       </c>
       <c r="Q96" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="R96" t="n">
         <v>0.1</v>
@@ -11321,7 +11346,7 @@
         <v>65</v>
       </c>
       <c r="T96" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="U96" t="n">
         <v>0.1</v>
@@ -11330,7 +11355,7 @@
         <v>65</v>
       </c>
       <c r="W96" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="X96" t="n">
         <v>0.1</v>
@@ -11339,7 +11364,7 @@
         <v>60</v>
       </c>
       <c r="Z96" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="AA96" t="n">
         <v>0.1</v>
@@ -11348,7 +11373,7 @@
         <v>60</v>
       </c>
       <c r="AC96" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="AD96" t="n">
         <v>0.1</v>
@@ -11357,15 +11382,15 @@
         <v>60</v>
       </c>
       <c r="AF96" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>323</v>
+        <v>330</v>
       </c>
       <c r="B97" t="s">
-        <v>324</v>
+        <v>331</v>
       </c>
       <c r="C97" t="n">
         <v>0.1</v>
@@ -11374,7 +11399,7 @@
         <v>75</v>
       </c>
       <c r="E97" t="s">
-        <v>325</v>
+        <v>180</v>
       </c>
       <c r="F97" t="n">
         <v>0.1</v>
@@ -11383,7 +11408,7 @@
         <v>75</v>
       </c>
       <c r="H97" t="s">
-        <v>325</v>
+        <v>180</v>
       </c>
       <c r="I97" t="n">
         <v>0.1</v>
@@ -11392,7 +11417,7 @@
         <v>75</v>
       </c>
       <c r="K97" t="s">
-        <v>325</v>
+        <v>180</v>
       </c>
       <c r="L97" t="n">
         <v>0.1</v>
@@ -11401,7 +11426,7 @@
         <v>75</v>
       </c>
       <c r="N97" t="s">
-        <v>325</v>
+        <v>180</v>
       </c>
       <c r="O97" t="n">
         <v>0.1</v>
@@ -11410,7 +11435,7 @@
         <v>75</v>
       </c>
       <c r="Q97" t="s">
-        <v>325</v>
+        <v>180</v>
       </c>
       <c r="R97" t="n">
         <v>0.1</v>
@@ -11437,7 +11462,7 @@
         <v>75</v>
       </c>
       <c r="Z97" t="s">
-        <v>325</v>
+        <v>180</v>
       </c>
       <c r="AA97" t="n">
         <v>0.1</v>
@@ -11446,7 +11471,7 @@
         <v>75</v>
       </c>
       <c r="AC97" t="s">
-        <v>325</v>
+        <v>180</v>
       </c>
       <c r="AD97" t="n">
         <v>0.1</v>
@@ -11455,15 +11480,15 @@
         <v>75</v>
       </c>
       <c r="AF97" t="s">
-        <v>325</v>
+        <v>180</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
       <c r="B98" t="s">
-        <v>327</v>
+        <v>333</v>
       </c>
       <c r="C98" t="n">
         <v>0.1</v>
@@ -11472,7 +11497,7 @@
         <v>75</v>
       </c>
       <c r="E98" t="s">
-        <v>325</v>
+        <v>180</v>
       </c>
       <c r="F98" t="n">
         <v>0.1</v>
@@ -11481,7 +11506,7 @@
         <v>75</v>
       </c>
       <c r="H98" t="s">
-        <v>325</v>
+        <v>180</v>
       </c>
       <c r="I98" t="n">
         <v>0.1</v>
@@ -11490,7 +11515,7 @@
         <v>75</v>
       </c>
       <c r="K98" t="s">
-        <v>325</v>
+        <v>180</v>
       </c>
       <c r="L98" t="n">
         <v>0.1</v>
@@ -11499,7 +11524,7 @@
         <v>60</v>
       </c>
       <c r="N98" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="O98" t="n">
         <v>0.1</v>
@@ -11508,7 +11533,7 @@
         <v>60</v>
       </c>
       <c r="Q98" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="R98" t="n">
         <v>0.2</v>
@@ -11558,10 +11583,10 @@
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>328</v>
+        <v>334</v>
       </c>
       <c r="B99" t="s">
-        <v>329</v>
+        <v>335</v>
       </c>
       <c r="C99" t="n">
         <v>0.1</v>
@@ -11615,7 +11640,7 @@
         <v>75</v>
       </c>
       <c r="T99" t="s">
-        <v>325</v>
+        <v>180</v>
       </c>
       <c r="U99" t="n">
         <v>0.1</v>
@@ -11624,7 +11649,7 @@
         <v>75</v>
       </c>
       <c r="W99" t="s">
-        <v>325</v>
+        <v>180</v>
       </c>
       <c r="X99" t="n">
         <v>0.1</v>
@@ -11656,10 +11681,10 @@
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>330</v>
+        <v>336</v>
       </c>
       <c r="B100" t="s">
-        <v>331</v>
+        <v>337</v>
       </c>
       <c r="C100" t="n">
         <v>0.2</v>
@@ -11713,7 +11738,7 @@
         <v>85</v>
       </c>
       <c r="T100" t="s">
-        <v>332</v>
+        <v>338</v>
       </c>
       <c r="U100" t="n">
         <v>0.1</v>
@@ -11722,7 +11747,7 @@
         <v>85</v>
       </c>
       <c r="W100" t="s">
-        <v>332</v>
+        <v>338</v>
       </c>
       <c r="X100" t="n">
         <v>0.2</v>
@@ -11754,10 +11779,10 @@
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>333</v>
+        <v>339</v>
       </c>
       <c r="B101" t="s">
-        <v>334</v>
+        <v>340</v>
       </c>
       <c r="C101" t="n">
         <v>0.1</v>
@@ -11766,7 +11791,7 @@
         <v>75</v>
       </c>
       <c r="E101" t="s">
-        <v>325</v>
+        <v>180</v>
       </c>
       <c r="F101" t="n">
         <v>0.1</v>
@@ -11775,7 +11800,7 @@
         <v>75</v>
       </c>
       <c r="H101" t="s">
-        <v>325</v>
+        <v>180</v>
       </c>
       <c r="I101" t="n">
         <v>0.1</v>
@@ -11784,7 +11809,7 @@
         <v>75</v>
       </c>
       <c r="K101" t="s">
-        <v>325</v>
+        <v>180</v>
       </c>
       <c r="L101" t="n">
         <v>0.1</v>
@@ -11793,7 +11818,7 @@
         <v>65</v>
       </c>
       <c r="N101" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="O101" t="n">
         <v>0.1</v>
@@ -11802,7 +11827,7 @@
         <v>65</v>
       </c>
       <c r="Q101" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="R101" t="n">
         <v>0.1</v>
@@ -11811,7 +11836,7 @@
         <v>65</v>
       </c>
       <c r="T101" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="U101" t="n">
         <v>0.1</v>
@@ -11820,7 +11845,7 @@
         <v>65</v>
       </c>
       <c r="W101" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="X101" t="n">
         <v>0.1</v>
@@ -11829,7 +11854,7 @@
         <v>55</v>
       </c>
       <c r="Z101" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="AA101" t="n">
         <v>0.1</v>
@@ -11838,7 +11863,7 @@
         <v>55</v>
       </c>
       <c r="AC101" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="AD101" t="n">
         <v>0.1</v>
@@ -11847,15 +11872,15 @@
         <v>55</v>
       </c>
       <c r="AF101" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
       <c r="B102" t="s">
-        <v>336</v>
+        <v>342</v>
       </c>
       <c r="C102" t="n">
         <v>0.2</v>
@@ -11891,7 +11916,7 @@
         <v>75</v>
       </c>
       <c r="N102" t="s">
-        <v>325</v>
+        <v>180</v>
       </c>
       <c r="O102" t="n">
         <v>0.1</v>
@@ -11900,7 +11925,7 @@
         <v>75</v>
       </c>
       <c r="Q102" t="s">
-        <v>325</v>
+        <v>180</v>
       </c>
       <c r="R102" t="n">
         <v>0.1</v>
@@ -11927,7 +11952,7 @@
         <v>75</v>
       </c>
       <c r="Z102" t="s">
-        <v>325</v>
+        <v>180</v>
       </c>
       <c r="AA102" t="n">
         <v>0.1</v>
@@ -11936,7 +11961,7 @@
         <v>75</v>
       </c>
       <c r="AC102" t="s">
-        <v>325</v>
+        <v>180</v>
       </c>
       <c r="AD102" t="n">
         <v>0.1</v>
@@ -11945,15 +11970,15 @@
         <v>75</v>
       </c>
       <c r="AF102" t="s">
-        <v>325</v>
+        <v>180</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>337</v>
+        <v>343</v>
       </c>
       <c r="B103" t="s">
-        <v>338</v>
+        <v>344</v>
       </c>
       <c r="C103" t="n">
         <v>0.2</v>
@@ -12048,10 +12073,10 @@
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>339</v>
+        <v>345</v>
       </c>
       <c r="B104" t="s">
-        <v>340</v>
+        <v>346</v>
       </c>
       <c r="C104" t="n">
         <v>0.1</v>
@@ -12060,7 +12085,7 @@
         <v>40</v>
       </c>
       <c r="E104" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="F104" t="n">
         <v>0.1</v>
@@ -12069,7 +12094,7 @@
         <v>40</v>
       </c>
       <c r="H104" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="I104" t="n">
         <v>0.1</v>
@@ -12078,7 +12103,7 @@
         <v>40</v>
       </c>
       <c r="K104" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="L104" t="n">
         <v>0.1</v>
@@ -12087,7 +12112,7 @@
         <v>50</v>
       </c>
       <c r="N104" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="O104" t="n">
         <v>0.1</v>
@@ -12096,7 +12121,7 @@
         <v>50</v>
       </c>
       <c r="Q104" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="R104" t="n">
         <v>0.1</v>
@@ -12105,7 +12130,7 @@
         <v>40</v>
       </c>
       <c r="T104" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="U104" t="n">
         <v>0.1</v>
@@ -12114,7 +12139,7 @@
         <v>40</v>
       </c>
       <c r="W104" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="X104" t="n">
         <v>0.1</v>
@@ -12123,7 +12148,7 @@
         <v>40</v>
       </c>
       <c r="Z104" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="AA104" t="n">
         <v>0.1</v>
@@ -12132,7 +12157,7 @@
         <v>40</v>
       </c>
       <c r="AC104" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="AD104" t="n">
         <v>0.1</v>
@@ -12141,15 +12166,15 @@
         <v>40</v>
       </c>
       <c r="AF104" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>341</v>
+        <v>347</v>
       </c>
       <c r="B105" t="s">
-        <v>342</v>
+        <v>348</v>
       </c>
       <c r="C105" t="n">
         <v>0.1</v>
@@ -12158,7 +12183,7 @@
         <v>75</v>
       </c>
       <c r="E105" t="s">
-        <v>325</v>
+        <v>180</v>
       </c>
       <c r="F105" t="n">
         <v>0.1</v>
@@ -12167,7 +12192,7 @@
         <v>75</v>
       </c>
       <c r="H105" t="s">
-        <v>325</v>
+        <v>180</v>
       </c>
       <c r="I105" t="n">
         <v>0.1</v>
@@ -12176,7 +12201,7 @@
         <v>75</v>
       </c>
       <c r="K105" t="s">
-        <v>325</v>
+        <v>180</v>
       </c>
       <c r="L105" t="n">
         <v>0.1</v>
@@ -12185,7 +12210,7 @@
         <v>65</v>
       </c>
       <c r="N105" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="O105" t="n">
         <v>0.1</v>
@@ -12194,7 +12219,7 @@
         <v>65</v>
       </c>
       <c r="Q105" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="R105" t="n">
         <v>0.1</v>
@@ -12203,7 +12228,7 @@
         <v>75</v>
       </c>
       <c r="T105" t="s">
-        <v>325</v>
+        <v>180</v>
       </c>
       <c r="U105" t="n">
         <v>0.1</v>
@@ -12212,7 +12237,7 @@
         <v>75</v>
       </c>
       <c r="W105" t="s">
-        <v>325</v>
+        <v>180</v>
       </c>
       <c r="X105" t="n">
         <v>0.1</v>
@@ -12221,7 +12246,7 @@
         <v>65</v>
       </c>
       <c r="Z105" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="AA105" t="n">
         <v>0.1</v>
@@ -12230,7 +12255,7 @@
         <v>65</v>
       </c>
       <c r="AC105" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="AD105" t="n">
         <v>0.1</v>
@@ -12239,15 +12264,15 @@
         <v>65</v>
       </c>
       <c r="AF105" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>343</v>
+        <v>349</v>
       </c>
       <c r="B106" t="s">
-        <v>344</v>
+        <v>350</v>
       </c>
       <c r="C106" t="n">
         <v>0.1</v>
@@ -12256,7 +12281,7 @@
         <v>80</v>
       </c>
       <c r="E106" t="s">
-        <v>345</v>
+        <v>351</v>
       </c>
       <c r="F106" t="n">
         <v>0.1</v>
@@ -12265,7 +12290,7 @@
         <v>80</v>
       </c>
       <c r="H106" t="s">
-        <v>345</v>
+        <v>351</v>
       </c>
       <c r="I106" t="n">
         <v>0.1</v>
@@ -12274,7 +12299,7 @@
         <v>80</v>
       </c>
       <c r="K106" t="s">
-        <v>345</v>
+        <v>351</v>
       </c>
       <c r="L106" t="n">
         <v>0.1</v>
@@ -12283,7 +12308,7 @@
         <v>75</v>
       </c>
       <c r="N106" t="s">
-        <v>325</v>
+        <v>180</v>
       </c>
       <c r="O106" t="n">
         <v>0.1</v>
@@ -12292,7 +12317,7 @@
         <v>75</v>
       </c>
       <c r="Q106" t="s">
-        <v>325</v>
+        <v>180</v>
       </c>
       <c r="R106" t="n">
         <v>0.1</v>
@@ -12319,7 +12344,7 @@
         <v>75</v>
       </c>
       <c r="Z106" t="s">
-        <v>325</v>
+        <v>180</v>
       </c>
       <c r="AA106" t="n">
         <v>0.1</v>
@@ -12328,7 +12353,7 @@
         <v>75</v>
       </c>
       <c r="AC106" t="s">
-        <v>325</v>
+        <v>180</v>
       </c>
       <c r="AD106" t="n">
         <v>0.1</v>
@@ -12337,15 +12362,15 @@
         <v>75</v>
       </c>
       <c r="AF106" t="s">
-        <v>325</v>
+        <v>180</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>346</v>
+        <v>352</v>
       </c>
       <c r="B107" t="s">
-        <v>347</v>
+        <v>353</v>
       </c>
       <c r="C107" t="n">
         <v>0.1</v>
@@ -12354,7 +12379,7 @@
         <v>65</v>
       </c>
       <c r="E107" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="F107" t="n">
         <v>0.1</v>
@@ -12363,7 +12388,7 @@
         <v>65</v>
       </c>
       <c r="H107" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="I107" t="n">
         <v>0.1</v>
@@ -12372,7 +12397,7 @@
         <v>65</v>
       </c>
       <c r="K107" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="L107" t="n">
         <v>0.1</v>
@@ -12381,7 +12406,7 @@
         <v>65</v>
       </c>
       <c r="N107" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="O107" t="n">
         <v>0.1</v>
@@ -12390,7 +12415,7 @@
         <v>65</v>
       </c>
       <c r="Q107" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="R107" t="n">
         <v>0.1</v>
@@ -12399,7 +12424,7 @@
         <v>65</v>
       </c>
       <c r="T107" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="U107" t="n">
         <v>0.1</v>
@@ -12408,7 +12433,7 @@
         <v>65</v>
       </c>
       <c r="W107" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="X107" t="n">
         <v>0</v>
@@ -12417,7 +12442,7 @@
         <v>65</v>
       </c>
       <c r="Z107" t="s">
-        <v>348</v>
+        <v>354</v>
       </c>
       <c r="AA107" t="n">
         <v>0</v>
@@ -12426,7 +12451,7 @@
         <v>65</v>
       </c>
       <c r="AC107" t="s">
-        <v>348</v>
+        <v>354</v>
       </c>
       <c r="AD107" t="n">
         <v>0</v>
@@ -12435,15 +12460,15 @@
         <v>65</v>
       </c>
       <c r="AF107" t="s">
-        <v>348</v>
+        <v>354</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="s">
-        <v>349</v>
+        <v>355</v>
       </c>
       <c r="B108" t="s">
-        <v>350</v>
+        <v>356</v>
       </c>
       <c r="C108" t="n">
         <v>0</v>
@@ -12452,7 +12477,7 @@
         <v>70</v>
       </c>
       <c r="E108" t="s">
-        <v>351</v>
+        <v>357</v>
       </c>
       <c r="F108" t="n">
         <v>0</v>
@@ -12461,7 +12486,7 @@
         <v>70</v>
       </c>
       <c r="H108" t="s">
-        <v>351</v>
+        <v>357</v>
       </c>
       <c r="I108" t="n">
         <v>0</v>
@@ -12470,7 +12495,7 @@
         <v>70</v>
       </c>
       <c r="K108" t="s">
-        <v>351</v>
+        <v>357</v>
       </c>
       <c r="L108" t="n">
         <v>0</v>
@@ -12479,7 +12504,7 @@
         <v>70</v>
       </c>
       <c r="N108" t="s">
-        <v>351</v>
+        <v>357</v>
       </c>
       <c r="O108" t="n">
         <v>0</v>
@@ -12488,7 +12513,7 @@
         <v>70</v>
       </c>
       <c r="Q108" t="s">
-        <v>351</v>
+        <v>357</v>
       </c>
       <c r="R108" t="n">
         <v>0</v>
@@ -12497,7 +12522,7 @@
         <v>60</v>
       </c>
       <c r="T108" t="s">
-        <v>352</v>
+        <v>358</v>
       </c>
       <c r="U108" t="n">
         <v>0</v>
@@ -12506,7 +12531,7 @@
         <v>60</v>
       </c>
       <c r="W108" t="s">
-        <v>352</v>
+        <v>358</v>
       </c>
       <c r="X108" t="n">
         <v>0</v>
@@ -12515,7 +12540,7 @@
         <v>80</v>
       </c>
       <c r="Z108" t="s">
-        <v>353</v>
+        <v>359</v>
       </c>
       <c r="AA108" t="n">
         <v>0</v>
@@ -12524,7 +12549,7 @@
         <v>80</v>
       </c>
       <c r="AC108" t="s">
-        <v>353</v>
+        <v>359</v>
       </c>
       <c r="AD108" t="n">
         <v>0</v>
@@ -12533,15 +12558,15 @@
         <v>80</v>
       </c>
       <c r="AF108" t="s">
-        <v>353</v>
+        <v>359</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="s">
-        <v>354</v>
+        <v>360</v>
       </c>
       <c r="B109" t="s">
-        <v>355</v>
+        <v>361</v>
       </c>
       <c r="C109" t="n">
         <v>0.1</v>
@@ -12550,7 +12575,7 @@
         <v>80</v>
       </c>
       <c r="E109" t="s">
-        <v>345</v>
+        <v>351</v>
       </c>
       <c r="F109" t="n">
         <v>0.1</v>
@@ -12559,7 +12584,7 @@
         <v>80</v>
       </c>
       <c r="H109" t="s">
-        <v>345</v>
+        <v>351</v>
       </c>
       <c r="I109" t="n">
         <v>0.1</v>
@@ -12568,7 +12593,7 @@
         <v>80</v>
       </c>
       <c r="K109" t="s">
-        <v>345</v>
+        <v>351</v>
       </c>
       <c r="L109" t="n">
         <v>0.2</v>
@@ -12613,7 +12638,7 @@
         <v>85</v>
       </c>
       <c r="Z109" t="s">
-        <v>332</v>
+        <v>338</v>
       </c>
       <c r="AA109" t="n">
         <v>0.1</v>
@@ -12622,7 +12647,7 @@
         <v>85</v>
       </c>
       <c r="AC109" t="s">
-        <v>332</v>
+        <v>338</v>
       </c>
       <c r="AD109" t="n">
         <v>0.1</v>
@@ -12631,15 +12656,15 @@
         <v>85</v>
       </c>
       <c r="AF109" t="s">
-        <v>332</v>
+        <v>338</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="s">
-        <v>356</v>
+        <v>362</v>
       </c>
       <c r="B110" t="s">
-        <v>357</v>
+        <v>363</v>
       </c>
       <c r="C110" t="n">
         <v>0.1</v>
@@ -12648,7 +12673,7 @@
         <v>60</v>
       </c>
       <c r="E110" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="F110" t="n">
         <v>0.1</v>
@@ -12657,7 +12682,7 @@
         <v>60</v>
       </c>
       <c r="H110" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="I110" t="n">
         <v>0.1</v>
@@ -12666,7 +12691,7 @@
         <v>60</v>
       </c>
       <c r="K110" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="L110" t="n">
         <v>0.1</v>
@@ -12675,7 +12700,7 @@
         <v>65</v>
       </c>
       <c r="N110" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="O110" t="n">
         <v>0.1</v>
@@ -12684,7 +12709,7 @@
         <v>65</v>
       </c>
       <c r="Q110" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="R110" t="n">
         <v>0.1</v>
@@ -12693,7 +12718,7 @@
         <v>60</v>
       </c>
       <c r="T110" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="U110" t="n">
         <v>0.1</v>
@@ -12702,7 +12727,7 @@
         <v>60</v>
       </c>
       <c r="W110" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="X110" t="n">
         <v>0.1</v>
@@ -12711,7 +12736,7 @@
         <v>65</v>
       </c>
       <c r="Z110" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="AA110" t="n">
         <v>0.1</v>
@@ -12720,7 +12745,7 @@
         <v>65</v>
       </c>
       <c r="AC110" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="AD110" t="n">
         <v>0.1</v>
@@ -12729,15 +12754,15 @@
         <v>65</v>
       </c>
       <c r="AF110" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="s">
-        <v>358</v>
+        <v>364</v>
       </c>
       <c r="B111" t="s">
-        <v>359</v>
+        <v>365</v>
       </c>
       <c r="C111" t="n">
         <v>0.2</v>
@@ -12832,10 +12857,10 @@
     </row>
     <row r="112">
       <c r="A112" t="s">
-        <v>360</v>
+        <v>366</v>
       </c>
       <c r="B112" t="s">
-        <v>361</v>
+        <v>367</v>
       </c>
       <c r="C112" t="n">
         <v>0.2</v>
@@ -12930,10 +12955,10 @@
     </row>
     <row r="113">
       <c r="A113" t="s">
-        <v>362</v>
+        <v>368</v>
       </c>
       <c r="B113" t="s">
-        <v>363</v>
+        <v>369</v>
       </c>
       <c r="C113" t="n">
         <v>0.1</v>
@@ -12942,7 +12967,7 @@
         <v>60</v>
       </c>
       <c r="E113" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="F113" t="n">
         <v>0.1</v>
@@ -12951,7 +12976,7 @@
         <v>60</v>
       </c>
       <c r="H113" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="I113" t="n">
         <v>0.1</v>
@@ -12960,7 +12985,7 @@
         <v>60</v>
       </c>
       <c r="K113" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="L113" t="n">
         <v>0.1</v>
@@ -12969,7 +12994,7 @@
         <v>65</v>
       </c>
       <c r="N113" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="O113" t="n">
         <v>0.1</v>
@@ -12978,7 +13003,7 @@
         <v>65</v>
       </c>
       <c r="Q113" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="R113" t="n">
         <v>0.1</v>
@@ -12987,7 +13012,7 @@
         <v>65</v>
       </c>
       <c r="T113" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="U113" t="n">
         <v>0.1</v>
@@ -12996,7 +13021,7 @@
         <v>65</v>
       </c>
       <c r="W113" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="X113" t="n">
         <v>0.1</v>
@@ -13005,7 +13030,7 @@
         <v>60</v>
       </c>
       <c r="Z113" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="AA113" t="n">
         <v>0.1</v>
@@ -13014,7 +13039,7 @@
         <v>60</v>
       </c>
       <c r="AC113" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="AD113" t="n">
         <v>0.1</v>
@@ -13023,15 +13048,15 @@
         <v>60</v>
       </c>
       <c r="AF113" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="s">
-        <v>364</v>
+        <v>370</v>
       </c>
       <c r="B114" t="s">
-        <v>365</v>
+        <v>371</v>
       </c>
       <c r="C114" t="n">
         <v>0.2</v>
@@ -13067,7 +13092,7 @@
         <v>65</v>
       </c>
       <c r="N114" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="O114" t="n">
         <v>0.1</v>
@@ -13076,7 +13101,7 @@
         <v>65</v>
       </c>
       <c r="Q114" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="R114" t="n">
         <v>0.1</v>
@@ -13085,7 +13110,7 @@
         <v>65</v>
       </c>
       <c r="T114" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="U114" t="n">
         <v>0.1</v>
@@ -13094,7 +13119,7 @@
         <v>65</v>
       </c>
       <c r="W114" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="X114" t="n">
         <v>0.1</v>
@@ -13103,7 +13128,7 @@
         <v>75</v>
       </c>
       <c r="Z114" t="s">
-        <v>325</v>
+        <v>180</v>
       </c>
       <c r="AA114" t="n">
         <v>0.1</v>
@@ -13112,7 +13137,7 @@
         <v>75</v>
       </c>
       <c r="AC114" t="s">
-        <v>325</v>
+        <v>180</v>
       </c>
       <c r="AD114" t="n">
         <v>0.1</v>
@@ -13121,15 +13146,15 @@
         <v>75</v>
       </c>
       <c r="AF114" t="s">
-        <v>325</v>
+        <v>180</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="s">
-        <v>366</v>
+        <v>372</v>
       </c>
       <c r="B115" t="s">
-        <v>367</v>
+        <v>373</v>
       </c>
       <c r="C115" t="n">
         <v>0.1</v>
@@ -13138,7 +13163,7 @@
         <v>50</v>
       </c>
       <c r="E115" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="F115" t="n">
         <v>0.1</v>
@@ -13147,7 +13172,7 @@
         <v>50</v>
       </c>
       <c r="H115" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="I115" t="n">
         <v>0.1</v>
@@ -13156,7 +13181,7 @@
         <v>50</v>
       </c>
       <c r="K115" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="L115" t="n">
         <v>0.1</v>
@@ -13165,7 +13190,7 @@
         <v>65</v>
       </c>
       <c r="N115" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="O115" t="n">
         <v>0.1</v>
@@ -13174,7 +13199,7 @@
         <v>65</v>
       </c>
       <c r="Q115" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="R115" t="n">
         <v>0.1</v>
@@ -13183,7 +13208,7 @@
         <v>45</v>
       </c>
       <c r="T115" t="s">
-        <v>368</v>
+        <v>374</v>
       </c>
       <c r="U115" t="n">
         <v>0.1</v>
@@ -13192,7 +13217,7 @@
         <v>45</v>
       </c>
       <c r="W115" t="s">
-        <v>368</v>
+        <v>374</v>
       </c>
       <c r="X115" t="n">
         <v>0.1</v>
@@ -13224,10 +13249,10 @@
     </row>
     <row r="116">
       <c r="A116" t="s">
-        <v>369</v>
+        <v>375</v>
       </c>
       <c r="B116" t="s">
-        <v>370</v>
+        <v>376</v>
       </c>
       <c r="C116" t="n">
         <v>0.1</v>
@@ -13236,7 +13261,7 @@
         <v>60</v>
       </c>
       <c r="E116" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="F116" t="n">
         <v>0.1</v>
@@ -13245,7 +13270,7 @@
         <v>60</v>
       </c>
       <c r="H116" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="I116" t="n">
         <v>0.1</v>
@@ -13254,7 +13279,7 @@
         <v>60</v>
       </c>
       <c r="K116" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="L116" t="n">
         <v>0.2</v>
@@ -13322,10 +13347,10 @@
     </row>
     <row r="117">
       <c r="A117" t="s">
-        <v>371</v>
+        <v>377</v>
       </c>
       <c r="B117" t="s">
-        <v>372</v>
+        <v>378</v>
       </c>
       <c r="C117" t="n">
         <v>0.1</v>
@@ -13334,7 +13359,7 @@
         <v>85</v>
       </c>
       <c r="E117" t="s">
-        <v>332</v>
+        <v>338</v>
       </c>
       <c r="F117" t="n">
         <v>0.1</v>
@@ -13343,7 +13368,7 @@
         <v>85</v>
       </c>
       <c r="H117" t="s">
-        <v>332</v>
+        <v>338</v>
       </c>
       <c r="I117" t="n">
         <v>0.1</v>
@@ -13352,7 +13377,7 @@
         <v>85</v>
       </c>
       <c r="K117" t="s">
-        <v>332</v>
+        <v>338</v>
       </c>
       <c r="L117" t="n">
         <v>0.2</v>
@@ -13420,10 +13445,10 @@
     </row>
     <row r="118">
       <c r="A118" t="s">
-        <v>373</v>
+        <v>379</v>
       </c>
       <c r="B118" t="s">
-        <v>374</v>
+        <v>380</v>
       </c>
       <c r="C118" t="n">
         <v>0.2</v>
@@ -13459,7 +13484,7 @@
         <v>65</v>
       </c>
       <c r="N118" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="O118" t="n">
         <v>0.1</v>
@@ -13468,7 +13493,7 @@
         <v>65</v>
       </c>
       <c r="Q118" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="R118" t="n">
         <v>0.1</v>
@@ -13477,7 +13502,7 @@
         <v>75</v>
       </c>
       <c r="T118" t="s">
-        <v>325</v>
+        <v>180</v>
       </c>
       <c r="U118" t="n">
         <v>0.1</v>
@@ -13486,7 +13511,7 @@
         <v>75</v>
       </c>
       <c r="W118" t="s">
-        <v>325</v>
+        <v>180</v>
       </c>
       <c r="X118" t="n">
         <v>0.1</v>
@@ -13495,7 +13520,7 @@
         <v>65</v>
       </c>
       <c r="Z118" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="AA118" t="n">
         <v>0.1</v>
@@ -13504,7 +13529,7 @@
         <v>65</v>
       </c>
       <c r="AC118" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="AD118" t="n">
         <v>0.1</v>
@@ -13513,15 +13538,15 @@
         <v>65</v>
       </c>
       <c r="AF118" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="s">
-        <v>375</v>
+        <v>381</v>
       </c>
       <c r="B119" t="s">
-        <v>376</v>
+        <v>382</v>
       </c>
       <c r="C119" t="n">
         <v>0.1</v>
@@ -13530,7 +13555,7 @@
         <v>60</v>
       </c>
       <c r="E119" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="F119" t="n">
         <v>0.1</v>
@@ -13539,7 +13564,7 @@
         <v>60</v>
       </c>
       <c r="H119" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="I119" t="n">
         <v>0.1</v>
@@ -13548,7 +13573,7 @@
         <v>60</v>
       </c>
       <c r="K119" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="L119" t="n">
         <v>0.1</v>
@@ -13557,7 +13582,7 @@
         <v>65</v>
       </c>
       <c r="N119" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="O119" t="n">
         <v>0.1</v>
@@ -13566,7 +13591,7 @@
         <v>65</v>
       </c>
       <c r="Q119" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="R119" t="n">
         <v>0.1</v>
@@ -13575,7 +13600,7 @@
         <v>60</v>
       </c>
       <c r="T119" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="U119" t="n">
         <v>0.1</v>
@@ -13584,7 +13609,7 @@
         <v>60</v>
       </c>
       <c r="W119" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="X119" t="n">
         <v>0.1</v>
@@ -13593,7 +13618,7 @@
         <v>60</v>
       </c>
       <c r="Z119" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="AA119" t="n">
         <v>0.1</v>
@@ -13602,7 +13627,7 @@
         <v>60</v>
       </c>
       <c r="AC119" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="AD119" t="n">
         <v>0.1</v>
@@ -13611,15 +13636,15 @@
         <v>60</v>
       </c>
       <c r="AF119" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="s">
-        <v>377</v>
+        <v>383</v>
       </c>
       <c r="B120" t="s">
-        <v>378</v>
+        <v>384</v>
       </c>
       <c r="C120" t="n">
         <v>0.1</v>
@@ -13628,7 +13653,7 @@
         <v>65</v>
       </c>
       <c r="E120" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="F120" t="n">
         <v>0.1</v>
@@ -13637,7 +13662,7 @@
         <v>65</v>
       </c>
       <c r="H120" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="I120" t="n">
         <v>0.1</v>
@@ -13646,7 +13671,7 @@
         <v>65</v>
       </c>
       <c r="K120" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="L120" t="n">
         <v>-0.1</v>
@@ -13655,7 +13680,7 @@
         <v>70</v>
       </c>
       <c r="N120" t="s">
-        <v>379</v>
+        <v>385</v>
       </c>
       <c r="O120" t="n">
         <v>-0.1</v>
@@ -13664,7 +13689,7 @@
         <v>70</v>
       </c>
       <c r="Q120" t="s">
-        <v>379</v>
+        <v>385</v>
       </c>
       <c r="R120" t="n">
         <v>-0.1</v>
@@ -13673,7 +13698,7 @@
         <v>70</v>
       </c>
       <c r="T120" t="s">
-        <v>379</v>
+        <v>385</v>
       </c>
       <c r="U120" t="n">
         <v>-0.1</v>
@@ -13682,7 +13707,7 @@
         <v>70</v>
       </c>
       <c r="W120" t="s">
-        <v>379</v>
+        <v>385</v>
       </c>
       <c r="X120" t="n">
         <v>0</v>
@@ -13691,7 +13716,7 @@
         <v>65</v>
       </c>
       <c r="Z120" t="s">
-        <v>348</v>
+        <v>354</v>
       </c>
       <c r="AA120" t="n">
         <v>0</v>
@@ -13700,7 +13725,7 @@
         <v>65</v>
       </c>
       <c r="AC120" t="s">
-        <v>348</v>
+        <v>354</v>
       </c>
       <c r="AD120" t="n">
         <v>0</v>
@@ -13709,15 +13734,15 @@
         <v>65</v>
       </c>
       <c r="AF120" t="s">
-        <v>348</v>
+        <v>354</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="s">
-        <v>380</v>
+        <v>386</v>
       </c>
       <c r="B121" t="s">
-        <v>381</v>
+        <v>387</v>
       </c>
       <c r="C121" t="n">
         <v>0.1</v>
@@ -13726,7 +13751,7 @@
         <v>60</v>
       </c>
       <c r="E121" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="F121" t="n">
         <v>0.1</v>
@@ -13735,7 +13760,7 @@
         <v>60</v>
       </c>
       <c r="H121" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="I121" t="n">
         <v>0.1</v>
@@ -13744,7 +13769,7 @@
         <v>60</v>
       </c>
       <c r="K121" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="L121" t="n">
         <v>0.1</v>
@@ -13753,7 +13778,7 @@
         <v>65</v>
       </c>
       <c r="N121" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="O121" t="n">
         <v>0.1</v>
@@ -13762,7 +13787,7 @@
         <v>65</v>
       </c>
       <c r="Q121" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="R121" t="n">
         <v>0.1</v>
@@ -13771,7 +13796,7 @@
         <v>65</v>
       </c>
       <c r="T121" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="U121" t="n">
         <v>0.1</v>
@@ -13780,7 +13805,7 @@
         <v>65</v>
       </c>
       <c r="W121" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="X121" t="n">
         <v>0.1</v>
@@ -13789,7 +13814,7 @@
         <v>60</v>
       </c>
       <c r="Z121" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="AA121" t="n">
         <v>0.1</v>
@@ -13798,7 +13823,7 @@
         <v>60</v>
       </c>
       <c r="AC121" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="AD121" t="n">
         <v>0.1</v>
@@ -13807,15 +13832,15 @@
         <v>60</v>
       </c>
       <c r="AF121" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="s">
-        <v>382</v>
+        <v>388</v>
       </c>
       <c r="B122" t="s">
-        <v>383</v>
+        <v>389</v>
       </c>
       <c r="C122" t="n">
         <v>0.1</v>
@@ -13824,7 +13849,7 @@
         <v>55</v>
       </c>
       <c r="E122" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="F122" t="n">
         <v>0.1</v>
@@ -13833,7 +13858,7 @@
         <v>55</v>
       </c>
       <c r="H122" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="I122" t="n">
         <v>0.1</v>
@@ -13842,7 +13867,7 @@
         <v>55</v>
       </c>
       <c r="K122" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="L122" t="n">
         <v>0.1</v>
@@ -13851,7 +13876,7 @@
         <v>65</v>
       </c>
       <c r="N122" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="O122" t="n">
         <v>0.1</v>
@@ -13860,7 +13885,7 @@
         <v>65</v>
       </c>
       <c r="Q122" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="R122" t="n">
         <v>0.1</v>
@@ -13869,7 +13894,7 @@
         <v>55</v>
       </c>
       <c r="T122" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="U122" t="n">
         <v>0.1</v>
@@ -13878,7 +13903,7 @@
         <v>55</v>
       </c>
       <c r="W122" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="X122" t="n">
         <v>0.1</v>
@@ -13887,7 +13912,7 @@
         <v>65</v>
       </c>
       <c r="Z122" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="AA122" t="n">
         <v>0.1</v>
@@ -13896,7 +13921,7 @@
         <v>65</v>
       </c>
       <c r="AC122" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="AD122" t="n">
         <v>0.1</v>
@@ -13905,15 +13930,15 @@
         <v>65</v>
       </c>
       <c r="AF122" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="s">
-        <v>384</v>
+        <v>390</v>
       </c>
       <c r="B123" t="s">
-        <v>385</v>
+        <v>391</v>
       </c>
       <c r="C123" t="n">
         <v>0.1</v>
@@ -14008,10 +14033,10 @@
     </row>
     <row r="124">
       <c r="A124" t="s">
-        <v>386</v>
+        <v>392</v>
       </c>
       <c r="B124" t="s">
-        <v>387</v>
+        <v>393</v>
       </c>
       <c r="C124" t="n">
         <v>0.2</v>
@@ -14106,10 +14131,10 @@
     </row>
     <row r="125">
       <c r="A125" t="s">
-        <v>388</v>
+        <v>394</v>
       </c>
       <c r="B125" t="s">
-        <v>389</v>
+        <v>395</v>
       </c>
       <c r="C125" t="n">
         <v>0.1</v>
@@ -14118,7 +14143,7 @@
         <v>65</v>
       </c>
       <c r="E125" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="F125" t="n">
         <v>0.1</v>
@@ -14127,7 +14152,7 @@
         <v>65</v>
       </c>
       <c r="H125" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="I125" t="n">
         <v>0.1</v>
@@ -14136,7 +14161,7 @@
         <v>65</v>
       </c>
       <c r="K125" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="L125" t="n">
         <v>0.1</v>
@@ -14145,7 +14170,7 @@
         <v>65</v>
       </c>
       <c r="N125" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="O125" t="n">
         <v>0.1</v>
@@ -14154,7 +14179,7 @@
         <v>65</v>
       </c>
       <c r="Q125" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="R125" t="n">
         <v>0.2</v>
@@ -14181,7 +14206,7 @@
         <v>60</v>
       </c>
       <c r="Z125" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="AA125" t="n">
         <v>0.1</v>
@@ -14190,7 +14215,7 @@
         <v>60</v>
       </c>
       <c r="AC125" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="AD125" t="n">
         <v>0.1</v>
@@ -14199,15 +14224,15 @@
         <v>60</v>
       </c>
       <c r="AF125" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="s">
-        <v>390</v>
+        <v>396</v>
       </c>
       <c r="B126" t="s">
-        <v>391</v>
+        <v>397</v>
       </c>
       <c r="C126" t="n">
         <v>0.1</v>
@@ -14216,7 +14241,7 @@
         <v>65</v>
       </c>
       <c r="E126" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="F126" t="n">
         <v>0.1</v>
@@ -14225,7 +14250,7 @@
         <v>65</v>
       </c>
       <c r="H126" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="I126" t="n">
         <v>0.1</v>
@@ -14234,7 +14259,7 @@
         <v>65</v>
       </c>
       <c r="K126" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="L126" t="n">
         <v>0.1</v>
@@ -14243,7 +14268,7 @@
         <v>75</v>
       </c>
       <c r="N126" t="s">
-        <v>325</v>
+        <v>180</v>
       </c>
       <c r="O126" t="n">
         <v>0.1</v>
@@ -14252,7 +14277,7 @@
         <v>75</v>
       </c>
       <c r="Q126" t="s">
-        <v>325</v>
+        <v>180</v>
       </c>
       <c r="R126" t="n">
         <v>0.1</v>
@@ -14302,10 +14327,10 @@
     </row>
     <row r="127">
       <c r="A127" t="s">
-        <v>392</v>
+        <v>398</v>
       </c>
       <c r="B127" t="s">
-        <v>393</v>
+        <v>399</v>
       </c>
       <c r="C127" t="n">
         <v>0.1</v>
@@ -14314,7 +14339,7 @@
         <v>75</v>
       </c>
       <c r="E127" t="s">
-        <v>394</v>
+        <v>400</v>
       </c>
       <c r="F127"/>
       <c r="G127"/>
@@ -14388,10 +14413,10 @@
     </row>
     <row r="128">
       <c r="A128" t="s">
-        <v>395</v>
+        <v>401</v>
       </c>
       <c r="B128" t="s">
-        <v>396</v>
+        <v>402</v>
       </c>
       <c r="C128" t="n">
         <v>0.2</v>
@@ -14463,7 +14488,7 @@
         <v>65</v>
       </c>
       <c r="Z128" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="AA128" t="n">
         <v>0.1</v>
@@ -14472,7 +14497,7 @@
         <v>65</v>
       </c>
       <c r="AC128" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="AD128" t="n">
         <v>0.1</v>
@@ -14481,15 +14506,15 @@
         <v>65</v>
       </c>
       <c r="AF128" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="s">
-        <v>397</v>
+        <v>403</v>
       </c>
       <c r="B129" t="s">
-        <v>398</v>
+        <v>404</v>
       </c>
       <c r="C129" t="n">
         <v>0.2</v>
@@ -14584,10 +14609,10 @@
     </row>
     <row r="130">
       <c r="A130" t="s">
-        <v>399</v>
+        <v>405</v>
       </c>
       <c r="B130" t="s">
-        <v>400</v>
+        <v>406</v>
       </c>
       <c r="C130" t="n">
         <v>0.2</v>
@@ -14623,7 +14648,7 @@
         <v>60</v>
       </c>
       <c r="N130" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="O130" t="n">
         <v>0.1</v>
@@ -14632,7 +14657,7 @@
         <v>60</v>
       </c>
       <c r="Q130" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="R130" t="n">
         <v>0.1</v>
@@ -14641,7 +14666,7 @@
         <v>65</v>
       </c>
       <c r="T130" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="U130" t="n">
         <v>0.1</v>
@@ -14650,7 +14675,7 @@
         <v>65</v>
       </c>
       <c r="W130" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="X130" t="n">
         <v>0.1</v>
@@ -14682,10 +14707,10 @@
     </row>
     <row r="131">
       <c r="A131" t="s">
-        <v>401</v>
+        <v>407</v>
       </c>
       <c r="B131" t="s">
-        <v>402</v>
+        <v>408</v>
       </c>
       <c r="C131" t="n">
         <v>0.1</v>
@@ -14694,7 +14719,7 @@
         <v>60</v>
       </c>
       <c r="E131" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="F131" t="n">
         <v>0.1</v>
@@ -14703,7 +14728,7 @@
         <v>60</v>
       </c>
       <c r="H131" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="I131" t="n">
         <v>0.1</v>
@@ -14712,7 +14737,7 @@
         <v>60</v>
       </c>
       <c r="K131" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="L131" t="n">
         <v>0.1</v>
@@ -14721,7 +14746,7 @@
         <v>60</v>
       </c>
       <c r="N131" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="O131" t="n">
         <v>0.1</v>
@@ -14730,7 +14755,7 @@
         <v>60</v>
       </c>
       <c r="Q131" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="R131" t="n">
         <v>0.1</v>
@@ -14739,7 +14764,7 @@
         <v>60</v>
       </c>
       <c r="T131" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="U131" t="n">
         <v>0.1</v>
@@ -14748,7 +14773,7 @@
         <v>60</v>
       </c>
       <c r="W131" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="X131" t="n">
         <v>0.1</v>
@@ -14757,7 +14782,7 @@
         <v>55</v>
       </c>
       <c r="Z131" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="AA131" t="n">
         <v>0.1</v>
@@ -14766,7 +14791,7 @@
         <v>55</v>
       </c>
       <c r="AC131" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="AD131" t="n">
         <v>0.1</v>
@@ -14775,7 +14800,7 @@
         <v>55</v>
       </c>
       <c r="AF131" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
     </row>
   </sheetData>
